--- a/data/burdens-demo.xlsx
+++ b/data/burdens-demo.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
   <si>
     <t>HIV/AIDS resulting in other diseases</t>
   </si>
@@ -1031,12 +1031,19 @@
   </si>
   <si>
     <t>Cause of disease burden</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1477,7 +1484,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1520,13 +1527,20 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1554,6 +1568,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -1570,7 +1585,22 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1594,15 +1624,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1614,14 +1635,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E335" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E335"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Active"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F335" totalsRowShown="0" headerRowDxfId="5">
+  <tableColumns count="6">
+    <tableColumn id="6" name="Index" dataDxfId="4"/>
+    <tableColumn id="1" name="Active" dataDxfId="3"/>
     <tableColumn id="2" name="Cause of disease burden"/>
-    <tableColumn id="3" name="DALYs" dataDxfId="3"/>
-    <tableColumn id="4" name="Deaths" dataDxfId="2"/>
-    <tableColumn id="5" name="Prevalence" dataDxfId="1"/>
+    <tableColumn id="3" name="DALYs" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="4" name="Deaths" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="5" name="Prevalence" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1914,5719 +1935,6726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E335"/>
+  <dimension ref="A1:F335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B315" sqref="B315"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="62.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="2">
         <v>71538.760351200006</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
         <v>2793436.6702200002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="2">
         <v>335.91991891100002</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="2">
         <v>6.5741268745700001</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="2">
         <v>280.46185164799999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="2">
         <v>1299.25991565</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="2">
         <v>14.2001515817</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="2">
         <v>35470.346914000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="2">
         <v>3205.5234945399998</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="2">
         <v>50.305726756200002</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="2">
         <v>2554.83243752</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="2">
         <v>14612.7412169</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="2">
         <v>223.28393227000001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="2">
         <v>808.62363191899999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="2">
         <v>8555.1406746800003</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="2">
         <v>157.59405691500001</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="2">
         <v>298.95829052900001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="2">
         <v>56447.234338900002</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="2">
         <v>1053.12831351</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="2">
         <v>10508.8539621</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>313</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="2">
         <v>105265.246031</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
         <v>2471218.4148499998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="2">
         <v>22578.174648799999</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="2">
         <v>138.52625955900001</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="2">
         <v>169526.474972</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="2">
         <v>2341.4109419199999</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="2">
         <v>71.621924203800006</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="2">
         <v>664.10162930700005</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="2">
         <v>18559913.783799998</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="2">
         <v>303811.85109399998</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="2">
         <v>32881049.194499999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>330</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="2">
         <v>1782.7626544100001</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
         <v>54941.9203308</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>250</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="2">
         <v>48654.350705500001</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="2">
         <v>2903.0183889800001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="2">
         <v>65639.100505800001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>261</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="2">
         <v>654.84159577200001</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="2">
         <v>6.8728596576800003</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="2">
         <v>2276.2798704800002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="2">
         <v>15821.108124</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="2">
         <v>157.04206430799999</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="2">
         <v>172996.01371</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>264</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="2">
         <v>1360.5742618100001</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="2">
         <v>0.84235460466900003</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="2">
         <v>6197.20412863</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>280</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="2">
         <v>141942.952854</v>
       </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
         <v>1481594.17652</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="2">
         <v>5263.8341397300001</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="2">
         <v>183.63016340600001</v>
       </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>241</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="2">
         <v>18952.7691959</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="2">
         <v>369.317403528</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="2">
         <v>4945.0950460399999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="2">
         <v>138.33828790600001</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="2">
         <v>2.46080370988</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="2">
         <v>276.09932416499998</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="2">
         <v>25999.9278939</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="2">
         <v>29.770542874099998</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="2">
         <v>12452607.629000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="2">
         <v>22752.292829000002</v>
       </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
         <v>227892.87499899999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>230</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="2">
         <v>183363.12229900001</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="2">
         <v>3146.9273274500001</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="2">
         <v>2002477.9615</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="2">
         <v>6002.3468777799999</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="2">
         <v>144.970049937</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="2">
         <v>52739.9439442</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>284</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="2">
         <v>4991.5831607800001</v>
       </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
         <v>415941.23164000001</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>282</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="2">
         <v>20093.885254600002</v>
       </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
         <v>79029.017135100003</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>281</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="2">
         <v>42846.178083600003</v>
       </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
         <v>304876.63990000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>295</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="2">
         <v>9528.5589245400006</v>
       </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
         <v>297188.50910199998</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>279</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="2">
         <v>44216.406187400004</v>
       </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
         <v>218599.656644</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="2">
         <v>10869.6593318</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="2">
         <v>435.80812446099998</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="2">
         <v>1167.6481003599999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="2">
         <v>29461.172381799999</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="2">
         <v>627.26175027800002</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="2">
         <v>1299.9119377</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="2">
         <v>100927.114311</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="2">
         <v>2709.5832830099998</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="2">
         <v>11066.9916524</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="2">
         <v>5038.1291357299997</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="2">
         <v>7.0043576245900005E-2</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="2">
         <v>24220.733712599998</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>275</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="2">
         <v>1519.02133751</v>
       </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
         <v>52275.875178000002</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="1">
+      <c r="D37" s="2">
         <v>17425.006518099999</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="2">
         <v>432.13560127300002</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="2">
         <v>7853.3296157100003</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D38" s="2">
         <v>2257809.9707300002</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="2">
         <v>80333.111087400001</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="2">
         <v>1381160.45964</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>317</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D39" s="2">
         <v>923.65963041199996</v>
       </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
         <v>3931575.0691</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>318</v>
       </c>
-      <c r="C40" s="1">
+      <c r="D40" s="2">
         <v>7991.6122691500004</v>
       </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
         <v>13652403.0474</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>310</v>
       </c>
-      <c r="C41" s="1">
+      <c r="D41" s="2">
         <v>16932.902374599998</v>
       </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
         <v>211890.790404</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="1">
+      <c r="D42" s="2">
         <v>1074.07271578</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="2">
         <v>5.81918796257</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="2">
         <v>15320.0918955</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D43" s="2">
         <v>650879.46664700005</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="2">
         <v>23131.8121168</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="2">
         <v>150133.165343</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="1">
+      <c r="D44" s="2">
         <v>26416.737029299999</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="2">
         <v>736.59336951299997</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="2">
         <v>3755.9046343700002</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="2">
         <v>2051.98247446</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="2">
         <v>4.0662416586100001</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="2">
         <v>288116.93234399997</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="1">
+      <c r="D47" s="2">
         <v>303585.14319199999</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="2">
         <v>8047.6522877099997</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="2">
         <v>1191489.0757800001</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="1">
+      <c r="D48" s="2">
         <v>110021.26331900001</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="2">
         <v>3300.54980656</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="2">
         <v>478304.05889300001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="1">
+      <c r="D49" s="2">
         <v>57449.154046900003</v>
       </c>
-      <c r="D49" s="1">
+      <c r="E49" s="2">
         <v>1124.97317651</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="2">
         <v>177487.449012</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="1">
+      <c r="D50" s="2">
         <v>35153.148083499997</v>
       </c>
-      <c r="D50" s="1">
+      <c r="E50" s="2">
         <v>1306.2770988699999</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="2">
         <v>179671.77161200001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="1">
+      <c r="D51" s="2">
         <v>100961.577743</v>
       </c>
-      <c r="D51" s="1">
+      <c r="E51" s="2">
         <v>2315.8522057599998</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="2">
         <v>356025.796264</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="1">
+      <c r="D52" s="2">
         <v>2021.8225789799999</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="2">
         <v>55.785152793599998</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="2">
         <v>435.19222791599998</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="1">
+      <c r="D53" s="2">
         <v>8914.1155679700005</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="2">
         <v>226.128717722</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="2">
         <v>579.36261577799996</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
         <v>175</v>
       </c>
-      <c r="C54" s="1">
+      <c r="D54" s="2">
         <v>180596.87866700001</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E54" s="2">
         <v>6389.2106463</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="2">
         <v>568974.458705</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
         <v>174</v>
       </c>
-      <c r="C55" s="1">
+      <c r="D55" s="2">
         <v>379369.57355600002</v>
       </c>
-      <c r="D55" s="1">
+      <c r="E55" s="2">
         <v>9922.0349669000007</v>
       </c>
-      <c r="E55" s="1">
+      <c r="F55" s="2">
         <v>2521497.0942500001</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
         <v>233</v>
       </c>
-      <c r="C56" s="1">
+      <c r="D56" s="2">
         <v>144811.80506899999</v>
       </c>
-      <c r="D56" s="1">
+      <c r="E56" s="2">
         <v>4085.88482256</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="2">
         <v>84162.089525599993</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
         <v>236</v>
       </c>
-      <c r="C57" s="1">
+      <c r="D57" s="2">
         <v>8699.7341744200003</v>
       </c>
-      <c r="D57" s="1">
+      <c r="E57" s="2">
         <v>286.43485550499997</v>
       </c>
-      <c r="E57" s="1">
+      <c r="F57" s="2">
         <v>4263.3274094099997</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
         <v>234</v>
       </c>
-      <c r="C58" s="1">
+      <c r="D58" s="2">
         <v>39860.144992000001</v>
       </c>
-      <c r="D58" s="1">
+      <c r="E58" s="2">
         <v>1275.3092453700001</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="2">
         <v>20476.5500937</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
         <v>235</v>
       </c>
-      <c r="C59" s="1">
+      <c r="D59" s="2">
         <v>42903.139178899997</v>
       </c>
-      <c r="D59" s="1">
+      <c r="E59" s="2">
         <v>1363.8077638300001</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="2">
         <v>21972.161937199999</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
         <v>237</v>
       </c>
-      <c r="C60" s="1">
+      <c r="D60" s="2">
         <v>53348.7867234</v>
       </c>
-      <c r="D60" s="1">
+      <c r="E60" s="2">
         <v>1160.33295785</v>
       </c>
-      <c r="E60" s="1">
+      <c r="F60" s="2">
         <v>37450.050085299998</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="1">
+      <c r="D61" s="2">
         <v>85.076242940200004</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="2">
         <v>3.5183089725799999</v>
       </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
         <v>260</v>
       </c>
-      <c r="C62" s="1">
+      <c r="D62" s="2">
         <v>2277.3074083800002</v>
       </c>
-      <c r="D62" s="1">
+      <c r="E62" s="2">
         <v>13.0290310618</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="2">
         <v>12183.3423124</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="1">
+      <c r="D63" s="2">
         <v>47759.957368299998</v>
       </c>
-      <c r="D63" s="1">
+      <c r="E63" s="2">
         <v>1526.8684529699999</v>
       </c>
-      <c r="E63" s="1">
+      <c r="F63" s="2">
         <v>3353.7009060999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
         <v>225</v>
       </c>
-      <c r="C64" s="1">
+      <c r="D64" s="2">
         <v>6588879.1880400004</v>
       </c>
-      <c r="D64" s="1">
+      <c r="E64" s="2">
         <v>84489.662183499997</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="2">
         <v>28836599.662999999</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
         <v>285</v>
       </c>
-      <c r="C65" s="1">
+      <c r="D65" s="2">
         <v>47097.420551099996</v>
       </c>
-      <c r="D65" s="1">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
         <v>390092.07056600001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
         <v>218</v>
       </c>
-      <c r="C66" s="1">
+      <c r="D66" s="2">
         <v>1616222.9107900001</v>
       </c>
-      <c r="D66" s="1">
+      <c r="E66" s="2">
         <v>22621.222947999999</v>
       </c>
-      <c r="E66" s="1">
+      <c r="F66" s="2">
         <v>5954199.5885699997</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
         <v>200</v>
       </c>
-      <c r="C67" s="1">
+      <c r="D67" s="2">
         <v>1160913.9082599999</v>
       </c>
-      <c r="D67" s="1">
+      <c r="E67" s="2">
         <v>12793.484428</v>
       </c>
-      <c r="E67" s="1">
+      <c r="F67" s="2">
         <v>700541.166814</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="1">
+      <c r="D68" s="2">
         <v>454198.24030300003</v>
       </c>
-      <c r="D68" s="1">
+      <c r="E68" s="2">
         <v>5329.4375199699998</v>
       </c>
-      <c r="E68" s="1">
+      <c r="F68" s="2">
         <v>159340.65987100001</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="1">
+      <c r="D69" s="2">
         <v>30024.663833099999</v>
       </c>
-      <c r="D69" s="1">
+      <c r="E69" s="2">
         <v>241.05873320200001</v>
       </c>
-      <c r="E69" s="1">
+      <c r="F69" s="2">
         <v>65207.669397600002</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
         <v>271</v>
       </c>
-      <c r="C70" s="1">
+      <c r="D70" s="2">
         <v>156851.338674</v>
       </c>
-      <c r="D70" s="1">
-        <v>0</v>
-      </c>
-      <c r="E70" s="1">
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
         <v>2481004.7178000002</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="1">
+      <c r="D71" s="2">
         <v>12816.933738899999</v>
       </c>
-      <c r="D71" s="1">
+      <c r="E71" s="2">
         <v>176.62217622599999</v>
       </c>
-      <c r="E71" s="1">
+      <c r="F71" s="2">
         <v>46158.057205600002</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="1">
+      <c r="D72" s="2">
         <v>7646.5647506900004</v>
       </c>
-      <c r="D72" s="1">
-        <v>0</v>
-      </c>
-      <c r="E72" s="1">
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
         <v>82479.589874500001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
         <v>110</v>
       </c>
-      <c r="C73" s="1">
+      <c r="D73" s="2">
         <v>317.040289836</v>
       </c>
-      <c r="D73" s="1">
+      <c r="E73" s="2">
         <v>6.3948507913799997</v>
       </c>
-      <c r="E73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="1">
+      <c r="D74" s="2">
         <v>2474.8612561199998</v>
       </c>
-      <c r="D74" s="1">
+      <c r="E74" s="2">
         <v>80.640268284399994</v>
       </c>
-      <c r="E74" s="1">
+      <c r="F74" s="2">
         <v>4982.0853921099997</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
         <v>112</v>
       </c>
-      <c r="C75" s="1">
+      <c r="D75" s="2">
         <v>1184.6592513099999</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="2">
         <v>0.25649238297499999</v>
       </c>
-      <c r="E75" s="1">
+      <c r="F75" s="2">
         <v>7123.9100421499998</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
         <v>276</v>
       </c>
-      <c r="C76" s="1">
+      <c r="D76" s="2">
         <v>196199.655134</v>
       </c>
-      <c r="D76" s="1">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1">
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
         <v>1091221.1520199999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
         <v>324</v>
       </c>
-      <c r="C77" s="1">
+      <c r="D77" s="2">
         <v>68024.754032900004</v>
       </c>
-      <c r="D77" s="1">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1">
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2">
         <v>1735353.1348300001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
         <v>119</v>
       </c>
-      <c r="C78" s="1">
+      <c r="D78" s="2">
         <v>424943.56342999998</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E78" s="2">
         <v>11067.909845</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F78" s="2">
         <v>1496582.2921500001</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
         <v>118</v>
       </c>
-      <c r="C79" s="1">
+      <c r="D79" s="2">
         <v>975116.68851799995</v>
       </c>
-      <c r="D79" s="1">
+      <c r="E79" s="2">
         <v>21413.140631300001</v>
       </c>
-      <c r="E79" s="1">
+      <c r="F79" s="2">
         <v>15618407.103800001</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="1">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
         <v>2949759.23765</v>
       </c>
-      <c r="D80" s="1">
+      <c r="E80" s="2">
         <v>37084.322147400002</v>
       </c>
-      <c r="E80" s="1">
+      <c r="F80" s="2">
         <v>2622724.6253</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="1">
+      <c r="D81" s="2">
         <v>458501.17257499998</v>
       </c>
-      <c r="D81" s="1">
+      <c r="E81" s="2">
         <v>4909.5615661800002</v>
       </c>
-      <c r="E81" s="1">
+      <c r="F81" s="2">
         <v>591108.22412599996</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>1</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
         <v>208</v>
       </c>
-      <c r="C82" s="1">
+      <c r="D82" s="2">
         <v>46031.080189300003</v>
       </c>
-      <c r="D82" s="1">
+      <c r="E82" s="2">
         <v>518.06365506199995</v>
       </c>
-      <c r="E82" s="1">
+      <c r="F82" s="2">
         <v>41935.501480799998</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
         <v>238</v>
       </c>
-      <c r="C83" s="1">
+      <c r="D83" s="2">
         <v>186894.669716</v>
       </c>
-      <c r="D83" s="1">
+      <c r="E83" s="2">
         <v>4079.3138233700001</v>
       </c>
-      <c r="E83" s="1">
+      <c r="F83" s="2">
         <v>1037347.53417</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>1</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="1">
+      <c r="D84" s="2">
         <v>1261.09676313</v>
       </c>
-      <c r="D84" s="1">
+      <c r="E84" s="2">
         <v>16.972116677700001</v>
       </c>
-      <c r="E84" s="1">
+      <c r="F84" s="2">
         <v>6.8200222846300003</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>1</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
         <v>204</v>
       </c>
-      <c r="C85" s="1">
+      <c r="D85" s="2">
         <v>21909.968842599999</v>
       </c>
-      <c r="D85" s="1">
+      <c r="E85" s="2">
         <v>249.98930895300001</v>
       </c>
-      <c r="E85" s="1">
+      <c r="F85" s="2">
         <v>17453.545274100001</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="1">
+      <c r="D86" s="2">
         <v>220862.03361400001</v>
       </c>
-      <c r="D86" s="1">
+      <c r="E86" s="2">
         <v>3226.7958119199998</v>
       </c>
-      <c r="E86" s="1">
+      <c r="F86" s="2">
         <v>12418.1808833</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
         <v>258</v>
       </c>
-      <c r="C87" s="1">
+      <c r="D87" s="2">
         <v>123697.588557</v>
       </c>
-      <c r="D87" s="1">
+      <c r="E87" s="2">
         <v>267.90352092000001</v>
       </c>
-      <c r="E87" s="1">
+      <c r="F87" s="2">
         <v>335347.10333999997</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
         <v>221</v>
       </c>
-      <c r="C88" s="1">
+      <c r="D88" s="2">
         <v>596.84233433700001</v>
       </c>
-      <c r="D88" s="1">
+      <c r="E88" s="2">
         <v>10.9367514594</v>
       </c>
-      <c r="E88" s="1">
+      <c r="F88" s="2">
         <v>18.3408515309</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
         <v>212</v>
       </c>
-      <c r="C89" s="1">
+      <c r="D89" s="2">
         <v>442280.54612100002</v>
       </c>
-      <c r="D89" s="1">
+      <c r="E89" s="2">
         <v>11529.085918000001</v>
       </c>
-      <c r="E89" s="1">
+      <c r="F89" s="2">
         <v>18705.071327400001</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
         <v>278</v>
       </c>
-      <c r="C90" s="1">
+      <c r="D90" s="2">
         <v>23622.301947200001</v>
       </c>
-      <c r="D90" s="1">
-        <v>0</v>
-      </c>
-      <c r="E90" s="1">
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
         <v>249241.47640700001</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>1</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
         <v>263</v>
       </c>
-      <c r="C91" s="1">
+      <c r="D91" s="2">
         <v>6398.7033975300001</v>
       </c>
-      <c r="D91" s="1">
+      <c r="E91" s="2">
         <v>0.91239818091400005</v>
       </c>
-      <c r="E91" s="1">
+      <c r="F91" s="2">
         <v>32181.066670600001</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
         <v>189</v>
       </c>
-      <c r="C92" s="1">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1">
-        <v>0</v>
-      </c>
-      <c r="E92" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>1</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
         <v>320</v>
       </c>
-      <c r="C93" s="1">
+      <c r="D93" s="2">
         <v>18639.214696700001</v>
       </c>
-      <c r="D93" s="1">
-        <v>0</v>
-      </c>
-      <c r="E93" s="1">
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
         <v>686461.208185</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>1</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="1">
+      <c r="D94" s="2">
         <v>25854.627486500001</v>
       </c>
-      <c r="D94" s="1">
+      <c r="E94" s="2">
         <v>266.96967024100002</v>
       </c>
-      <c r="E94" s="1">
+      <c r="F94" s="2">
         <v>84788.164711000005</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>1</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
         <v>172</v>
       </c>
-      <c r="C95" s="1">
+      <c r="D95" s="2">
         <v>6364.8385905599998</v>
       </c>
-      <c r="D95" s="1">
+      <c r="E95" s="2">
         <v>201.39070901700001</v>
       </c>
-      <c r="E95" s="1">
+      <c r="F95" s="2">
         <v>817.72554426800002</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>1</v>
-      </c>
-      <c r="B96" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
         <v>195</v>
       </c>
-      <c r="C96" s="1">
+      <c r="D96" s="2">
         <v>54676.224040699999</v>
       </c>
-      <c r="D96" s="1">
+      <c r="E96" s="2">
         <v>777.49070613699996</v>
       </c>
-      <c r="E96" s="1">
+      <c r="F96" s="2">
         <v>388254.659407</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>1</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
         <v>133</v>
       </c>
-      <c r="C97" s="1">
+      <c r="D97" s="2">
         <v>518.03415239000003</v>
       </c>
-      <c r="D97" s="1">
+      <c r="E97" s="2">
         <v>0.19041999690299999</v>
       </c>
-      <c r="E97" s="1">
+      <c r="F97" s="2">
         <v>5368.7438511600003</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
         <v>188</v>
       </c>
-      <c r="C98" s="1">
+      <c r="D98" s="2">
         <v>33314.680353099997</v>
       </c>
-      <c r="D98" s="1">
+      <c r="E98" s="2">
         <v>447.47455871099999</v>
       </c>
-      <c r="E98" s="1">
+      <c r="F98" s="2">
         <v>197843.35913699999</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>1</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
         <v>252</v>
       </c>
-      <c r="C99" s="1">
+      <c r="D99" s="2">
         <v>95820.963734399993</v>
       </c>
-      <c r="D99" s="1">
+      <c r="E99" s="2">
         <v>996.53714334899996</v>
       </c>
-      <c r="E99" s="1">
+      <c r="F99" s="2">
         <v>81796.485646300003</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>1</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
         <v>63</v>
       </c>
-      <c r="C100" s="1">
+      <c r="D100" s="2">
         <v>14932.548384199999</v>
       </c>
-      <c r="D100" s="1">
+      <c r="E100" s="2">
         <v>524.086267969</v>
       </c>
-      <c r="E100" s="1">
+      <c r="F100" s="2">
         <v>438.63513992100002</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>1</v>
-      </c>
-      <c r="B101" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
         <v>211</v>
       </c>
-      <c r="C101" s="1">
+      <c r="D101" s="2">
         <v>480.81101881400002</v>
       </c>
-      <c r="D101" s="1">
+      <c r="E101" s="2">
         <v>7.2547248123600001</v>
       </c>
-      <c r="E101" s="1">
+      <c r="F101" s="2">
         <v>2838.4626842799998</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>1</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
         <v>186</v>
       </c>
-      <c r="C102" s="1">
+      <c r="D102" s="2">
         <v>2627.5404634800002</v>
       </c>
-      <c r="D102" s="1">
-        <v>0</v>
-      </c>
-      <c r="E102" s="1">
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2">
         <v>52612.959657500003</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>1</v>
-      </c>
-      <c r="B103" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
         <v>95</v>
       </c>
-      <c r="C103" s="1">
+      <c r="D103" s="2">
         <v>155127.12993200001</v>
       </c>
-      <c r="D103" s="1">
+      <c r="E103" s="2">
         <v>2396.73226342</v>
       </c>
-      <c r="E103" s="1">
+      <c r="F103" s="2">
         <v>451135.07857499999</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>1</v>
-      </c>
-      <c r="B104" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
         <v>223</v>
       </c>
-      <c r="C104" s="1">
+      <c r="D104" s="2">
         <v>13.273540135599999</v>
       </c>
-      <c r="D104" s="1">
+      <c r="E104" s="2">
         <v>0.24606068515000001</v>
       </c>
-      <c r="E104" s="1">
+      <c r="F104" s="2">
         <v>5.6722232893599997E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>1</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
         <v>220</v>
       </c>
-      <c r="C105" s="1">
+      <c r="D105" s="2">
         <v>7777.8860345200001</v>
       </c>
-      <c r="D105" s="1">
+      <c r="E105" s="2">
         <v>205.16772311700001</v>
       </c>
-      <c r="E105" s="1">
+      <c r="F105" s="2">
         <v>45.902971797799999</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>1</v>
-      </c>
-      <c r="B106" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
         <v>91</v>
       </c>
-      <c r="C106" s="1">
+      <c r="D106" s="2">
         <v>309869.34237999999</v>
       </c>
-      <c r="D106" s="1">
+      <c r="E106" s="2">
         <v>3976.3898156300002</v>
       </c>
-      <c r="E106" s="1">
+      <c r="F106" s="2">
         <v>1123166.37797</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>1</v>
-      </c>
-      <c r="B107" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
         <v>297</v>
       </c>
-      <c r="C107" s="1">
+      <c r="D107" s="2">
         <v>496.34131995000001</v>
       </c>
-      <c r="D107" s="1">
-        <v>0</v>
-      </c>
-      <c r="E107" s="1">
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+      <c r="F107" s="2">
         <v>80749.652567900004</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>1</v>
-      </c>
-      <c r="B108" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
         <v>93</v>
       </c>
-      <c r="C108" s="1">
+      <c r="D108" s="2">
         <v>41508.311653600002</v>
       </c>
-      <c r="D108" s="1">
+      <c r="E108" s="2">
         <v>580.99062126900003</v>
       </c>
-      <c r="E108" s="1">
+      <c r="F108" s="2">
         <v>219155.83869599999</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>1</v>
-      </c>
-      <c r="B109" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
         <v>267</v>
       </c>
-      <c r="C109" s="1">
-        <v>0</v>
-      </c>
-      <c r="D109" s="1">
-        <v>0</v>
-      </c>
-      <c r="E109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>1</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="D109" s="2">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
         <v>185</v>
       </c>
-      <c r="C110" s="1">
+      <c r="D110" s="2">
         <v>1619331.2622799999</v>
       </c>
-      <c r="D110" s="1">
+      <c r="E110" s="2">
         <v>22628.4776728</v>
       </c>
-      <c r="E110" s="1">
+      <c r="F110" s="2">
         <v>6009651.0109099997</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>1</v>
-      </c>
-      <c r="B111" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
         <v>103</v>
       </c>
-      <c r="C111" s="1">
+      <c r="D111" s="2">
         <v>39137.951312999998</v>
       </c>
-      <c r="D111" s="1">
+      <c r="E111" s="2">
         <v>455.36979426200003</v>
       </c>
-      <c r="E111" s="1">
+      <c r="F111" s="2">
         <v>181603.825858</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>1</v>
-      </c>
-      <c r="B112" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
         <v>287</v>
       </c>
-      <c r="C112" s="1">
+      <c r="D112" s="2">
         <v>697.85787443900006</v>
       </c>
-      <c r="D112" s="1">
-        <v>0</v>
-      </c>
-      <c r="E112" s="1">
+      <c r="E112" s="2">
+        <v>0</v>
+      </c>
+      <c r="F112" s="2">
         <v>12111.5701936</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>1</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
         <v>105</v>
       </c>
-      <c r="C113" s="1">
+      <c r="D113" s="2">
         <v>16904.5684707</v>
       </c>
-      <c r="D113" s="1">
+      <c r="E113" s="2">
         <v>197.754905073</v>
       </c>
-      <c r="E113" s="1">
+      <c r="F113" s="2">
         <v>108285.2582</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>1</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
         <v>327</v>
       </c>
-      <c r="C114" s="1">
+      <c r="D114" s="2">
         <v>10755.83755</v>
       </c>
-      <c r="D114" s="1">
-        <v>0</v>
-      </c>
-      <c r="E114" s="1">
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+      <c r="F114" s="2">
         <v>1912936.5309599999</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>1</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
         <v>139</v>
       </c>
-      <c r="C115" s="1">
+      <c r="D115" s="2">
         <v>5903.0728716499998</v>
       </c>
-      <c r="D115" s="1">
+      <c r="E115" s="2">
         <v>138.37162476399999</v>
       </c>
-      <c r="E115" s="1">
+      <c r="F115" s="2">
         <v>1449028.0299</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>1</v>
-      </c>
-      <c r="B116" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
         <v>290</v>
       </c>
-      <c r="C116" s="1">
+      <c r="D116" s="2">
         <v>2.39754365751</v>
       </c>
-      <c r="D116" s="1">
-        <v>0</v>
-      </c>
-      <c r="E116" s="1">
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+      <c r="F116" s="2">
         <v>4403269.0452699997</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="B117" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
         <v>246</v>
       </c>
-      <c r="C117" s="1">
+      <c r="D117" s="2">
         <v>9776.5558892000008</v>
       </c>
-      <c r="D117" s="1">
+      <c r="E117" s="2">
         <v>332.85468558899998</v>
       </c>
-      <c r="E117" s="1">
+      <c r="F117" s="2">
         <v>38005.163661799997</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>1</v>
-      </c>
-      <c r="B118" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
         <v>145</v>
       </c>
-      <c r="C118" s="1">
+      <c r="D118" s="2">
         <v>9641.6174283300006</v>
       </c>
-      <c r="D118" s="1">
+      <c r="E118" s="2">
         <v>357.17661166200003</v>
       </c>
-      <c r="E118" s="1">
+      <c r="F118" s="2">
         <v>200.603019004</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>1</v>
-      </c>
-      <c r="B119" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
         <v>240</v>
       </c>
-      <c r="C119" s="1">
+      <c r="D119" s="2">
         <v>6120.1243665800002</v>
       </c>
-      <c r="D119" s="1">
+      <c r="E119" s="2">
         <v>24.047567267400002</v>
       </c>
-      <c r="E119" s="1">
+      <c r="F119" s="2">
         <v>255778.397153</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>1</v>
-      </c>
-      <c r="B120" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
         <v>308</v>
       </c>
-      <c r="C120" s="1">
+      <c r="D120" s="2">
         <v>570.18698499699997</v>
       </c>
-      <c r="D120" s="1">
-        <v>0</v>
-      </c>
-      <c r="E120" s="1">
+      <c r="E120" s="2">
+        <v>0</v>
+      </c>
+      <c r="F120" s="2">
         <v>2155756.45836</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>1</v>
-      </c>
-      <c r="B121" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
         <v>134</v>
       </c>
-      <c r="C121" s="1">
+      <c r="D121" s="2">
         <v>2892.3283243199999</v>
       </c>
-      <c r="D121" s="1">
+      <c r="E121" s="2">
         <v>0.80178703764199999</v>
       </c>
-      <c r="E121" s="1">
+      <c r="F121" s="2">
         <v>934864.24631800002</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>1</v>
-      </c>
-      <c r="B122" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
         <v>309</v>
       </c>
-      <c r="C122" s="1">
+      <c r="D122" s="2">
         <v>1588.47887393</v>
       </c>
-      <c r="D122" s="1">
-        <v>0</v>
-      </c>
-      <c r="E122" s="1">
+      <c r="E122" s="2">
+        <v>0</v>
+      </c>
+      <c r="F122" s="2">
         <v>15258.921703800001</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>1</v>
-      </c>
-      <c r="B123" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
         <v>53</v>
       </c>
-      <c r="C123" s="1">
+      <c r="D123" s="2">
         <v>9822.5763700999996</v>
       </c>
-      <c r="D123" s="1">
+      <c r="E123" s="2">
         <v>10.8776687136</v>
       </c>
-      <c r="E123" s="1">
+      <c r="F123" s="2">
         <v>734823.75524900004</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>1</v>
-      </c>
-      <c r="B124" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
         <v>305</v>
       </c>
-      <c r="C124" s="1">
+      <c r="D124" s="2">
         <v>1768.87948422</v>
       </c>
-      <c r="D124" s="1">
-        <v>0</v>
-      </c>
-      <c r="E124" s="1">
+      <c r="E124" s="2">
+        <v>0</v>
+      </c>
+      <c r="F124" s="2">
         <v>57177.589740700001</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>1</v>
-      </c>
-      <c r="B125" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="4">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
         <v>302</v>
       </c>
-      <c r="C125" s="1">
-        <v>0</v>
-      </c>
-      <c r="D125" s="1">
-        <v>0</v>
-      </c>
-      <c r="E125" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="D125" s="2">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2">
+        <v>0</v>
+      </c>
+      <c r="F125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
         <v>130</v>
       </c>
-      <c r="C126" s="1">
+      <c r="D126" s="2">
         <v>39385.011458300003</v>
       </c>
-      <c r="D126" s="1">
+      <c r="E126" s="2">
         <v>21.3265078823</v>
       </c>
-      <c r="E126" s="1">
+      <c r="F126" s="2">
         <v>3154513.1329899998</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>1</v>
-      </c>
-      <c r="B127" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="4">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
         <v>12</v>
       </c>
-      <c r="C127" s="1">
+      <c r="D127" s="2">
         <v>56799.922106799997</v>
       </c>
-      <c r="D127" s="1">
+      <c r="E127" s="2">
         <v>686.29214858399996</v>
       </c>
-      <c r="E127" s="1">
+      <c r="F127" s="2">
         <v>24927.580506599999</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="B128" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
         <v>136</v>
       </c>
-      <c r="C128" s="1">
+      <c r="D128" s="2">
         <v>130558.486856</v>
       </c>
-      <c r="D128" s="1">
+      <c r="E128" s="2">
         <v>1226.0690356800001</v>
       </c>
-      <c r="E128" s="1">
+      <c r="F128" s="2">
         <v>12411151.8204</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>1</v>
-      </c>
-      <c r="B129" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" s="4">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
         <v>42</v>
       </c>
-      <c r="C129" s="1">
+      <c r="D129" s="2">
         <v>69533.622467599998</v>
       </c>
-      <c r="D129" s="1">
+      <c r="E129" s="2">
         <v>693.92363457800002</v>
       </c>
-      <c r="E129" s="1">
+      <c r="F129" s="2">
         <v>28752.646183500001</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>1</v>
-      </c>
-      <c r="B130" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
         <v>166</v>
       </c>
-      <c r="C130" s="1">
+      <c r="D130" s="2">
         <v>412503.45444</v>
       </c>
-      <c r="D130" s="1">
+      <c r="E130" s="2">
         <v>13108.120278599999</v>
       </c>
-      <c r="E130" s="1">
+      <c r="F130" s="2">
         <v>26637.688923400001</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>1</v>
-      </c>
-      <c r="B131" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
         <v>55</v>
       </c>
-      <c r="C131" s="1">
+      <c r="D131" s="2">
         <v>18218.0170908</v>
       </c>
-      <c r="D131" s="1">
+      <c r="E131" s="2">
         <v>384.97145030799999</v>
       </c>
-      <c r="E131" s="1">
+      <c r="F131" s="2">
         <v>2976914.1442200001</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>1</v>
-      </c>
-      <c r="B132" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
         <v>57</v>
       </c>
-      <c r="C132" s="1">
+      <c r="D132" s="2">
         <v>13521.723518299999</v>
       </c>
-      <c r="D132" s="1">
+      <c r="E132" s="2">
         <v>315.378445763</v>
       </c>
-      <c r="E132" s="1">
+      <c r="F132" s="2">
         <v>2731580.2086399999</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>1</v>
-      </c>
-      <c r="B133" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="4">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
         <v>58</v>
       </c>
-      <c r="C133" s="1">
+      <c r="D133" s="2">
         <v>191.510162385</v>
       </c>
-      <c r="D133" s="1">
+      <c r="E133" s="2">
         <v>5.0871262072599999</v>
       </c>
-      <c r="E133" s="1">
+      <c r="F133" s="2">
         <v>207308.75623</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>1</v>
-      </c>
-      <c r="B134" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
         <v>228</v>
       </c>
-      <c r="C134" s="1">
+      <c r="D134" s="2">
         <v>8953.8136729599992</v>
       </c>
-      <c r="D134" s="1">
+      <c r="E134" s="2">
         <v>159.16499282199999</v>
       </c>
-      <c r="E134" s="1">
+      <c r="F134" s="2">
         <v>3591.7607969699998</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>1</v>
-      </c>
-      <c r="B135" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="4">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
         <v>226</v>
       </c>
-      <c r="C135" s="1">
+      <c r="D135" s="2">
         <v>542776.77780799998</v>
       </c>
-      <c r="D135" s="1">
+      <c r="E135" s="2">
         <v>14096.070802300001</v>
       </c>
-      <c r="E135" s="1">
+      <c r="F135" s="2">
         <v>8955208.6351699997</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>1</v>
-      </c>
-      <c r="B136" t="s">
-        <v>0</v>
-      </c>
-      <c r="C136" s="1">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2">
         <v>8200.8511406800008</v>
       </c>
-      <c r="D136" s="1">
+      <c r="E136" s="2">
         <v>145.341814505</v>
       </c>
-      <c r="E136" s="1">
+      <c r="F136" s="2">
         <v>3571.7561097100001</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>1</v>
-      </c>
-      <c r="B137" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
         <v>156</v>
       </c>
-      <c r="C137" s="1">
+      <c r="D137" s="2">
         <v>21240.905580999999</v>
       </c>
-      <c r="D137" s="1">
+      <c r="E137" s="2">
         <v>444.74711037999998</v>
       </c>
-      <c r="E137" s="1">
+      <c r="F137" s="2">
         <v>1079.3666101700001</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>1</v>
-      </c>
-      <c r="B138" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" s="4">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
         <v>266</v>
       </c>
-      <c r="C138" s="1">
+      <c r="D138" s="2">
         <v>524.00322866700003</v>
       </c>
-      <c r="D138" s="1">
-        <v>0</v>
-      </c>
-      <c r="E138" s="1">
+      <c r="E138" s="2">
+        <v>0</v>
+      </c>
+      <c r="F138" s="2">
         <v>251565.84078200001</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>1</v>
-      </c>
-      <c r="B139" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
         <v>167</v>
       </c>
-      <c r="C139" s="1">
+      <c r="D139" s="2">
         <v>51764.687521</v>
       </c>
-      <c r="D139" s="1">
+      <c r="E139" s="2">
         <v>1857.13182147</v>
       </c>
-      <c r="E139" s="1">
+      <c r="F139" s="2">
         <v>19859.586840600001</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>1</v>
-      </c>
-      <c r="B140" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
         <v>286</v>
       </c>
-      <c r="C140" s="1">
+      <c r="D140" s="2">
         <v>35662.7719641</v>
       </c>
-      <c r="D140" s="1">
-        <v>0</v>
-      </c>
-      <c r="E140" s="1">
+      <c r="E140" s="2">
+        <v>0</v>
+      </c>
+      <c r="F140" s="2">
         <v>956050.36865900003</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>1</v>
-      </c>
-      <c r="B141" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="4">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
         <v>35</v>
       </c>
-      <c r="C141" s="1">
+      <c r="D141" s="2">
         <v>26113.3914076</v>
       </c>
-      <c r="D141" s="1">
+      <c r="E141" s="2">
         <v>462.22549442299999</v>
       </c>
-      <c r="E141" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>1</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="F141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+      <c r="B142" s="4">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
         <v>244</v>
       </c>
-      <c r="C142" s="1">
+      <c r="D142" s="2">
         <v>3246.6209968500002</v>
       </c>
-      <c r="D142" s="1">
+      <c r="E142" s="2">
         <v>67.3520515668</v>
       </c>
-      <c r="E142" s="1">
+      <c r="F142" s="2">
         <v>2303.1107170800001</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>1</v>
-      </c>
-      <c r="B143" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="4">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
         <v>243</v>
       </c>
-      <c r="C143" s="1">
+      <c r="D143" s="2">
         <v>24477.930004999998</v>
       </c>
-      <c r="D143" s="1">
+      <c r="E143" s="2">
         <v>117.549379488</v>
       </c>
-      <c r="E143" s="1">
+      <c r="F143" s="2">
         <v>505490.78293599997</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>1</v>
-      </c>
-      <c r="B144" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" s="4">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
         <v>81</v>
       </c>
-      <c r="C144" s="1">
+      <c r="D144" s="2">
         <v>4018019.26449</v>
       </c>
-      <c r="D144" s="1">
+      <c r="E144" s="2">
         <v>60844.5284933</v>
       </c>
-      <c r="E144" s="1">
+      <c r="F144" s="2">
         <v>10384226.3222</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>1</v>
-      </c>
-      <c r="B145" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="4">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
         <v>181</v>
       </c>
-      <c r="C145" s="1">
+      <c r="D145" s="2">
         <v>370189.40234899998</v>
       </c>
-      <c r="D145" s="1">
+      <c r="E145" s="2">
         <v>6267.4940566699997</v>
       </c>
-      <c r="E145" s="1">
+      <c r="F145" s="2">
         <v>882962.59516599996</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>1</v>
-      </c>
-      <c r="B146" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" s="4">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
         <v>231</v>
       </c>
-      <c r="C146" s="1">
+      <c r="D146" s="2">
         <v>5828.2926645500002</v>
       </c>
-      <c r="D146" s="1">
+      <c r="E146" s="2">
         <v>205.06308477600001</v>
       </c>
-      <c r="E146" s="1">
+      <c r="F146" s="2">
         <v>5064.3090882899996</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>1</v>
-      </c>
-      <c r="B147" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="4">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
         <v>127</v>
       </c>
-      <c r="C147" s="1">
+      <c r="D147" s="2">
         <v>3469.1279406100002</v>
       </c>
-      <c r="D147" s="1">
+      <c r="E147" s="2">
         <v>87.962703111600007</v>
       </c>
-      <c r="E147" s="1">
+      <c r="F147" s="2">
         <v>26292.614486900002</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>1</v>
-      </c>
-      <c r="B148" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" s="4">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
         <v>3</v>
       </c>
-      <c r="C148" s="1">
+      <c r="D148" s="2">
         <v>30791.725577699999</v>
       </c>
-      <c r="D148" s="1">
+      <c r="E148" s="2">
         <v>435.83488859300002</v>
       </c>
-      <c r="E148" s="1">
+      <c r="F148" s="2">
         <v>1569.28882946</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>1</v>
-      </c>
-      <c r="B149" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="4">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
         <v>115</v>
       </c>
-      <c r="C149" s="1">
+      <c r="D149" s="2">
         <v>26958.9516215</v>
       </c>
-      <c r="D149" s="1">
+      <c r="E149" s="2">
         <v>29.770542874099998</v>
       </c>
-      <c r="E149" s="1">
+      <c r="F149" s="2">
         <v>15283763.6318</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>1</v>
-      </c>
-      <c r="B150" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" s="4">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
         <v>46</v>
       </c>
-      <c r="C150" s="1">
+      <c r="D150" s="2">
         <v>27240.383933900001</v>
       </c>
-      <c r="D150" s="1">
+      <c r="E150" s="2">
         <v>11.762396215500001</v>
       </c>
-      <c r="E150" s="1">
+      <c r="F150" s="2">
         <v>1000288.06829</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>1</v>
-      </c>
-      <c r="B151" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="4">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
         <v>47</v>
       </c>
-      <c r="C151" s="1">
+      <c r="D151" s="2">
         <v>127494.88746699999</v>
       </c>
-      <c r="D151" s="1">
+      <c r="E151" s="2">
         <v>4.4266681950200004</v>
       </c>
-      <c r="E151" s="1">
+      <c r="F151" s="2">
         <v>4782662.5438099997</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>1</v>
-      </c>
-      <c r="B152" t="s">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
         <v>163</v>
       </c>
-      <c r="C152" s="1">
+      <c r="D152" s="2">
         <v>1370184.8285600001</v>
       </c>
-      <c r="D152" s="1">
+      <c r="E152" s="2">
         <v>50810.910557000003</v>
       </c>
-      <c r="E152" s="1">
+      <c r="F152" s="2">
         <v>635710.97274799994</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>1</v>
-      </c>
-      <c r="B153" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4">
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
         <v>165</v>
       </c>
-      <c r="C153" s="1">
+      <c r="D153" s="2">
         <v>238376.01220600001</v>
       </c>
-      <c r="D153" s="1">
+      <c r="E153" s="2">
         <v>10023.6918381</v>
       </c>
-      <c r="E153" s="1">
+      <c r="F153" s="2">
         <v>129437.64702</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>1</v>
-      </c>
-      <c r="B154" t="s">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
         <v>151</v>
       </c>
-      <c r="C154" s="1">
+      <c r="D154" s="2">
         <v>4742.1152904999999</v>
       </c>
-      <c r="D154" s="1">
+      <c r="E154" s="2">
         <v>127.692151882</v>
       </c>
-      <c r="E154" s="1">
+      <c r="F154" s="2">
         <v>869.080481061</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>1</v>
-      </c>
-      <c r="B155" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
         <v>323</v>
       </c>
-      <c r="C155" s="1">
+      <c r="D155" s="2">
         <v>102.852550483</v>
       </c>
-      <c r="D155" s="1">
-        <v>0</v>
-      </c>
-      <c r="E155" s="1">
+      <c r="E155" s="2">
+        <v>0</v>
+      </c>
+      <c r="F155" s="2">
         <v>22437.9612892</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>1</v>
-      </c>
-      <c r="B156" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
         <v>70</v>
       </c>
-      <c r="C156" s="1">
+      <c r="D156" s="2">
         <v>10310.690035699999</v>
       </c>
-      <c r="D156" s="1">
+      <c r="E156" s="2">
         <v>341.04431326700001</v>
       </c>
-      <c r="E156" s="1">
+      <c r="F156" s="2">
         <v>770.97487800199997</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>1</v>
-      </c>
-      <c r="B157" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="4">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
         <v>36</v>
       </c>
-      <c r="C157" s="1">
+      <c r="D157" s="2">
         <v>2283.3783681700002</v>
       </c>
-      <c r="D157" s="1">
+      <c r="E157" s="2">
         <v>41.047632189799998</v>
       </c>
-      <c r="E157" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>1</v>
-      </c>
-      <c r="B158" t="s">
+      <c r="F157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+      <c r="B158" s="4">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
         <v>294</v>
       </c>
-      <c r="C158" s="1">
-        <v>0</v>
-      </c>
-      <c r="D158" s="1">
-        <v>0</v>
-      </c>
-      <c r="E158" s="1">
+      <c r="D158" s="2">
+        <v>0</v>
+      </c>
+      <c r="E158" s="2">
+        <v>0</v>
+      </c>
+      <c r="F158" s="2">
         <v>8113686.5111800004</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>1</v>
-      </c>
-      <c r="B159" t="s">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" s="4">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
         <v>24</v>
       </c>
-      <c r="C159" s="1">
+      <c r="D159" s="2">
         <v>157017.466827</v>
       </c>
-      <c r="D159" s="1">
+      <c r="E159" s="2">
         <v>4.0284102378100002</v>
       </c>
-      <c r="E159" s="1">
+      <c r="F159" s="2">
         <v>2718087.5842499998</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>1</v>
-      </c>
-      <c r="B160" t="s">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>159</v>
+      </c>
+      <c r="B160" s="4">
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
         <v>292</v>
       </c>
-      <c r="C160" s="1">
+      <c r="D160" s="2">
         <v>9.6255485466199993</v>
       </c>
-      <c r="D160" s="1">
-        <v>0</v>
-      </c>
-      <c r="E160" s="1">
+      <c r="E160" s="2">
+        <v>0</v>
+      </c>
+      <c r="F160" s="2">
         <v>146.42413086799999</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>1</v>
-      </c>
-      <c r="B161" t="s">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" s="4">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
         <v>159</v>
       </c>
-      <c r="C161" s="1">
+      <c r="D161" s="2">
         <v>98610.569772200004</v>
       </c>
-      <c r="D161" s="1">
+      <c r="E161" s="2">
         <v>2021.79755368</v>
       </c>
-      <c r="E161" s="1">
+      <c r="F161" s="2">
         <v>7325.5150358499995</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>1</v>
-      </c>
-      <c r="B162" t="s">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+      <c r="B162" s="4">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
         <v>142</v>
       </c>
-      <c r="C162" s="1">
+      <c r="D162" s="2">
         <v>4959.75579853</v>
       </c>
-      <c r="D162" s="1">
+      <c r="E162" s="2">
         <v>160.52075990099999</v>
       </c>
-      <c r="E162" s="1">
+      <c r="F162" s="2">
         <v>709.77934934300004</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>1</v>
-      </c>
-      <c r="B163" t="s">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" s="4">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
         <v>65</v>
       </c>
-      <c r="C163" s="1">
+      <c r="D163" s="2">
         <v>22324.745978800001</v>
       </c>
-      <c r="D163" s="1">
+      <c r="E163" s="2">
         <v>838.73599325099997</v>
       </c>
-      <c r="E163" s="1">
+      <c r="F163" s="2">
         <v>242.00776273599999</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>1</v>
-      </c>
-      <c r="B164" t="s">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+      <c r="B164" s="4">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
         <v>68</v>
       </c>
-      <c r="C164" s="1">
+      <c r="D164" s="2">
         <v>1513.2181371300001</v>
       </c>
-      <c r="D164" s="1">
+      <c r="E164" s="2">
         <v>62.536509790099998</v>
       </c>
-      <c r="E164" s="1">
+      <c r="F164" s="2">
         <v>38.151275364200004</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>1</v>
-      </c>
-      <c r="B165" t="s">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+      <c r="B165" s="4">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
         <v>66</v>
       </c>
-      <c r="C165" s="1">
+      <c r="D165" s="2">
         <v>8903.0958899899997</v>
       </c>
-      <c r="D165" s="1">
+      <c r="E165" s="2">
         <v>301.45556965899999</v>
       </c>
-      <c r="E165" s="1">
+      <c r="F165" s="2">
         <v>194.48112329400001</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>1</v>
-      </c>
-      <c r="B166" t="s">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
+      <c r="B166" s="4">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
         <v>67</v>
       </c>
-      <c r="C166" s="1">
+      <c r="D166" s="2">
         <v>6384.2384152499999</v>
       </c>
-      <c r="D166" s="1">
+      <c r="E166" s="2">
         <v>277.83059785099999</v>
       </c>
-      <c r="E166" s="1">
+      <c r="F166" s="2">
         <v>169.55583971600001</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>1</v>
-      </c>
-      <c r="B167" t="s">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>166</v>
+      </c>
+      <c r="B167" s="4">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
         <v>69</v>
       </c>
-      <c r="C167" s="1">
+      <c r="D167" s="2">
         <v>5524.19353641</v>
       </c>
-      <c r="D167" s="1">
+      <c r="E167" s="2">
         <v>196.91331595099999</v>
       </c>
-      <c r="E167" s="1">
+      <c r="F167" s="2">
         <v>123.754280178</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>1</v>
-      </c>
-      <c r="B168" t="s">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>167</v>
+      </c>
+      <c r="B168" s="4">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
         <v>300</v>
       </c>
-      <c r="C168" s="1">
+      <c r="D168" s="2">
         <v>296388.20036399999</v>
       </c>
-      <c r="D168" s="1">
-        <v>0</v>
-      </c>
-      <c r="E168" s="1">
+      <c r="E168" s="2">
+        <v>0</v>
+      </c>
+      <c r="F168" s="2">
         <v>2591898.5898600002</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>1</v>
-      </c>
-      <c r="B169" t="s">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>168</v>
+      </c>
+      <c r="B169" s="4">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
         <v>301</v>
       </c>
-      <c r="C169" s="1">
+      <c r="D169" s="2">
         <v>204043.94253100001</v>
       </c>
-      <c r="D169" s="1">
-        <v>0</v>
-      </c>
-      <c r="E169" s="1">
+      <c r="E169" s="2">
+        <v>0</v>
+      </c>
+      <c r="F169" s="2">
         <v>1851179.7090799999</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>1</v>
-      </c>
-      <c r="B170" t="s">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>169</v>
+      </c>
+      <c r="B170" s="4">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="1">
+      <c r="D170" s="2">
         <v>1469864.5043599999</v>
       </c>
-      <c r="D170" s="1">
+      <c r="E170" s="2">
         <v>20136.641518600001</v>
       </c>
-      <c r="E170" s="1">
+      <c r="F170" s="2">
         <v>64595.163507600002</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>1</v>
-      </c>
-      <c r="B171" t="s">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>170</v>
+      </c>
+      <c r="B171" s="4">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
         <v>272</v>
       </c>
-      <c r="C171" s="1">
-        <v>0</v>
-      </c>
-      <c r="D171" s="1">
-        <v>0</v>
-      </c>
-      <c r="E171" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>1</v>
-      </c>
-      <c r="B172" t="s">
+      <c r="D171" s="2">
+        <v>0</v>
+      </c>
+      <c r="E171" s="2">
+        <v>0</v>
+      </c>
+      <c r="F171" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>171</v>
+      </c>
+      <c r="B172" s="4">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
         <v>311</v>
       </c>
-      <c r="C172" s="1">
+      <c r="D172" s="2">
         <v>1457.0786867899999</v>
       </c>
-      <c r="D172" s="1">
-        <v>0</v>
-      </c>
-      <c r="E172" s="1">
+      <c r="E172" s="2">
+        <v>0</v>
+      </c>
+      <c r="F172" s="2">
         <v>18377.519857399999</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>1</v>
-      </c>
-      <c r="B173" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>172</v>
+      </c>
+      <c r="B173" s="4">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
         <v>277</v>
       </c>
-      <c r="C173" s="1">
+      <c r="D173" s="2">
         <v>172577.353187</v>
       </c>
-      <c r="D173" s="1">
-        <v>0</v>
-      </c>
-      <c r="E173" s="1">
+      <c r="E173" s="2">
+        <v>0</v>
+      </c>
+      <c r="F173" s="2">
         <v>852784.24338100001</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>1</v>
-      </c>
-      <c r="B174" t="s">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>173</v>
+      </c>
+      <c r="B174" s="4">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
         <v>22</v>
       </c>
-      <c r="C174" s="1">
+      <c r="D174" s="2">
         <v>132939.57167599999</v>
       </c>
-      <c r="D174" s="1">
+      <c r="E174" s="2">
         <v>2146.1401597399999</v>
       </c>
-      <c r="E174" s="1">
+      <c r="F174" s="2">
         <v>23877.313263399999</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>1</v>
-      </c>
-      <c r="B175" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>174</v>
+      </c>
+      <c r="B175" s="4">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
         <v>296</v>
       </c>
-      <c r="C175" s="1">
+      <c r="D175" s="2">
         <v>823.00630871099997</v>
       </c>
-      <c r="D175" s="1">
-        <v>0</v>
-      </c>
-      <c r="E175" s="1">
+      <c r="E175" s="2">
+        <v>0</v>
+      </c>
+      <c r="F175" s="2">
         <v>131887.99266300001</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>1</v>
-      </c>
-      <c r="B176" t="s">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>175</v>
+      </c>
+      <c r="B176" s="4">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
         <v>147</v>
       </c>
-      <c r="C176" s="1">
+      <c r="D176" s="2">
         <v>1672.91303283</v>
       </c>
-      <c r="D176" s="1">
+      <c r="E176" s="2">
         <v>46.615480651600002</v>
       </c>
-      <c r="E176" s="1">
+      <c r="F176" s="2">
         <v>136.24245698999999</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>1</v>
-      </c>
-      <c r="B177" t="s">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>176</v>
+      </c>
+      <c r="B177" s="4">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
         <v>34</v>
       </c>
-      <c r="C177" s="1">
+      <c r="D177" s="2">
         <v>10702.874832</v>
       </c>
-      <c r="D177" s="1">
+      <c r="E177" s="2">
         <v>197.28898791699999</v>
       </c>
-      <c r="E177" s="1">
+      <c r="F177" s="2">
         <v>2077.1244185300002</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>1</v>
-      </c>
-      <c r="B178" t="s">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>177</v>
+      </c>
+      <c r="B178" s="4">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
         <v>187</v>
       </c>
-      <c r="C178" s="1">
+      <c r="D178" s="2">
         <v>20.133221093300001</v>
       </c>
-      <c r="D178" s="1">
+      <c r="E178" s="2">
         <v>0.35456875315899999</v>
       </c>
-      <c r="E178" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>1</v>
-      </c>
-      <c r="B179" t="s">
+      <c r="F178" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>178</v>
+      </c>
+      <c r="B179" s="4">
+        <v>1</v>
+      </c>
+      <c r="C179" t="s">
         <v>29</v>
       </c>
-      <c r="C179" s="1">
+      <c r="D179" s="2">
         <v>287659.32929099997</v>
       </c>
-      <c r="D179" s="1">
+      <c r="E179" s="2">
         <v>5143.4149883500004</v>
       </c>
-      <c r="E179" s="1">
+      <c r="F179" s="2">
         <v>48901.770484300003</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>1</v>
-      </c>
-      <c r="B180" t="s">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>179</v>
+      </c>
+      <c r="B180" s="4">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
         <v>30</v>
       </c>
-      <c r="C180" s="1">
+      <c r="D180" s="2">
         <v>105929.31342400001</v>
       </c>
-      <c r="D180" s="1">
+      <c r="E180" s="2">
         <v>1939.8166778299999</v>
       </c>
-      <c r="E180" s="1">
+      <c r="F180" s="2">
         <v>12824.1934762</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>1</v>
-      </c>
-      <c r="B181" t="s">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <v>180</v>
+      </c>
+      <c r="B181" s="4">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
         <v>32</v>
       </c>
-      <c r="C181" s="1">
+      <c r="D181" s="2">
         <v>51957.7302872</v>
       </c>
-      <c r="D181" s="1">
+      <c r="E181" s="2">
         <v>918.65042844200002</v>
       </c>
-      <c r="E181" s="1">
+      <c r="F181" s="2">
         <v>15471.862870999999</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>1</v>
-      </c>
-      <c r="B182" t="s">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>181</v>
+      </c>
+      <c r="B182" s="4">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
         <v>33</v>
       </c>
-      <c r="C182" s="1">
+      <c r="D182" s="2">
         <v>17462.001924200002</v>
       </c>
-      <c r="D182" s="1">
+      <c r="E182" s="2">
         <v>280.77375965800002</v>
       </c>
-      <c r="E182" s="1">
+      <c r="F182" s="2">
         <v>6767.2052633900003</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>1</v>
-      </c>
-      <c r="B183" t="s">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>182</v>
+      </c>
+      <c r="B183" s="4">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
         <v>31</v>
       </c>
-      <c r="C183" s="1">
+      <c r="D183" s="2">
         <v>30130.9097182</v>
       </c>
-      <c r="D183" s="1">
+      <c r="E183" s="2">
         <v>536.76905159499995</v>
       </c>
-      <c r="E183" s="1">
+      <c r="F183" s="2">
         <v>13778.352880300001</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>1</v>
-      </c>
-      <c r="B184" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>183</v>
+      </c>
+      <c r="B184" s="4">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
         <v>19</v>
       </c>
-      <c r="C184" s="1">
+      <c r="D184" s="2">
         <v>57276.535598100003</v>
       </c>
-      <c r="D184" s="1">
+      <c r="E184" s="2">
         <v>686.61487466599999</v>
       </c>
-      <c r="E184" s="1">
+      <c r="F184" s="2">
         <v>457.64145434699998</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>1</v>
-      </c>
-      <c r="B185" t="s">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>184</v>
+      </c>
+      <c r="B185" s="4">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
         <v>10</v>
       </c>
-      <c r="C185" s="1">
+      <c r="D185" s="2">
         <v>575559.29357099999</v>
       </c>
-      <c r="D185" s="1">
+      <c r="E185" s="2">
         <v>7301.7115914200003</v>
       </c>
-      <c r="E185" s="1">
+      <c r="F185" s="2">
         <v>97965.740933299996</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>1</v>
-      </c>
-      <c r="B186" t="s">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>185</v>
+      </c>
+      <c r="B186" s="4">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
         <v>13</v>
       </c>
-      <c r="C186" s="1">
+      <c r="D186" s="2">
         <v>221993.704474</v>
       </c>
-      <c r="D186" s="1">
+      <c r="E186" s="2">
         <v>2861.44482801</v>
       </c>
-      <c r="E186" s="1">
+      <c r="F186" s="2">
         <v>17952.873648199999</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>1</v>
-      </c>
-      <c r="B187" t="s">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>186</v>
+      </c>
+      <c r="B187" s="4">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
         <v>256</v>
       </c>
-      <c r="C187" s="1">
+      <c r="D187" s="2">
         <v>720004.52714999998</v>
       </c>
-      <c r="D187" s="1">
+      <c r="E187" s="2">
         <v>407.34217866</v>
       </c>
-      <c r="E187" s="1">
+      <c r="F187" s="2">
         <v>5311698.1551000001</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>1</v>
-      </c>
-      <c r="B188" t="s">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>187</v>
+      </c>
+      <c r="B188" s="4">
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
         <v>155</v>
       </c>
-      <c r="C188" s="1">
+      <c r="D188" s="2">
         <v>2406.2644456899998</v>
       </c>
-      <c r="D188" s="1">
+      <c r="E188" s="2">
         <v>74.744124226500006</v>
       </c>
-      <c r="E188" s="1">
+      <c r="F188" s="2">
         <v>112.153483912</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>1</v>
-      </c>
-      <c r="B189" t="s">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>188</v>
+      </c>
+      <c r="B189" s="4">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
         <v>268</v>
       </c>
-      <c r="C189" s="1">
+      <c r="D189" s="2">
         <v>208980.73533200001</v>
       </c>
-      <c r="D189" s="1">
-        <v>0</v>
-      </c>
-      <c r="E189" s="1">
+      <c r="E189" s="2">
+        <v>0</v>
+      </c>
+      <c r="F189" s="2">
         <v>4841208.1883199997</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>1</v>
-      </c>
-      <c r="B190" t="s">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>189</v>
+      </c>
+      <c r="B190" s="4">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
         <v>254</v>
       </c>
-      <c r="C190" s="1">
+      <c r="D190" s="2">
         <v>1689.1605582100001</v>
       </c>
-      <c r="D190" s="1">
+      <c r="E190" s="2">
         <v>37.343795429899998</v>
       </c>
-      <c r="E190" s="1">
+      <c r="F190" s="2">
         <v>517.08627521999995</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>1</v>
-      </c>
-      <c r="B191" t="s">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>190</v>
+      </c>
+      <c r="B191" s="4">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
         <v>87</v>
       </c>
-      <c r="C191" s="1">
+      <c r="D191" s="2">
         <v>552537.48858200002</v>
       </c>
-      <c r="D191" s="1">
+      <c r="E191" s="2">
         <v>9646.7198265499992</v>
       </c>
-      <c r="E191" s="1">
+      <c r="F191" s="2">
         <v>138236.57570300001</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>1</v>
-      </c>
-      <c r="B192" t="s">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>191</v>
+      </c>
+      <c r="B192" s="4">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
         <v>86</v>
       </c>
-      <c r="C192" s="1">
+      <c r="D192" s="2">
         <v>81583.860301499997</v>
       </c>
-      <c r="D192" s="1">
+      <c r="E192" s="2">
         <v>1302.51917114</v>
       </c>
-      <c r="E192" s="1">
+      <c r="F192" s="2">
         <v>50879.616740199999</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>1</v>
-      </c>
-      <c r="B193" t="s">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <v>192</v>
+      </c>
+      <c r="B193" s="4">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
         <v>222</v>
       </c>
-      <c r="C193" s="1">
+      <c r="D193" s="2">
         <v>142.84665781000001</v>
       </c>
-      <c r="D193" s="1">
+      <c r="E193" s="2">
         <v>2.6403661723199998</v>
       </c>
-      <c r="E193" s="1">
+      <c r="F193" s="2">
         <v>1.60711349367</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>1</v>
-      </c>
-      <c r="B194" t="s">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <v>193</v>
+      </c>
+      <c r="B194" s="4">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
         <v>219</v>
       </c>
-      <c r="C194" s="1">
+      <c r="D194" s="2">
         <v>83764.531979599997</v>
       </c>
-      <c r="D194" s="1">
+      <c r="E194" s="2">
         <v>2202.6521684300001</v>
       </c>
-      <c r="E194" s="1">
+      <c r="F194" s="2">
         <v>1300.59015479</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>1</v>
-      </c>
-      <c r="B195" t="s">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <v>194</v>
+      </c>
+      <c r="B195" s="4">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
         <v>158</v>
       </c>
-      <c r="C195" s="1">
+      <c r="D195" s="2">
         <v>5119.6773772500001</v>
       </c>
-      <c r="D195" s="1">
+      <c r="E195" s="2">
         <v>173.41621648899999</v>
       </c>
-      <c r="E195" s="1">
+      <c r="F195" s="2">
         <v>200.42020759299999</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>1</v>
-      </c>
-      <c r="B196" t="s">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <v>195</v>
+      </c>
+      <c r="B196" s="4">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
         <v>253</v>
       </c>
-      <c r="C196" s="1">
+      <c r="D196" s="2">
         <v>4379.8575549500001</v>
       </c>
-      <c r="D196" s="1">
+      <c r="E196" s="2">
         <v>64.388826262099997</v>
       </c>
-      <c r="E196" s="1">
+      <c r="F196" s="2">
         <v>6296.8718286900003</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>1</v>
-      </c>
-      <c r="B197" t="s">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
         <v>196</v>
       </c>
-      <c r="C197" s="1">
+      <c r="B197" s="4">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>196</v>
+      </c>
+      <c r="D197" s="2">
         <v>433806.26766900002</v>
       </c>
-      <c r="D197" s="1">
+      <c r="E197" s="2">
         <v>235.097688027</v>
       </c>
-      <c r="E197" s="1">
+      <c r="F197" s="2">
         <v>3773242.3337699999</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>1</v>
-      </c>
-      <c r="B198" t="s">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>197</v>
+      </c>
+      <c r="B198" s="4">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
         <v>215</v>
       </c>
-      <c r="C198" s="1">
+      <c r="D198" s="2">
         <v>4126.9748449099998</v>
       </c>
-      <c r="D198" s="1">
+      <c r="E198" s="2">
         <v>75.751480498500001</v>
       </c>
-      <c r="E198" s="1">
+      <c r="F198" s="2">
         <v>5451.2901334799999</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>1</v>
-      </c>
-      <c r="B199" t="s">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>198</v>
+      </c>
+      <c r="B199" s="4">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
         <v>143</v>
       </c>
-      <c r="C199" s="1">
+      <c r="D199" s="2">
         <v>6085.7298441299999</v>
       </c>
-      <c r="D199" s="1">
+      <c r="E199" s="2">
         <v>161.592319788</v>
       </c>
-      <c r="E199" s="1">
+      <c r="F199" s="2">
         <v>602.70022818100006</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>1</v>
-      </c>
-      <c r="B200" t="s">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
+        <v>199</v>
+      </c>
+      <c r="B200" s="4">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
         <v>304</v>
       </c>
-      <c r="C200" s="1">
+      <c r="D200" s="2">
         <v>92344.257833299998</v>
       </c>
-      <c r="D200" s="1">
-        <v>0</v>
-      </c>
-      <c r="E200" s="1">
+      <c r="E200" s="2">
+        <v>0</v>
+      </c>
+      <c r="F200" s="2">
         <v>945326.76706400001</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>1</v>
-      </c>
-      <c r="B201" t="s">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
+        <v>200</v>
+      </c>
+      <c r="B201" s="4">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
         <v>21</v>
       </c>
-      <c r="C201" s="1">
+      <c r="D201" s="2">
         <v>335594.51910400001</v>
       </c>
-      <c r="D201" s="1">
+      <c r="E201" s="2">
         <v>2198.0652371699998</v>
       </c>
-      <c r="E201" s="1">
+      <c r="F201" s="2">
         <v>16465406.3796</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>1</v>
-      </c>
-      <c r="B202" t="s">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <v>201</v>
+      </c>
+      <c r="B202" s="4">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
         <v>38</v>
       </c>
-      <c r="C202" s="1">
+      <c r="D202" s="2">
         <v>2008137.04128</v>
       </c>
-      <c r="D202" s="1">
+      <c r="E202" s="2">
         <v>22445.3783893</v>
       </c>
-      <c r="E202" s="1">
+      <c r="F202" s="2">
         <v>413030.18511000002</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>1</v>
-      </c>
-      <c r="B203" t="s">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
+        <v>202</v>
+      </c>
+      <c r="B203" s="4">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
         <v>40</v>
       </c>
-      <c r="C203" s="1">
+      <c r="D203" s="2">
         <v>276304.20568299998</v>
       </c>
-      <c r="D203" s="1">
+      <c r="E203" s="2">
         <v>3120.7780566599999</v>
       </c>
-      <c r="E203" s="1">
+      <c r="F203" s="2">
         <v>69561.695189000005</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>1</v>
-      </c>
-      <c r="B204" t="s">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
+        <v>203</v>
+      </c>
+      <c r="B204" s="4">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
         <v>39</v>
       </c>
-      <c r="C204" s="1">
+      <c r="D204" s="2">
         <v>849565.21893099998</v>
       </c>
-      <c r="D204" s="1">
+      <c r="E204" s="2">
         <v>9502.8778080499997</v>
       </c>
-      <c r="E204" s="1">
+      <c r="F204" s="2">
         <v>315236.870047</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>1</v>
-      </c>
-      <c r="B205" t="s">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
+        <v>204</v>
+      </c>
+      <c r="B205" s="4">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
         <v>41</v>
       </c>
-      <c r="C205" s="1">
+      <c r="D205" s="2">
         <v>362621.077919</v>
       </c>
-      <c r="D205" s="1">
+      <c r="E205" s="2">
         <v>3972.5123857600001</v>
       </c>
-      <c r="E205" s="1">
+      <c r="F205" s="2">
         <v>44130.680511899998</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>1</v>
-      </c>
-      <c r="B206" t="s">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <v>205</v>
+      </c>
+      <c r="B206" s="4">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
         <v>62</v>
       </c>
-      <c r="C206" s="1">
+      <c r="D206" s="2">
         <v>692985.41297299997</v>
       </c>
-      <c r="D206" s="1">
+      <c r="E206" s="2">
         <v>20048.197601299998</v>
       </c>
-      <c r="E206" s="1">
+      <c r="F206" s="2">
         <v>31932.714579700001</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>1</v>
-      </c>
-      <c r="B207" t="s">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <v>206</v>
+      </c>
+      <c r="B207" s="4">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
         <v>201</v>
       </c>
-      <c r="C207" s="1">
+      <c r="D207" s="2">
         <v>159431.42095100001</v>
       </c>
-      <c r="D207" s="1">
+      <c r="E207" s="2">
         <v>1718.6739316999999</v>
       </c>
-      <c r="E207" s="1">
+      <c r="F207" s="2">
         <v>45136.216537300003</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>1</v>
-      </c>
-      <c r="B208" t="s">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
+        <v>207</v>
+      </c>
+      <c r="B208" s="4">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
         <v>249</v>
       </c>
-      <c r="C208" s="1">
+      <c r="D208" s="2">
         <v>416464.30702499999</v>
       </c>
-      <c r="D208" s="1">
+      <c r="E208" s="2">
         <v>4314.8070750099996</v>
       </c>
-      <c r="E208" s="1">
+      <c r="F208" s="2">
         <v>12571058.529999999</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>1</v>
-      </c>
-      <c r="B209" t="s">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
+        <v>208</v>
+      </c>
+      <c r="B209" s="4">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
         <v>61</v>
       </c>
-      <c r="C209" s="1">
+      <c r="D209" s="2">
         <v>7953015.3312299997</v>
       </c>
-      <c r="D209" s="1">
+      <c r="E209" s="2">
         <v>158477.66041700001</v>
       </c>
-      <c r="E209" s="1">
+      <c r="F209" s="2">
         <v>30348596.441399999</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>1</v>
-      </c>
-      <c r="B210" t="s">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
+        <v>209</v>
+      </c>
+      <c r="B210" s="4">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
         <v>157</v>
       </c>
-      <c r="C210" s="1">
+      <c r="D210" s="2">
         <v>21727.5032799</v>
       </c>
-      <c r="D210" s="1">
+      <c r="E210" s="2">
         <v>555.94985608900004</v>
       </c>
-      <c r="E210" s="1">
+      <c r="F210" s="2">
         <v>1246.52458194</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>1</v>
-      </c>
-      <c r="B211" t="s">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
+        <v>210</v>
+      </c>
+      <c r="B211" s="4">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
         <v>148</v>
       </c>
-      <c r="C211" s="1">
+      <c r="D211" s="2">
         <v>2467.5319009499999</v>
       </c>
-      <c r="D211" s="1">
+      <c r="E211" s="2">
         <v>85.677519378599996</v>
       </c>
-      <c r="E211" s="1">
+      <c r="F211" s="2">
         <v>137.17624586400001</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>1</v>
-      </c>
-      <c r="B212" t="s">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
+        <v>211</v>
+      </c>
+      <c r="B212" s="4">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
         <v>291</v>
       </c>
-      <c r="C212" s="1">
+      <c r="D212" s="2">
         <v>0.89238899280600004</v>
       </c>
-      <c r="D212" s="1">
-        <v>0</v>
-      </c>
-      <c r="E212" s="1">
+      <c r="E212" s="2">
+        <v>0</v>
+      </c>
+      <c r="F212" s="2">
         <v>81.386087482999997</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>1</v>
-      </c>
-      <c r="B213" t="s">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>212</v>
+      </c>
+      <c r="B213" s="4">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
         <v>194</v>
       </c>
-      <c r="C213" s="1">
+      <c r="D213" s="2">
         <v>2466.6395119600002</v>
       </c>
-      <c r="D213" s="1">
+      <c r="E213" s="2">
         <v>85.677519378599996</v>
       </c>
-      <c r="E213" s="1">
+      <c r="F213" s="2">
         <v>115.23997916899999</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>1</v>
-      </c>
-      <c r="B214" t="s">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>213</v>
+      </c>
+      <c r="B214" s="4">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
         <v>102</v>
       </c>
-      <c r="C214" s="1">
+      <c r="D214" s="2">
         <v>7456.2144051499999</v>
       </c>
-      <c r="D214" s="1">
+      <c r="E214" s="2">
         <v>86.672054315699995</v>
       </c>
-      <c r="E214" s="1">
+      <c r="F214" s="2">
         <v>115748.967559</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>1</v>
-      </c>
-      <c r="B215" t="s">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>214</v>
+      </c>
+      <c r="B215" s="4">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
         <v>44</v>
       </c>
-      <c r="C215" s="1">
+      <c r="D215" s="2">
         <v>219254.55494100001</v>
       </c>
-      <c r="D215" s="1">
+      <c r="E215" s="2">
         <v>636.36251970399996</v>
       </c>
-      <c r="E215" s="1">
+      <c r="F215" s="2">
         <v>17774733.931400001</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>1</v>
-      </c>
-      <c r="B216" t="s">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>215</v>
+      </c>
+      <c r="B216" s="4">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
         <v>273</v>
       </c>
-      <c r="C216" s="1">
-        <v>0</v>
-      </c>
-      <c r="D216" s="1">
-        <v>0</v>
-      </c>
-      <c r="E216" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>1</v>
-      </c>
-      <c r="B217" t="s">
+      <c r="D216" s="2">
+        <v>0</v>
+      </c>
+      <c r="E216" s="2">
+        <v>0</v>
+      </c>
+      <c r="F216" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>216</v>
+      </c>
+      <c r="B217" s="4">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
         <v>259</v>
       </c>
-      <c r="C217" s="1">
+      <c r="D217" s="2">
         <v>114656.756989</v>
       </c>
-      <c r="D217" s="1">
+      <c r="E217" s="2">
         <v>195.835846382</v>
       </c>
-      <c r="E217" s="1">
+      <c r="F217" s="2">
         <v>258338.032037</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>1</v>
-      </c>
-      <c r="B218" t="s">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>217</v>
+      </c>
+      <c r="B218" s="4">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
         <v>316</v>
       </c>
-      <c r="C218" s="1">
+      <c r="D218" s="2">
         <v>55242.597524299999</v>
       </c>
-      <c r="D218" s="1">
-        <v>0</v>
-      </c>
-      <c r="E218" s="1">
+      <c r="E218" s="2">
+        <v>0</v>
+      </c>
+      <c r="F218" s="2">
         <v>18703558.5693</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>1</v>
-      </c>
-      <c r="B219" t="s">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>218</v>
+      </c>
+      <c r="B219" s="4">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
         <v>203</v>
       </c>
-      <c r="C219" s="1">
+      <c r="D219" s="2">
         <v>1274.7377284199999</v>
       </c>
-      <c r="D219" s="1">
+      <c r="E219" s="2">
         <v>11.073177494399999</v>
       </c>
-      <c r="E219" s="1">
+      <c r="F219" s="2">
         <v>17482.992153800002</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>1</v>
-      </c>
-      <c r="B220" t="s">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>219</v>
+      </c>
+      <c r="B220" s="4">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
         <v>299</v>
       </c>
-      <c r="C220" s="1">
+      <c r="D220" s="2">
         <v>30253.637288499998</v>
       </c>
-      <c r="D220" s="1">
-        <v>0</v>
-      </c>
-      <c r="E220" s="1">
+      <c r="E220" s="2">
+        <v>0</v>
+      </c>
+      <c r="F220" s="2">
         <v>504130.80246500002</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>1</v>
-      </c>
-      <c r="B221" t="s">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>220</v>
+      </c>
+      <c r="B221" s="4">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
         <v>217</v>
       </c>
-      <c r="C221" s="1">
+      <c r="D221" s="2">
         <v>10956.6207313</v>
       </c>
-      <c r="D221" s="1">
+      <c r="E221" s="2">
         <v>284.762196571</v>
       </c>
-      <c r="E221" s="1">
+      <c r="F221" s="2">
         <v>5734.9787575700002</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>1</v>
-      </c>
-      <c r="B222" t="s">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>221</v>
+      </c>
+      <c r="B222" s="4">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
         <v>173</v>
       </c>
-      <c r="C222" s="1">
+      <c r="D222" s="2">
         <v>79773.704416199995</v>
       </c>
-      <c r="D222" s="1">
+      <c r="E222" s="2">
         <v>2082.0168636200001</v>
       </c>
-      <c r="E222" s="1">
+      <c r="F222" s="2">
         <v>328029.30439900002</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>1</v>
-      </c>
-      <c r="B223" t="s">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>222</v>
+      </c>
+      <c r="B223" s="4">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
         <v>205</v>
       </c>
-      <c r="C223" s="1">
+      <c r="D223" s="2">
         <v>21529.442395900001</v>
       </c>
-      <c r="D223" s="1">
+      <c r="E223" s="2">
         <v>99.049802778</v>
       </c>
-      <c r="E223" s="1">
+      <c r="F223" s="2">
         <v>140757.65576600001</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>1</v>
-      </c>
-      <c r="B224" t="s">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <v>223</v>
+      </c>
+      <c r="B224" s="4">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
         <v>232</v>
       </c>
-      <c r="C224" s="1">
+      <c r="D224" s="2">
         <v>8707.7991275799995</v>
       </c>
-      <c r="D224" s="1">
+      <c r="E224" s="2">
         <v>153.41137263300001</v>
       </c>
-      <c r="E224" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>1</v>
-      </c>
-      <c r="B225" t="s">
+      <c r="F224" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>224</v>
+      </c>
+      <c r="B225" s="4">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
         <v>49</v>
       </c>
-      <c r="C225" s="1">
+      <c r="D225" s="2">
         <v>245697.72797199999</v>
       </c>
-      <c r="D225" s="1">
+      <c r="E225" s="2">
         <v>2886.0480992799999</v>
       </c>
-      <c r="E225" s="1">
+      <c r="F225" s="2">
         <v>6472846.81678</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>1</v>
-      </c>
-      <c r="B226" t="s">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <v>225</v>
+      </c>
+      <c r="B226" s="4">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
         <v>209</v>
       </c>
-      <c r="C226" s="1">
+      <c r="D226" s="2">
         <v>394345.84873999999</v>
       </c>
-      <c r="D226" s="1">
+      <c r="E226" s="2">
         <v>4261.5435545999999</v>
       </c>
-      <c r="E226" s="1">
+      <c r="F226" s="2">
         <v>210904.37624000001</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>1</v>
-      </c>
-      <c r="B227" t="s">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>226</v>
+      </c>
+      <c r="B227" s="4">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
         <v>248</v>
       </c>
-      <c r="C227" s="1">
+      <c r="D227" s="2">
         <v>20797.343671899998</v>
       </c>
-      <c r="D227" s="1">
+      <c r="E227" s="2">
         <v>437.09958906000003</v>
       </c>
-      <c r="E227" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>1</v>
-      </c>
-      <c r="B228" t="s">
+      <c r="F227" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <v>227</v>
+      </c>
+      <c r="B228" s="4">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
         <v>262</v>
       </c>
-      <c r="C228" s="1">
+      <c r="D228" s="2">
         <v>4589.6612262099998</v>
       </c>
-      <c r="D228" s="1">
+      <c r="E228" s="2">
         <v>52.1657838183</v>
       </c>
-      <c r="E228" s="1">
+      <c r="F228" s="2">
         <v>9372.4437867500001</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>1</v>
-      </c>
-      <c r="B229" t="s">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>228</v>
+      </c>
+      <c r="B229" s="4">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
         <v>98</v>
       </c>
-      <c r="C229" s="1">
+      <c r="D229" s="2">
         <v>86500.720352400007</v>
       </c>
-      <c r="D229" s="1">
+      <c r="E229" s="2">
         <v>1376.7776926900001</v>
       </c>
-      <c r="E229" s="1">
+      <c r="F229" s="2">
         <v>414546.45833499997</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>1</v>
-      </c>
-      <c r="B230" t="s">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
+        <v>229</v>
+      </c>
+      <c r="B230" s="4">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
         <v>135</v>
       </c>
-      <c r="C230" s="1">
+      <c r="D230" s="2">
         <v>15934.186161</v>
       </c>
-      <c r="D230" s="1">
+      <c r="E230" s="2">
         <v>12.863602852</v>
       </c>
-      <c r="E230" s="1">
+      <c r="F230" s="2">
         <v>447770.87046800001</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>1</v>
-      </c>
-      <c r="B231" t="s">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <v>230</v>
+      </c>
+      <c r="B231" s="4">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
         <v>140</v>
       </c>
-      <c r="C231" s="1">
+      <c r="D231" s="2">
         <v>8167.0982869899999</v>
       </c>
-      <c r="D231" s="1">
+      <c r="E231" s="2">
         <v>144.49685112899999</v>
       </c>
-      <c r="E231" s="1">
+      <c r="F231" s="2">
         <v>220760.05317</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>1</v>
-      </c>
-      <c r="B232" t="s">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
+        <v>231</v>
+      </c>
+      <c r="B232" s="4">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
         <v>60</v>
       </c>
-      <c r="C232" s="1">
+      <c r="D232" s="2">
         <v>27621.973673299999</v>
       </c>
-      <c r="D232" s="1">
+      <c r="E232" s="2">
         <v>364.16988082799998</v>
       </c>
-      <c r="E232" s="1">
+      <c r="F232" s="2">
         <v>197844.34349</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>1</v>
-      </c>
-      <c r="B233" t="s">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <v>232</v>
+      </c>
+      <c r="B233" s="4">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
         <v>6</v>
       </c>
-      <c r="C233" s="1">
+      <c r="D233" s="2">
         <v>121.43399200899999</v>
       </c>
-      <c r="D233" s="1">
+      <c r="E233" s="2">
         <v>1.6319235327899999</v>
       </c>
-      <c r="E233" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>1</v>
-      </c>
-      <c r="B234" t="s">
+      <c r="F233" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
+        <v>233</v>
+      </c>
+      <c r="B234" s="4">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
         <v>216</v>
       </c>
-      <c r="C234" s="1">
+      <c r="D234" s="2">
         <v>64506.749733700002</v>
       </c>
-      <c r="D234" s="1">
+      <c r="E234" s="2">
         <v>1359.0056939799999</v>
       </c>
-      <c r="E234" s="1">
+      <c r="F234" s="2">
         <v>5203.3782696999997</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>1</v>
-      </c>
-      <c r="B235" t="s">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <v>234</v>
+      </c>
+      <c r="B235" s="4">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
         <v>37</v>
       </c>
-      <c r="C235" s="1">
+      <c r="D235" s="2">
         <v>43059.596108700003</v>
       </c>
-      <c r="D235" s="1">
+      <c r="E235" s="2">
         <v>766.488387536</v>
       </c>
-      <c r="E235" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>1</v>
-      </c>
-      <c r="B236" t="s">
+      <c r="F235" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
+        <v>235</v>
+      </c>
+      <c r="B236" s="4">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
         <v>14</v>
       </c>
-      <c r="C236" s="1">
+      <c r="D236" s="2">
         <v>289419.20777699997</v>
       </c>
-      <c r="D236" s="1">
+      <c r="E236" s="2">
         <v>3694.4655744800002</v>
       </c>
-      <c r="E236" s="1">
+      <c r="F236" s="2">
         <v>28041.029923599999</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>1</v>
-      </c>
-      <c r="B237" t="s">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>236</v>
+      </c>
+      <c r="B237" s="4">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
         <v>293</v>
       </c>
-      <c r="C237" s="1">
+      <c r="D237" s="2">
         <v>32182.808194000001</v>
       </c>
-      <c r="D237" s="1">
-        <v>0</v>
-      </c>
-      <c r="E237" s="1">
+      <c r="E237" s="2">
+        <v>0</v>
+      </c>
+      <c r="F237" s="2">
         <v>439499.08607999998</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>1</v>
-      </c>
-      <c r="B238" t="s">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <v>237</v>
+      </c>
+      <c r="B238" s="4">
+        <v>1</v>
+      </c>
+      <c r="C238" t="s">
         <v>198</v>
       </c>
-      <c r="C238" s="1">
+      <c r="D238" s="2">
         <v>87909.506839399997</v>
       </c>
-      <c r="D238" s="1">
+      <c r="E238" s="2">
         <v>179.459440261</v>
       </c>
-      <c r="E238" s="1">
+      <c r="F238" s="2">
         <v>923986.495031</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>1</v>
-      </c>
-      <c r="B239" t="s">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>238</v>
+      </c>
+      <c r="B239" s="4">
+        <v>1</v>
+      </c>
+      <c r="C239" t="s">
         <v>28</v>
       </c>
-      <c r="C239" s="1">
+      <c r="D239" s="2">
         <v>7621.5152519699996</v>
       </c>
-      <c r="D239" s="1">
+      <c r="E239" s="2">
         <v>6.5672398266299998</v>
       </c>
-      <c r="E239" s="1">
+      <c r="F239" s="2">
         <v>261176.937164</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>1</v>
-      </c>
-      <c r="B240" t="s">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
+        <v>239</v>
+      </c>
+      <c r="B240" s="4">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
         <v>43</v>
       </c>
-      <c r="C240" s="1">
+      <c r="D240" s="2">
         <v>450112.916279</v>
       </c>
-      <c r="D240" s="1">
+      <c r="E240" s="2">
         <v>5155.2865042499998</v>
       </c>
-      <c r="E240" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>1</v>
-      </c>
-      <c r="B241" t="s">
+      <c r="F240" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <v>240</v>
+      </c>
+      <c r="B241" s="4">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
         <v>160</v>
       </c>
-      <c r="C241" s="1">
+      <c r="D241" s="2">
         <v>39427.609642000003</v>
       </c>
-      <c r="D241" s="1">
+      <c r="E241" s="2">
         <v>887.41507240600004</v>
       </c>
-      <c r="E241" s="1">
+      <c r="F241" s="2">
         <v>2286.7704707299999</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>1</v>
-      </c>
-      <c r="B242" t="s">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
+        <v>241</v>
+      </c>
+      <c r="B242" s="4">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
         <v>255</v>
       </c>
-      <c r="C242" s="1">
+      <c r="D242" s="2">
         <v>17594.990607899999</v>
       </c>
-      <c r="D242" s="1">
+      <c r="E242" s="2">
         <v>130.42141038899999</v>
       </c>
-      <c r="E242" s="1">
+      <c r="F242" s="2">
         <v>104.263817966</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>1</v>
-      </c>
-      <c r="B243" t="s">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
+        <v>242</v>
+      </c>
+      <c r="B243" s="4">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
         <v>199</v>
       </c>
-      <c r="C243" s="1">
+      <c r="D243" s="2">
         <v>1745752.10882</v>
       </c>
-      <c r="D243" s="1">
+      <c r="E243" s="2">
         <v>13638.7305423</v>
       </c>
-      <c r="E243" s="1">
+      <c r="F243" s="2">
         <v>24067447.1844</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>1</v>
-      </c>
-      <c r="B244" t="s">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
+        <v>243</v>
+      </c>
+      <c r="B244" s="4">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
         <v>48</v>
       </c>
-      <c r="C244" s="1">
+      <c r="D244" s="2">
         <v>2162.03634483</v>
       </c>
-      <c r="D244" s="1">
+      <c r="E244" s="2">
         <v>51.656090575599997</v>
       </c>
-      <c r="E244" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>1</v>
-      </c>
-      <c r="B245" t="s">
+      <c r="F244" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
+        <v>244</v>
+      </c>
+      <c r="B245" s="4">
+        <v>1</v>
+      </c>
+      <c r="C245" t="s">
         <v>321</v>
       </c>
-      <c r="C245" s="1">
+      <c r="D245" s="2">
         <v>14397.0703973</v>
       </c>
-      <c r="D245" s="1">
-        <v>0</v>
-      </c>
-      <c r="E245" s="1">
+      <c r="E245" s="2">
+        <v>0</v>
+      </c>
+      <c r="F245" s="2">
         <v>493938.914284</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>1</v>
-      </c>
-      <c r="B246" t="s">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
+        <v>245</v>
+      </c>
+      <c r="B246" s="4">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
         <v>144</v>
       </c>
-      <c r="C246" s="1">
+      <c r="D246" s="2">
         <v>3382.3718048999999</v>
       </c>
-      <c r="D246" s="1">
+      <c r="E246" s="2">
         <v>103.72625759899999</v>
       </c>
-      <c r="E246" s="1">
+      <c r="F246" s="2">
         <v>180.29008742400001</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>1</v>
-      </c>
-      <c r="B247" t="s">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
+        <v>246</v>
+      </c>
+      <c r="B247" s="4">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
         <v>229</v>
       </c>
-      <c r="C247" s="1">
+      <c r="D247" s="2">
         <v>418.22737634499998</v>
       </c>
-      <c r="D247" s="1">
+      <c r="E247" s="2">
         <v>13.7144742684</v>
       </c>
-      <c r="E247" s="1">
+      <c r="F247" s="2">
         <v>508.75485386700001</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>1</v>
-      </c>
-      <c r="B248" t="s">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
+        <v>247</v>
+      </c>
+      <c r="B248" s="4">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
         <v>88</v>
       </c>
-      <c r="C248" s="1">
+      <c r="D248" s="2">
         <v>4296.69474627</v>
       </c>
-      <c r="D248" s="1">
+      <c r="E248" s="2">
         <v>49.869893011000002</v>
       </c>
-      <c r="E248" s="1">
+      <c r="F248" s="2">
         <v>24611.390071400001</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>1</v>
-      </c>
-      <c r="B249" t="s">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
+        <v>248</v>
+      </c>
+      <c r="B249" s="4">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
         <v>315</v>
       </c>
-      <c r="C249" s="1">
+      <c r="D249" s="2">
         <v>16221.6434869</v>
       </c>
-      <c r="D249" s="1">
-        <v>0</v>
-      </c>
-      <c r="E249" s="1">
+      <c r="E249" s="2">
+        <v>0</v>
+      </c>
+      <c r="F249" s="2">
         <v>544055.60395400005</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>1</v>
-      </c>
-      <c r="B250" t="s">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
+        <v>249</v>
+      </c>
+      <c r="B250" s="4">
+        <v>1</v>
+      </c>
+      <c r="C250" t="s">
         <v>54</v>
       </c>
-      <c r="C250" s="1">
+      <c r="D250" s="2">
         <v>6181.1257888299997</v>
       </c>
-      <c r="D250" s="1">
+      <c r="E250" s="2">
         <v>5.8939840777199999</v>
       </c>
-      <c r="E250" s="1">
+      <c r="F250" s="2">
         <v>127332.859582</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>1</v>
-      </c>
-      <c r="B251" t="s">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
+        <v>250</v>
+      </c>
+      <c r="B251" s="4">
+        <v>1</v>
+      </c>
+      <c r="C251" t="s">
         <v>79</v>
       </c>
-      <c r="C251" s="1">
+      <c r="D251" s="2">
         <v>6894.8268587800003</v>
       </c>
-      <c r="D251" s="1">
+      <c r="E251" s="2">
         <v>3.1541604316499998</v>
       </c>
-      <c r="E251" s="1">
+      <c r="F251" s="2">
         <v>1229665.42576</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>1</v>
-      </c>
-      <c r="B252" t="s">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
+        <v>251</v>
+      </c>
+      <c r="B252" s="4">
+        <v>1</v>
+      </c>
+      <c r="C252" t="s">
         <v>89</v>
       </c>
-      <c r="C252" s="1">
+      <c r="D252" s="2">
         <v>20846.0700321</v>
       </c>
-      <c r="D252" s="1">
+      <c r="E252" s="2">
         <v>196.23821275</v>
       </c>
-      <c r="E252" s="1">
+      <c r="F252" s="2">
         <v>137093.57607899999</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>1</v>
-      </c>
-      <c r="B253" t="s">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <v>252</v>
+      </c>
+      <c r="B253" s="4">
+        <v>1</v>
+      </c>
+      <c r="C253" t="s">
         <v>106</v>
       </c>
-      <c r="C253" s="1">
+      <c r="D253" s="2">
         <v>71693.524234500001</v>
       </c>
-      <c r="D253" s="1">
+      <c r="E253" s="2">
         <v>856.61439636</v>
       </c>
-      <c r="E253" s="1">
+      <c r="F253" s="2">
         <v>639935.76778500003</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>1</v>
-      </c>
-      <c r="B254" t="s">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
+        <v>253</v>
+      </c>
+      <c r="B254" s="4">
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
         <v>129</v>
       </c>
-      <c r="C254" s="1">
+      <c r="D254" s="2">
         <v>6934.0454035299999</v>
       </c>
-      <c r="D254" s="1">
+      <c r="E254" s="2">
         <v>174.18658403500001</v>
       </c>
-      <c r="E254" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>1</v>
-      </c>
-      <c r="B255" t="s">
+      <c r="F254" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
+        <v>254</v>
+      </c>
+      <c r="B255" s="4">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
         <v>314</v>
       </c>
-      <c r="C255" s="1">
+      <c r="D255" s="2">
         <v>8749.6101835299996</v>
       </c>
-      <c r="D255" s="1">
-        <v>0</v>
-      </c>
-      <c r="E255" s="1">
+      <c r="E255" s="2">
+        <v>0</v>
+      </c>
+      <c r="F255" s="2">
         <v>97751.212637499993</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>1</v>
-      </c>
-      <c r="B256" t="s">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
+        <v>255</v>
+      </c>
+      <c r="B256" s="4">
+        <v>1</v>
+      </c>
+      <c r="C256" t="s">
         <v>9</v>
       </c>
-      <c r="C256" s="1">
+      <c r="D256" s="2">
         <v>26404.353746500001</v>
       </c>
-      <c r="D256" s="1">
+      <c r="E256" s="2">
         <v>33.963024700799998</v>
       </c>
-      <c r="E256" s="1">
+      <c r="F256" s="2">
         <v>714971.21717399999</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>1</v>
-      </c>
-      <c r="B257" t="s">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
+        <v>256</v>
+      </c>
+      <c r="B257" s="4">
+        <v>1</v>
+      </c>
+      <c r="C257" t="s">
         <v>149</v>
       </c>
-      <c r="C257" s="1">
+      <c r="D257" s="2">
         <v>7625.0076522899999</v>
       </c>
-      <c r="D257" s="1">
+      <c r="E257" s="2">
         <v>236.33542532800001</v>
       </c>
-      <c r="E257" s="1">
+      <c r="F257" s="2">
         <v>662.62778988499997</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>1</v>
-      </c>
-      <c r="B258" t="s">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
+        <v>257</v>
+      </c>
+      <c r="B258" s="4">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
         <v>146</v>
       </c>
-      <c r="C258" s="1">
+      <c r="D258" s="2">
         <v>11721.9144153</v>
       </c>
-      <c r="D258" s="1">
+      <c r="E258" s="2">
         <v>444.46606376199998</v>
       </c>
-      <c r="E258" s="1">
+      <c r="F258" s="2">
         <v>249.31782009899999</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>1</v>
-      </c>
-      <c r="B259" t="s">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="4">
+        <v>258</v>
+      </c>
+      <c r="B259" s="4">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
         <v>247</v>
       </c>
-      <c r="C259" s="1">
+      <c r="D259" s="2">
         <v>7574.9495622699997</v>
       </c>
-      <c r="D259" s="1">
+      <c r="E259" s="2">
         <v>220.05390568499999</v>
       </c>
-      <c r="E259" s="1">
+      <c r="F259" s="2">
         <v>525.39773814</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>1</v>
-      </c>
-      <c r="B260" t="s">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
+        <v>259</v>
+      </c>
+      <c r="B260" s="4">
+        <v>1</v>
+      </c>
+      <c r="C260" t="s">
         <v>242</v>
       </c>
-      <c r="C260" s="1">
+      <c r="D260" s="2">
         <v>26022.082100899999</v>
       </c>
-      <c r="D260" s="1">
+      <c r="E260" s="2">
         <v>501.18598501100001</v>
       </c>
-      <c r="E260" s="1">
+      <c r="F260" s="2">
         <v>303.29073349800001</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>1</v>
-      </c>
-      <c r="B261" t="s">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
+        <v>260</v>
+      </c>
+      <c r="B261" s="4">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
         <v>5</v>
       </c>
-      <c r="C261" s="1">
+      <c r="D261" s="2">
         <v>3309.7014733300002</v>
       </c>
-      <c r="D261" s="1">
+      <c r="E261" s="2">
         <v>48.246281122699997</v>
       </c>
-      <c r="E261" s="1">
+      <c r="F261" s="2">
         <v>230.30751210599999</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>1</v>
-      </c>
-      <c r="B262" t="s">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
+        <v>261</v>
+      </c>
+      <c r="B262" s="4">
+        <v>1</v>
+      </c>
+      <c r="C262" t="s">
         <v>251</v>
       </c>
-      <c r="C262" s="1">
+      <c r="D262" s="2">
         <v>3435.6432372899999</v>
       </c>
-      <c r="D262" s="1">
+      <c r="E262" s="2">
         <v>183.097510594</v>
       </c>
-      <c r="E262" s="1">
+      <c r="F262" s="2">
         <v>5812.7990749999999</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>1</v>
-      </c>
-      <c r="B263" t="s">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="4">
+        <v>262</v>
+      </c>
+      <c r="B263" s="4">
+        <v>1</v>
+      </c>
+      <c r="C263" t="s">
         <v>84</v>
       </c>
-      <c r="C263" s="1">
+      <c r="D263" s="2">
         <v>269620.148598</v>
       </c>
-      <c r="D263" s="1">
+      <c r="E263" s="2">
         <v>4760.8196407799996</v>
       </c>
-      <c r="E263" s="1">
+      <c r="F263" s="2">
         <v>61184.647765299997</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>1</v>
-      </c>
-      <c r="B264" t="s">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="4">
+        <v>263</v>
+      </c>
+      <c r="B264" s="4">
+        <v>1</v>
+      </c>
+      <c r="C264" t="s">
         <v>239</v>
       </c>
-      <c r="C264" s="1">
+      <c r="D264" s="2">
         <v>65064.121116000002</v>
       </c>
-      <c r="D264" s="1">
+      <c r="E264" s="2">
         <v>1838.2509082500001</v>
       </c>
-      <c r="E264" s="1">
+      <c r="F264" s="2">
         <v>265826.04678400001</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>1</v>
-      </c>
-      <c r="B265" t="s">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="4">
+        <v>264</v>
+      </c>
+      <c r="B265" s="4">
+        <v>1</v>
+      </c>
+      <c r="C265" t="s">
         <v>319</v>
       </c>
-      <c r="C265" s="1">
+      <c r="D265" s="2">
         <v>13291.0405307</v>
       </c>
-      <c r="D265" s="1">
-        <v>0</v>
-      </c>
-      <c r="E265" s="1">
+      <c r="E265" s="2">
+        <v>0</v>
+      </c>
+      <c r="F265" s="2">
         <v>2063208.7606500001</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>1</v>
-      </c>
-      <c r="B266" t="s">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="4">
+        <v>265</v>
+      </c>
+      <c r="B266" s="4">
+        <v>1</v>
+      </c>
+      <c r="C266" t="s">
         <v>171</v>
       </c>
-      <c r="C266" s="1">
+      <c r="D266" s="2">
         <v>1170.05055556</v>
       </c>
-      <c r="D266" s="1">
+      <c r="E266" s="2">
         <v>5.7544436674700004</v>
       </c>
-      <c r="E266" s="1">
+      <c r="F266" s="2">
         <v>196045.807535</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>1</v>
-      </c>
-      <c r="B267" t="s">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="4">
+        <v>266</v>
+      </c>
+      <c r="B267" s="4">
+        <v>1</v>
+      </c>
+      <c r="C267" t="s">
         <v>182</v>
       </c>
-      <c r="C267" s="1">
+      <c r="D267" s="2">
         <v>178124.34371799999</v>
       </c>
-      <c r="D267" s="1">
+      <c r="E267" s="2">
         <v>3154.3242321299999</v>
       </c>
-      <c r="E267" s="1">
+      <c r="F267" s="2">
         <v>7972.2345705999996</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>1</v>
-      </c>
-      <c r="B268" t="s">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="4">
+        <v>267</v>
+      </c>
+      <c r="B268" s="4">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
         <v>184</v>
       </c>
-      <c r="C268" s="1">
+      <c r="D268" s="2">
         <v>89306.404526300001</v>
       </c>
-      <c r="D268" s="1">
+      <c r="E268" s="2">
         <v>1453.5734453699999</v>
       </c>
-      <c r="E268" s="1">
+      <c r="F268" s="2">
         <v>82689.5983041</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>1</v>
-      </c>
-      <c r="B269" t="s">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="4">
+        <v>268</v>
+      </c>
+      <c r="B269" s="4">
+        <v>1</v>
+      </c>
+      <c r="C269" t="s">
         <v>183</v>
       </c>
-      <c r="C269" s="1">
+      <c r="D269" s="2">
         <v>96413.197402899998</v>
       </c>
-      <c r="D269" s="1">
+      <c r="E269" s="2">
         <v>1659.5963791700001</v>
       </c>
-      <c r="E269" s="1">
+      <c r="F269" s="2">
         <v>48896.562625500002</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>1</v>
-      </c>
-      <c r="B270" t="s">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="4">
+        <v>269</v>
+      </c>
+      <c r="B270" s="4">
+        <v>1</v>
+      </c>
+      <c r="C270" t="s">
         <v>11</v>
       </c>
-      <c r="C270" s="1">
+      <c r="D270" s="2">
         <v>7346.4592129700004</v>
       </c>
-      <c r="D270" s="1">
+      <c r="E270" s="2">
         <v>59.509040343700001</v>
       </c>
-      <c r="E270" s="1">
+      <c r="F270" s="2">
         <v>27044.256854800002</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>1</v>
-      </c>
-      <c r="B271" t="s">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="4">
+        <v>270</v>
+      </c>
+      <c r="B271" s="4">
+        <v>1</v>
+      </c>
+      <c r="C271" t="s">
         <v>176</v>
       </c>
-      <c r="C271" s="1">
+      <c r="D271" s="2">
         <v>873.48079751199998</v>
       </c>
-      <c r="D271" s="1">
+      <c r="E271" s="2">
         <v>27.422535744499999</v>
       </c>
-      <c r="E271" s="1">
+      <c r="F271" s="2">
         <v>1039.47163237</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>1</v>
-      </c>
-      <c r="B272" t="s">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="4">
+        <v>271</v>
+      </c>
+      <c r="B272" s="4">
+        <v>1</v>
+      </c>
+      <c r="C272" t="s">
         <v>94</v>
       </c>
-      <c r="C272" s="1">
+      <c r="D272" s="2">
         <v>26375.578618200001</v>
       </c>
-      <c r="D272" s="1">
+      <c r="E272" s="2">
         <v>417.37750805799999</v>
       </c>
-      <c r="E272" s="1">
+      <c r="F272" s="2">
         <v>11253.239335800001</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>1</v>
-      </c>
-      <c r="B273" t="s">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="4">
+        <v>272</v>
+      </c>
+      <c r="B273" s="4">
+        <v>1</v>
+      </c>
+      <c r="C273" t="s">
         <v>132</v>
       </c>
-      <c r="C273" s="1">
+      <c r="D273" s="2">
         <v>485.237542523</v>
       </c>
-      <c r="D273" s="1">
+      <c r="E273" s="2">
         <v>5.7516199426199996</v>
       </c>
-      <c r="E273" s="1">
+      <c r="F273" s="2">
         <v>22618.306628900002</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274">
-        <v>1</v>
-      </c>
-      <c r="B274" t="s">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="4">
+        <v>273</v>
+      </c>
+      <c r="B274" s="4">
+        <v>1</v>
+      </c>
+      <c r="C274" t="s">
         <v>298</v>
       </c>
-      <c r="C274" s="1">
+      <c r="D274" s="2">
         <v>15761.982949900001</v>
       </c>
-      <c r="D274" s="1">
-        <v>0</v>
-      </c>
-      <c r="E274" s="1">
+      <c r="E274" s="2">
+        <v>0</v>
+      </c>
+      <c r="F274" s="2">
         <v>1920145.52562</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>1</v>
-      </c>
-      <c r="B275" t="s">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="4">
+        <v>274</v>
+      </c>
+      <c r="B275" s="4">
+        <v>1</v>
+      </c>
+      <c r="C275" t="s">
         <v>75</v>
       </c>
-      <c r="C275" s="1">
+      <c r="D275" s="2">
         <v>8551.0535198199996</v>
       </c>
-      <c r="D275" s="1">
+      <c r="E275" s="2">
         <v>455.64638942099998</v>
       </c>
-      <c r="E275" s="1">
+      <c r="F275" s="2">
         <v>1056.6240312</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>1</v>
-      </c>
-      <c r="B276" t="s">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="4">
+        <v>275</v>
+      </c>
+      <c r="B276" s="4">
+        <v>1</v>
+      </c>
+      <c r="C276" t="s">
         <v>45</v>
       </c>
-      <c r="C276" s="1">
+      <c r="D276" s="2">
         <v>58915.093588800002</v>
       </c>
-      <c r="D276" s="1">
+      <c r="E276" s="2">
         <v>568.51736471699996</v>
       </c>
-      <c r="E276" s="1">
+      <c r="F276" s="2">
         <v>468319.12696800003</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>1</v>
-      </c>
-      <c r="B277" t="s">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="4">
+        <v>276</v>
+      </c>
+      <c r="B277" s="4">
+        <v>1</v>
+      </c>
+      <c r="C277" t="s">
         <v>331</v>
       </c>
-      <c r="C277" s="1">
+      <c r="D277" s="2">
         <v>2339.4758044700002</v>
       </c>
-      <c r="D277" s="1">
-        <v>0</v>
-      </c>
-      <c r="E277" s="1">
+      <c r="E277" s="2">
+        <v>0</v>
+      </c>
+      <c r="F277" s="2">
         <v>220601.32110299999</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>1</v>
-      </c>
-      <c r="B278" t="s">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="4">
+        <v>277</v>
+      </c>
+      <c r="B278" s="4">
+        <v>1</v>
+      </c>
+      <c r="C278" t="s">
         <v>325</v>
       </c>
-      <c r="C278" s="1">
+      <c r="D278" s="2">
         <v>11371.7470352</v>
       </c>
-      <c r="D278" s="1">
-        <v>0</v>
-      </c>
-      <c r="E278" s="1">
+      <c r="E278" s="2">
+        <v>0</v>
+      </c>
+      <c r="F278" s="2">
         <v>131339.04484399999</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279">
-        <v>1</v>
-      </c>
-      <c r="B279" t="s">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="4">
+        <v>278</v>
+      </c>
+      <c r="B279" s="4">
+        <v>1</v>
+      </c>
+      <c r="C279" t="s">
         <v>104</v>
       </c>
-      <c r="C279" s="1">
+      <c r="D279" s="2">
         <v>21535.5249678</v>
       </c>
-      <c r="D279" s="1">
+      <c r="E279" s="2">
         <v>257.61488918800001</v>
       </c>
-      <c r="E279" s="1">
+      <c r="F279" s="2">
         <v>61206.997464</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280">
-        <v>1</v>
-      </c>
-      <c r="B280" t="s">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
+        <v>279</v>
+      </c>
+      <c r="B280" s="4">
+        <v>1</v>
+      </c>
+      <c r="C280" t="s">
         <v>77</v>
       </c>
-      <c r="C280" s="1">
+      <c r="D280" s="2">
         <v>2264.6731437499998</v>
       </c>
-      <c r="D280" s="1">
+      <c r="E280" s="2">
         <v>65.571120537200002</v>
       </c>
-      <c r="E280" s="1">
+      <c r="F280" s="2">
         <v>64818.159060600003</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>1</v>
-      </c>
-      <c r="B281" t="s">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
+        <v>280</v>
+      </c>
+      <c r="B281" s="4">
+        <v>1</v>
+      </c>
+      <c r="C281" t="s">
         <v>114</v>
       </c>
-      <c r="C281" s="1">
+      <c r="D281" s="2">
         <v>262.985438375</v>
       </c>
-      <c r="D281" s="1">
+      <c r="E281" s="2">
         <v>4.9075413125000003</v>
       </c>
-      <c r="E281" s="1">
+      <c r="F281" s="2">
         <v>0.19054605086199999</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>1</v>
-      </c>
-      <c r="B282" t="s">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
+        <v>281</v>
+      </c>
+      <c r="B282" s="4">
+        <v>1</v>
+      </c>
+      <c r="C282" t="s">
         <v>312</v>
       </c>
-      <c r="C282" s="1">
+      <c r="D282" s="2">
         <v>74450.374849400003</v>
       </c>
-      <c r="D282" s="1">
-        <v>0</v>
-      </c>
-      <c r="E282" s="1">
+      <c r="E282" s="2">
+        <v>0</v>
+      </c>
+      <c r="F282" s="2">
         <v>4512895.6957099997</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>1</v>
-      </c>
-      <c r="B283" t="s">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="4">
+        <v>282</v>
+      </c>
+      <c r="B283" s="4">
+        <v>1</v>
+      </c>
+      <c r="C283" t="s">
         <v>162</v>
       </c>
-      <c r="C283" s="1">
+      <c r="D283" s="2">
         <v>68981.206905700004</v>
       </c>
-      <c r="D283" s="1">
+      <c r="E283" s="2">
         <v>1483.35876128</v>
       </c>
-      <c r="E283" s="1">
+      <c r="F283" s="2">
         <v>168650.650093</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284">
-        <v>1</v>
-      </c>
-      <c r="B284" t="s">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
+        <v>283</v>
+      </c>
+      <c r="B284" s="4">
+        <v>1</v>
+      </c>
+      <c r="C284" t="s">
         <v>197</v>
       </c>
-      <c r="C284" s="1">
+      <c r="D284" s="2">
         <v>17486.043692700001</v>
       </c>
-      <c r="D284" s="1">
+      <c r="E284" s="2">
         <v>55.638247765700001</v>
       </c>
-      <c r="E284" s="1">
+      <c r="F284" s="2">
         <v>65423.7686894</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285">
-        <v>1</v>
-      </c>
-      <c r="B285" t="s">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="4">
+        <v>284</v>
+      </c>
+      <c r="B285" s="4">
+        <v>1</v>
+      </c>
+      <c r="C285" t="s">
         <v>83</v>
       </c>
-      <c r="C285" s="1">
+      <c r="D285" s="2">
         <v>920855.12596700003</v>
       </c>
-      <c r="D285" s="1">
+      <c r="E285" s="2">
         <v>15936.5507077</v>
       </c>
-      <c r="E285" s="1">
+      <c r="F285" s="2">
         <v>321070.28748499998</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286">
-        <v>1</v>
-      </c>
-      <c r="B286" t="s">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
+        <v>285</v>
+      </c>
+      <c r="B286" s="4">
+        <v>1</v>
+      </c>
+      <c r="C286" t="s">
         <v>326</v>
       </c>
-      <c r="C286" s="1">
+      <c r="D286" s="2">
         <v>12376.8386264</v>
       </c>
-      <c r="D286" s="1">
-        <v>0</v>
-      </c>
-      <c r="E286" s="1">
+      <c r="E286" s="2">
+        <v>0</v>
+      </c>
+      <c r="F286" s="2">
         <v>480435.58345199999</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287">
-        <v>1</v>
-      </c>
-      <c r="B287" t="s">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
+        <v>286</v>
+      </c>
+      <c r="B287" s="4">
+        <v>1</v>
+      </c>
+      <c r="C287" t="s">
         <v>27</v>
       </c>
-      <c r="C287" s="1">
-        <v>0</v>
-      </c>
-      <c r="D287" s="1">
-        <v>0</v>
-      </c>
-      <c r="E287" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288">
-        <v>1</v>
-      </c>
-      <c r="B288" t="s">
+      <c r="D287" s="2">
+        <v>0</v>
+      </c>
+      <c r="E287" s="2">
+        <v>0</v>
+      </c>
+      <c r="F287" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
+        <v>287</v>
+      </c>
+      <c r="B288" s="4">
+        <v>1</v>
+      </c>
+      <c r="C288" t="s">
         <v>270</v>
       </c>
-      <c r="C288" s="1">
+      <c r="D288" s="2">
         <v>22190.284417800001</v>
       </c>
-      <c r="D288" s="1">
-        <v>0</v>
-      </c>
-      <c r="E288" s="1">
+      <c r="E288" s="2">
+        <v>0</v>
+      </c>
+      <c r="F288" s="2">
         <v>35757.323576700001</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289">
-        <v>1</v>
-      </c>
-      <c r="B289" t="s">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <v>288</v>
+      </c>
+      <c r="B289" s="4">
+        <v>1</v>
+      </c>
+      <c r="C289" t="s">
         <v>108</v>
       </c>
-      <c r="C289" s="1">
+      <c r="D289" s="2">
         <v>116640.509307</v>
       </c>
-      <c r="D289" s="1">
+      <c r="E289" s="2">
         <v>2247.8526958299999</v>
       </c>
-      <c r="E289" s="1">
+      <c r="F289" s="2">
         <v>13432.3166707</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290">
-        <v>1</v>
-      </c>
-      <c r="B290" t="s">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
+        <v>289</v>
+      </c>
+      <c r="B290" s="4">
+        <v>1</v>
+      </c>
+      <c r="C290" t="s">
         <v>107</v>
       </c>
-      <c r="C290" s="1">
+      <c r="D290" s="2">
         <v>486829.91165600001</v>
       </c>
-      <c r="D290" s="1">
+      <c r="E290" s="2">
         <v>8515.3467524999996</v>
       </c>
-      <c r="E290" s="1">
+      <c r="F290" s="2">
         <v>896394.91183700005</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291">
-        <v>1</v>
-      </c>
-      <c r="B291" t="s">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="4">
+        <v>290</v>
+      </c>
+      <c r="B291" s="4">
+        <v>1</v>
+      </c>
+      <c r="C291" t="s">
         <v>109</v>
       </c>
-      <c r="C291" s="1">
+      <c r="D291" s="2">
         <v>11679.5470064</v>
       </c>
-      <c r="D291" s="1">
+      <c r="E291" s="2">
         <v>227.926474724</v>
       </c>
-      <c r="E291" s="1">
+      <c r="F291" s="2">
         <v>827.39798565199999</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292">
-        <v>1</v>
-      </c>
-      <c r="B292" t="s">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="4">
+        <v>291</v>
+      </c>
+      <c r="B292" s="4">
+        <v>1</v>
+      </c>
+      <c r="C292" t="s">
         <v>180</v>
       </c>
-      <c r="C292" s="1">
+      <c r="D292" s="2">
         <v>104960.96230100001</v>
       </c>
-      <c r="D292" s="1">
+      <c r="E292" s="2">
         <v>2019.9262211099999</v>
       </c>
-      <c r="E292" s="1">
+      <c r="F292" s="2">
         <v>12604.918685000001</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293">
-        <v>1</v>
-      </c>
-      <c r="B293" t="s">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="4">
+        <v>292</v>
+      </c>
+      <c r="B293" s="4">
+        <v>1</v>
+      </c>
+      <c r="C293" t="s">
         <v>333</v>
       </c>
-      <c r="C293" s="1">
+      <c r="D293" s="2">
         <v>224665.33448600001</v>
       </c>
-      <c r="D293" s="1">
-        <v>0</v>
-      </c>
-      <c r="E293" s="1">
+      <c r="E293" s="2">
+        <v>0</v>
+      </c>
+      <c r="F293" s="2">
         <v>6283365.1375599997</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294">
-        <v>1</v>
-      </c>
-      <c r="B294" t="s">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="4">
+        <v>293</v>
+      </c>
+      <c r="B294" s="4">
+        <v>1</v>
+      </c>
+      <c r="C294" t="s">
         <v>303</v>
       </c>
-      <c r="C294" s="1">
+      <c r="D294" s="2">
         <v>6345.4567016700003</v>
       </c>
-      <c r="D294" s="1">
-        <v>0</v>
-      </c>
-      <c r="E294" s="1">
+      <c r="E294" s="2">
+        <v>0</v>
+      </c>
+      <c r="F294" s="2">
         <v>743404.19966599997</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295">
-        <v>1</v>
-      </c>
-      <c r="B295" t="s">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="4">
+        <v>294</v>
+      </c>
+      <c r="B295" s="4">
+        <v>1</v>
+      </c>
+      <c r="C295" t="s">
         <v>50</v>
       </c>
-      <c r="C295" s="1">
+      <c r="D295" s="2">
         <v>199857.737207</v>
       </c>
-      <c r="D295" s="1">
+      <c r="E295" s="2">
         <v>2136.9067681400002</v>
       </c>
-      <c r="E295" s="1">
+      <c r="F295" s="2">
         <v>3622521.5464900001</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296">
-        <v>1</v>
-      </c>
-      <c r="B296" t="s">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="4">
+        <v>295</v>
+      </c>
+      <c r="B296" s="4">
+        <v>1</v>
+      </c>
+      <c r="C296" t="s">
         <v>138</v>
       </c>
-      <c r="C296" s="1">
+      <c r="D296" s="2">
         <v>62990.042807400001</v>
       </c>
-      <c r="D296" s="1">
+      <c r="E296" s="2">
         <v>898.66709727399996</v>
       </c>
-      <c r="E296" s="1">
+      <c r="F296" s="2">
         <v>40081.247842700002</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297">
-        <v>1</v>
-      </c>
-      <c r="B297" t="s">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="4">
+        <v>296</v>
+      </c>
+      <c r="B297" s="4">
+        <v>1</v>
+      </c>
+      <c r="C297" t="s">
         <v>289</v>
       </c>
-      <c r="C297" s="1">
+      <c r="D297" s="2">
         <v>21772.7149049</v>
       </c>
-      <c r="D297" s="1">
-        <v>0</v>
-      </c>
-      <c r="E297" s="1">
+      <c r="E297" s="2">
+        <v>0</v>
+      </c>
+      <c r="F297" s="2">
         <v>6297533.3972300002</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298">
-        <v>1</v>
-      </c>
-      <c r="B298" t="s">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="4">
+        <v>297</v>
+      </c>
+      <c r="B298" s="4">
+        <v>1</v>
+      </c>
+      <c r="C298" t="s">
         <v>177</v>
       </c>
-      <c r="C298" s="1">
+      <c r="D298" s="2">
         <v>231.83889032100001</v>
       </c>
-      <c r="D298" s="1">
+      <c r="E298" s="2">
         <v>7.7289487936199999</v>
       </c>
-      <c r="E298" s="1">
+      <c r="F298" s="2">
         <v>254.617454337</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299">
-        <v>1</v>
-      </c>
-      <c r="B299" t="s">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="4">
+        <v>298</v>
+      </c>
+      <c r="B299" s="4">
+        <v>1</v>
+      </c>
+      <c r="C299" t="s">
         <v>210</v>
       </c>
-      <c r="C299" s="1">
+      <c r="D299" s="2">
         <v>245475.11078399999</v>
       </c>
-      <c r="D299" s="1">
+      <c r="E299" s="2">
         <v>155.184737216</v>
       </c>
-      <c r="E299" s="1">
+      <c r="F299" s="2">
         <v>8789407.1005199999</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300">
-        <v>1</v>
-      </c>
-      <c r="B300" t="s">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="4">
+        <v>299</v>
+      </c>
+      <c r="B300" s="4">
+        <v>1</v>
+      </c>
+      <c r="C300" t="s">
         <v>64</v>
       </c>
-      <c r="C300" s="1">
+      <c r="D300" s="2">
         <v>83604.626083499999</v>
       </c>
-      <c r="D300" s="1">
+      <c r="E300" s="2">
         <v>2723.7761409999998</v>
       </c>
-      <c r="E300" s="1">
+      <c r="F300" s="2">
         <v>3153.23137924</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301">
-        <v>1</v>
-      </c>
-      <c r="B301" t="s">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="4">
+        <v>300</v>
+      </c>
+      <c r="B301" s="4">
+        <v>1</v>
+      </c>
+      <c r="C301" t="s">
         <v>80</v>
       </c>
-      <c r="C301" s="1">
+      <c r="D301" s="2">
         <v>59455.157762100003</v>
       </c>
-      <c r="D301" s="1">
+      <c r="E301" s="2">
         <v>690.06137702000001</v>
       </c>
-      <c r="E301" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>1</v>
-      </c>
-      <c r="B302" t="s">
+      <c r="F301" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="4">
+        <v>301</v>
+      </c>
+      <c r="B302" s="4">
+        <v>1</v>
+      </c>
+      <c r="C302" t="s">
         <v>51</v>
       </c>
-      <c r="C302" s="1">
+      <c r="D302" s="2">
         <v>180781.85775900001</v>
       </c>
-      <c r="D302" s="1">
+      <c r="E302" s="2">
         <v>2116.0688736900001</v>
       </c>
-      <c r="E302" s="1">
+      <c r="F302" s="2">
         <v>179000.14559199999</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303">
-        <v>1</v>
-      </c>
-      <c r="B303" t="s">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="4">
+        <v>302</v>
+      </c>
+      <c r="B303" s="4">
+        <v>1</v>
+      </c>
+      <c r="C303" t="s">
         <v>269</v>
       </c>
-      <c r="C303" s="1">
+      <c r="D303" s="2">
         <v>35908.6052948</v>
       </c>
-      <c r="D303" s="1">
-        <v>0</v>
-      </c>
-      <c r="E303" s="1">
+      <c r="E303" s="2">
+        <v>0</v>
+      </c>
+      <c r="F303" s="2">
         <v>9939057.9918099996</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304">
-        <v>1</v>
-      </c>
-      <c r="B304" t="s">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="4">
+        <v>303</v>
+      </c>
+      <c r="B304" s="4">
+        <v>1</v>
+      </c>
+      <c r="C304" t="s">
         <v>150</v>
       </c>
-      <c r="C304" s="1">
+      <c r="D304" s="2">
         <v>3683.2977687799998</v>
       </c>
-      <c r="D304" s="1">
+      <c r="E304" s="2">
         <v>71.949386607099996</v>
       </c>
-      <c r="E304" s="1">
+      <c r="F304" s="2">
         <v>297.48637256900003</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305">
-        <v>1</v>
-      </c>
-      <c r="B305" t="s">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="4">
+        <v>304</v>
+      </c>
+      <c r="B305" s="4">
+        <v>1</v>
+      </c>
+      <c r="C305" t="s">
         <v>18</v>
       </c>
-      <c r="C305" s="1">
+      <c r="D305" s="2">
         <v>67557.534916100005</v>
       </c>
-      <c r="D305" s="1">
+      <c r="E305" s="2">
         <v>800.24587469100004</v>
       </c>
-      <c r="E305" s="1">
+      <c r="F305" s="2">
         <v>215.35893106699999</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306">
-        <v>1</v>
-      </c>
-      <c r="B306" t="s">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="4">
+        <v>305</v>
+      </c>
+      <c r="B306" s="4">
+        <v>1</v>
+      </c>
+      <c r="C306" t="s">
         <v>137</v>
       </c>
-      <c r="C306" s="1">
+      <c r="D306" s="2">
         <v>3853.08048121</v>
       </c>
-      <c r="D306" s="1">
+      <c r="E306" s="2">
         <v>44.533462508299998</v>
       </c>
-      <c r="E306" s="1">
+      <c r="F306" s="2">
         <v>2952.29907774</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307">
-        <v>1</v>
-      </c>
-      <c r="B307" t="s">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="4">
+        <v>306</v>
+      </c>
+      <c r="B307" s="4">
+        <v>1</v>
+      </c>
+      <c r="C307" t="s">
         <v>288</v>
       </c>
-      <c r="C307" s="1">
+      <c r="D307" s="2">
         <v>27870.0799606</v>
       </c>
-      <c r="D307" s="1">
-        <v>0</v>
-      </c>
-      <c r="E307" s="1">
+      <c r="E307" s="2">
+        <v>0</v>
+      </c>
+      <c r="F307" s="2">
         <v>1953683.4747599999</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308">
-        <v>1</v>
-      </c>
-      <c r="B308" t="s">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="4">
+        <v>307</v>
+      </c>
+      <c r="B308" s="4">
+        <v>1</v>
+      </c>
+      <c r="C308" t="s">
         <v>154</v>
       </c>
-      <c r="C308" s="1">
+      <c r="D308" s="2">
         <v>6178.3795385699996</v>
       </c>
-      <c r="D308" s="1">
+      <c r="E308" s="2">
         <v>202.67752878100001</v>
       </c>
-      <c r="E308" s="1">
+      <c r="F308" s="2">
         <v>769.13074188500002</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309">
-        <v>1</v>
-      </c>
-      <c r="B309" t="s">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="4">
+        <v>308</v>
+      </c>
+      <c r="B309" s="4">
+        <v>1</v>
+      </c>
+      <c r="C309" t="s">
         <v>71</v>
       </c>
-      <c r="C309" s="1">
+      <c r="D309" s="2">
         <v>76982.817548499996</v>
       </c>
-      <c r="D309" s="1">
+      <c r="E309" s="2">
         <v>2639.4182442599999</v>
       </c>
-      <c r="E309" s="1">
+      <c r="F309" s="2">
         <v>2281.2992901100001</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>1</v>
-      </c>
-      <c r="B310" t="s">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="4">
+        <v>309</v>
+      </c>
+      <c r="B310" s="4">
+        <v>1</v>
+      </c>
+      <c r="C310" t="s">
         <v>274</v>
       </c>
-      <c r="C310" s="1">
+      <c r="D310" s="2">
         <v>1636.1384490600001</v>
       </c>
-      <c r="D310" s="1">
-        <v>0</v>
-      </c>
-      <c r="E310" s="1">
+      <c r="E310" s="2">
+        <v>0</v>
+      </c>
+      <c r="F310" s="2">
         <v>20518.5747539</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311">
-        <v>1</v>
-      </c>
-      <c r="B311" t="s">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="4">
+        <v>310</v>
+      </c>
+      <c r="B311" s="4">
+        <v>1</v>
+      </c>
+      <c r="C311" t="s">
         <v>82</v>
       </c>
-      <c r="C311" s="1">
+      <c r="D311" s="2">
         <v>941701.19599899999</v>
       </c>
-      <c r="D311" s="1">
+      <c r="E311" s="2">
         <v>16132.788920499999</v>
       </c>
-      <c r="E311" s="1">
+      <c r="F311" s="2">
         <v>458163.86356500001</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312">
-        <v>1</v>
-      </c>
-      <c r="B312" t="s">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="4">
+        <v>311</v>
+      </c>
+      <c r="B312" s="4">
+        <v>1</v>
+      </c>
+      <c r="C312" t="s">
         <v>307</v>
       </c>
-      <c r="C312" s="1">
+      <c r="D312" s="2">
         <v>450.00782958500002</v>
       </c>
-      <c r="D312" s="1">
-        <v>0</v>
-      </c>
-      <c r="E312" s="1">
+      <c r="E312" s="2">
+        <v>0</v>
+      </c>
+      <c r="F312" s="2">
         <v>421022.590172</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>1</v>
-      </c>
-      <c r="B313" t="s">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="4">
+        <v>312</v>
+      </c>
+      <c r="B313" s="4">
+        <v>1</v>
+      </c>
+      <c r="C313" t="s">
         <v>265</v>
       </c>
-      <c r="C313" s="1">
+      <c r="D313" s="2">
         <v>435.02049890500001</v>
       </c>
-      <c r="D313" s="1">
-        <v>0</v>
-      </c>
-      <c r="E313" s="1">
+      <c r="E313" s="2">
+        <v>0</v>
+      </c>
+      <c r="F313" s="2">
         <v>3165531.4245699998</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314">
-        <v>1</v>
-      </c>
-      <c r="B314" t="s">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="4">
+        <v>313</v>
+      </c>
+      <c r="B314" s="4">
+        <v>1</v>
+      </c>
+      <c r="C314" t="s">
         <v>227</v>
       </c>
-      <c r="C314" s="1">
+      <c r="D314" s="2">
         <v>533822.96413500002</v>
       </c>
-      <c r="D314" s="1">
+      <c r="E314" s="2">
         <v>13936.9058095</v>
       </c>
-      <c r="E314" s="1">
+      <c r="F314" s="2">
         <v>8133738.0756400004</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315">
-        <v>1</v>
-      </c>
-      <c r="B315" t="s">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="4">
+        <v>314</v>
+      </c>
+      <c r="B315" s="4">
+        <v>1</v>
+      </c>
+      <c r="C315" t="s">
         <v>322</v>
       </c>
-      <c r="C315" s="1">
+      <c r="D315" s="2">
         <v>422.93184582599997</v>
       </c>
-      <c r="D315" s="1">
-        <v>0</v>
-      </c>
-      <c r="E315" s="1">
+      <c r="E315" s="2">
+        <v>0</v>
+      </c>
+      <c r="F315" s="2">
         <v>25909.021775500001</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316">
-        <v>1</v>
-      </c>
-      <c r="B316" t="s">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="4">
+        <v>315</v>
+      </c>
+      <c r="B316" s="4">
+        <v>1</v>
+      </c>
+      <c r="C316" t="s">
         <v>4</v>
       </c>
-      <c r="C316" s="1">
+      <c r="D316" s="2">
         <v>27360.5901123</v>
       </c>
-      <c r="D316" s="1">
+      <c r="E316" s="2">
         <v>385.95668393800003</v>
       </c>
-      <c r="E316" s="1">
+      <c r="F316" s="2">
         <v>1569.28882946</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317">
-        <v>1</v>
-      </c>
-      <c r="B317" t="s">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="4">
+        <v>316</v>
+      </c>
+      <c r="B317" s="4">
+        <v>1</v>
+      </c>
+      <c r="C317" t="s">
         <v>96</v>
       </c>
-      <c r="C317" s="1">
+      <c r="D317" s="2">
         <v>39591.178432499997</v>
       </c>
-      <c r="D317" s="1">
+      <c r="E317" s="2">
         <v>667.14215103499998</v>
       </c>
-      <c r="E317" s="1">
+      <c r="F317" s="2">
         <v>15298.6461347</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318">
-        <v>1</v>
-      </c>
-      <c r="B318" t="s">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="4">
+        <v>317</v>
+      </c>
+      <c r="B318" s="4">
+        <v>1</v>
+      </c>
+      <c r="C318" t="s">
         <v>90</v>
       </c>
-      <c r="C318" s="1">
+      <c r="D318" s="2">
         <v>970156.89456100005</v>
       </c>
-      <c r="D318" s="1">
+      <c r="E318" s="2">
         <v>13567.915147399999</v>
       </c>
-      <c r="E318" s="1">
+      <c r="F318" s="2">
         <v>3020016.5359100001</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319">
-        <v>1</v>
-      </c>
-      <c r="B319" t="s">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="4">
+        <v>318</v>
+      </c>
+      <c r="B319" s="4">
+        <v>1</v>
+      </c>
+      <c r="C319" t="s">
         <v>97</v>
       </c>
-      <c r="C319" s="1">
+      <c r="D319" s="2">
         <v>29035.2311477</v>
       </c>
-      <c r="D319" s="1">
+      <c r="E319" s="2">
         <v>352.812419697</v>
       </c>
-      <c r="E319" s="1">
+      <c r="F319" s="2">
         <v>21289.974105000001</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320">
-        <v>1</v>
-      </c>
-      <c r="B320" t="s">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="4">
+        <v>319</v>
+      </c>
+      <c r="B320" s="4">
+        <v>1</v>
+      </c>
+      <c r="C320" t="s">
         <v>8</v>
       </c>
-      <c r="C320" s="1">
+      <c r="D320" s="2">
         <v>32651.6898196</v>
       </c>
-      <c r="D320" s="1">
+      <c r="E320" s="2">
         <v>41.442582445100001</v>
       </c>
-      <c r="E320" s="1">
+      <c r="F320" s="2">
         <v>1208644.8194599999</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321">
-        <v>1</v>
-      </c>
-      <c r="B321" t="s">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="4">
+        <v>320</v>
+      </c>
+      <c r="B321" s="4">
+        <v>1</v>
+      </c>
+      <c r="C321" t="s">
         <v>126</v>
       </c>
-      <c r="C321" s="1">
+      <c r="D321" s="2">
         <v>21632.3396216</v>
       </c>
-      <c r="D321" s="1">
+      <c r="E321" s="2">
         <v>266.11812206799999</v>
       </c>
-      <c r="E321" s="1">
+      <c r="F321" s="2">
         <v>488017.87714599998</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322">
-        <v>1</v>
-      </c>
-      <c r="B322" t="s">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="4">
+        <v>321</v>
+      </c>
+      <c r="B322" s="4">
+        <v>1</v>
+      </c>
+      <c r="C322" t="s">
         <v>207</v>
       </c>
-      <c r="C322" s="1">
+      <c r="D322" s="2">
         <v>31642.7208852</v>
       </c>
-      <c r="D322" s="1">
+      <c r="E322" s="2">
         <v>364.59474427700002</v>
       </c>
-      <c r="E322" s="1">
+      <c r="F322" s="2">
         <v>48730.052366999997</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323">
-        <v>1</v>
-      </c>
-      <c r="B323" t="s">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="4">
+        <v>322</v>
+      </c>
+      <c r="B323" s="4">
+        <v>1</v>
+      </c>
+      <c r="C323" t="s">
         <v>128</v>
       </c>
-      <c r="C323" s="1">
+      <c r="D323" s="2">
         <v>877.60104417800005</v>
       </c>
-      <c r="D323" s="1">
+      <c r="E323" s="2">
         <v>3.9688349218100001</v>
       </c>
-      <c r="E323" s="1">
+      <c r="F323" s="2">
         <v>9932.8959085499991</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324">
-        <v>1</v>
-      </c>
-      <c r="B324" t="s">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="4">
+        <v>323</v>
+      </c>
+      <c r="B324" s="4">
+        <v>1</v>
+      </c>
+      <c r="C324" t="s">
         <v>332</v>
       </c>
-      <c r="C324" s="1">
+      <c r="D324" s="2">
         <v>23391.9572611</v>
       </c>
-      <c r="D324" s="1">
-        <v>0</v>
-      </c>
-      <c r="E324" s="1">
+      <c r="E324" s="2">
+        <v>0</v>
+      </c>
+      <c r="F324" s="2">
         <v>388004.78066500003</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325">
-        <v>1</v>
-      </c>
-      <c r="B325" t="s">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="4">
+        <v>324</v>
+      </c>
+      <c r="B325" s="4">
+        <v>1</v>
+      </c>
+      <c r="C325" t="s">
         <v>74</v>
       </c>
-      <c r="C325" s="1">
+      <c r="D325" s="2">
         <v>10151.1264273</v>
       </c>
-      <c r="D325" s="1">
+      <c r="E325" s="2">
         <v>332.87583329400002</v>
       </c>
-      <c r="E325" s="1">
+      <c r="F325" s="2">
         <v>1190.4385143500001</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326">
-        <v>1</v>
-      </c>
-      <c r="B326" t="s">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="4">
+        <v>325</v>
+      </c>
+      <c r="B326" s="4">
+        <v>1</v>
+      </c>
+      <c r="C326" t="s">
         <v>131</v>
       </c>
-      <c r="C326" s="1">
+      <c r="D326" s="2">
         <v>3296.9010082499999</v>
       </c>
-      <c r="D326" s="1">
+      <c r="E326" s="2">
         <v>1.7190780531100001</v>
       </c>
-      <c r="E326" s="1">
+      <c r="F326" s="2">
         <v>207270.939984</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327">
-        <v>1</v>
-      </c>
-      <c r="B327" t="s">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="4">
+        <v>326</v>
+      </c>
+      <c r="B327" s="4">
+        <v>1</v>
+      </c>
+      <c r="C327" t="s">
         <v>20</v>
       </c>
-      <c r="C327" s="1">
+      <c r="D327" s="2">
         <v>22608.3205629</v>
       </c>
-      <c r="D327" s="1">
+      <c r="E327" s="2">
         <v>319.27283224299998</v>
       </c>
-      <c r="E327" s="1">
+      <c r="F327" s="2">
         <v>32837.390216100001</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328">
-        <v>1</v>
-      </c>
-      <c r="B328" t="s">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="4">
+        <v>327</v>
+      </c>
+      <c r="B328" s="4">
+        <v>1</v>
+      </c>
+      <c r="C328" t="s">
         <v>245</v>
       </c>
-      <c r="C328" s="1">
+      <c r="D328" s="2">
         <v>4862.17281172</v>
       </c>
-      <c r="D328" s="1">
+      <c r="E328" s="2">
         <v>171.60234792200001</v>
       </c>
-      <c r="E328" s="1">
+      <c r="F328" s="2">
         <v>160.57911578900001</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329">
-        <v>1</v>
-      </c>
-      <c r="B329" t="s">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="4">
+        <v>328</v>
+      </c>
+      <c r="B329" s="4">
+        <v>1</v>
+      </c>
+      <c r="C329" t="s">
         <v>101</v>
       </c>
-      <c r="C329" s="1">
+      <c r="D329" s="2">
         <v>8364.8937188100008</v>
       </c>
-      <c r="D329" s="1">
+      <c r="E329" s="2">
         <v>70.370009991800003</v>
       </c>
-      <c r="E329" s="1">
+      <c r="F329" s="2">
         <v>57247.046151299997</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330">
-        <v>1</v>
-      </c>
-      <c r="B330" t="s">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="4">
+        <v>329</v>
+      </c>
+      <c r="B330" s="4">
+        <v>1</v>
+      </c>
+      <c r="C330" t="s">
         <v>328</v>
       </c>
-      <c r="C330" s="1">
+      <c r="D330" s="2">
         <v>31184.543493699999</v>
       </c>
-      <c r="D330" s="1">
-        <v>0</v>
-      </c>
-      <c r="E330" s="1">
+      <c r="E330" s="2">
+        <v>0</v>
+      </c>
+      <c r="F330" s="2">
         <v>1018593.8787999999</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331">
-        <v>1</v>
-      </c>
-      <c r="B331" t="s">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="4">
+        <v>330</v>
+      </c>
+      <c r="B331" s="4">
+        <v>1</v>
+      </c>
+      <c r="C331" t="s">
         <v>25</v>
       </c>
-      <c r="C331" s="1">
+      <c r="D331" s="2">
         <v>166.12815216800001</v>
       </c>
-      <c r="D331" s="1">
+      <c r="E331" s="2">
         <v>4.0284102378100002</v>
       </c>
-      <c r="E331" s="1">
+      <c r="F331" s="2">
         <v>7.4259885563900001</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332">
-        <v>1</v>
-      </c>
-      <c r="B332" t="s">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="4">
+        <v>331</v>
+      </c>
+      <c r="B332" s="4">
+        <v>1</v>
+      </c>
+      <c r="C332" t="s">
         <v>306</v>
       </c>
-      <c r="C332" s="1">
+      <c r="D332" s="2">
         <v>3442.15360659</v>
       </c>
-      <c r="D332" s="1">
-        <v>0</v>
-      </c>
-      <c r="E332" s="1">
+      <c r="E332" s="2">
+        <v>0</v>
+      </c>
+      <c r="F332" s="2">
         <v>14404825.082599999</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333">
-        <v>1</v>
-      </c>
-      <c r="B333" t="s">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="4">
+        <v>332</v>
+      </c>
+      <c r="B333" s="4">
+        <v>1</v>
+      </c>
+      <c r="C333" t="s">
         <v>17</v>
       </c>
-      <c r="C333" s="1">
+      <c r="D333" s="2">
         <v>181428.38267600001</v>
       </c>
-      <c r="D333" s="1">
+      <c r="E333" s="2">
         <v>2135.0916069300001</v>
       </c>
-      <c r="E333" s="1">
+      <c r="F333" s="2">
         <v>24267.698296999999</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334">
-        <v>1</v>
-      </c>
-      <c r="B334" t="s">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="4">
+        <v>333</v>
+      </c>
+      <c r="B334" s="4">
+        <v>1</v>
+      </c>
+      <c r="C334" t="s">
         <v>113</v>
       </c>
-      <c r="C334" s="1">
-        <v>0</v>
-      </c>
-      <c r="D334" s="1">
-        <v>0</v>
-      </c>
-      <c r="E334" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335">
-        <v>1</v>
-      </c>
-      <c r="B335" t="s">
+      <c r="D334" s="2">
+        <v>0</v>
+      </c>
+      <c r="E334" s="2">
+        <v>0</v>
+      </c>
+      <c r="F334" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="4">
+        <v>334</v>
+      </c>
+      <c r="B335" s="4">
+        <v>1</v>
+      </c>
+      <c r="C335" t="s">
         <v>213</v>
       </c>
-      <c r="C335" s="1">
-        <v>0</v>
-      </c>
-      <c r="D335" s="1">
-        <v>0</v>
-      </c>
-      <c r="E335" s="1">
+      <c r="D335" s="2">
+        <v>0</v>
+      </c>
+      <c r="E335" s="2">
+        <v>0</v>
+      </c>
+      <c r="F335" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="G2:H336">
-    <sortCondition ref="G2:G336"/>
+  <sortState ref="H2:I336">
+    <sortCondition ref="H2:H336"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/burdens-demo.xlsx
+++ b/data/burdens-demo.xlsx
@@ -1030,10 +1030,10 @@
     <t>Prevalence</t>
   </si>
   <si>
-    <t>Cause of disease burden</t>
-  </si>
-  <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>Cause</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1639,7 @@
   <tableColumns count="6">
     <tableColumn id="6" name="Index" dataDxfId="4"/>
     <tableColumn id="1" name="Active" dataDxfId="3"/>
-    <tableColumn id="2" name="Cause of disease burden"/>
+    <tableColumn id="2" name="Cause"/>
     <tableColumn id="3" name="DALYs" dataDxfId="2" dataCellStyle="Comma"/>
     <tableColumn id="4" name="Deaths" dataDxfId="1" dataCellStyle="Comma"/>
     <tableColumn id="5" name="Prevalence" dataDxfId="0" dataCellStyle="Comma"/>
@@ -1939,7 +1939,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,13 +1954,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>334</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>335</v>

--- a/data/burdens-demo.xlsx
+++ b/data/burdens-demo.xlsx
@@ -1040,9 +1040,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1532,13 +1531,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1587,13 +1586,13 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1938,13 +1937,13 @@
   <dimension ref="A1:F335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I300" sqref="I300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="4"/>
+    <col min="1" max="2" width="9.140625" style="3"/>
     <col min="3" max="3" width="62.7109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -1953,10 +1952,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>334</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1973,6682 +1972,6682 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>71538.760351200006</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
         <v>2793436.6702200002</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>335.91991891100002</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>6.5741268745700001</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>280.46185164799999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>1299.25991565</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>14.2001515817</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>35470.346914000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>3205.5234945399998</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>50.305726756200002</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>2554.83243752</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>14612.7412169</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>223.28393227000001</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>808.62363191899999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>8555.1406746800003</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>157.59405691500001</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>298.95829052900001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>56447.234338900002</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>1053.12831351</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>10508.8539621</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>313</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>105265.246031</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
         <v>2471218.4148499998</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>22578.174648799999</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>138.52625955900001</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>169526.474972</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>214</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>2341.4109419199999</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>71.621924203800006</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>664.10162930700005</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>18559913.783799998</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <v>303811.85109399998</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>32881049.194499999</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>330</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>1782.7626544100001</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
         <v>54941.9203308</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>48654.350705500001</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>2903.0183889800001</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>65639.100505800001</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>261</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>654.84159577200001</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <v>6.8728596576800003</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="4">
         <v>2276.2798704800002</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>15821.108124</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <v>157.04206430799999</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="4">
         <v>172996.01371</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>264</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>1360.5742618100001</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>0.84235460466900003</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="4">
         <v>6197.20412863</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>280</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>141942.952854</v>
       </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
         <v>1481594.17652</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>5263.8341397300001</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>183.63016340600001</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>241</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <v>18952.7691959</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>369.317403528</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="4">
         <v>4945.0950460399999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>138.33828790600001</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>2.46080370988</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <v>276.09932416499998</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>25999.9278939</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <v>29.770542874099998</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="4">
         <v>12452607.629000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>283</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
         <v>22752.292829000002</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
         <v>227892.87499899999</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>230</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
         <v>183363.12229900001</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <v>3146.9273274500001</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="4">
         <v>2002477.9615</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>1</v>
       </c>
       <c r="C26" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="4">
         <v>6002.3468777799999</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="4">
         <v>144.970049937</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="4">
         <v>52739.9439442</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>284</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <v>4991.5831607800001</v>
       </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
         <v>415941.23164000001</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>282</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="4">
         <v>20093.885254600002</v>
       </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
         <v>79029.017135100003</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
         <v>42846.178083600003</v>
       </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
         <v>304876.63990000001</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>295</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="4">
         <v>9528.5589245400006</v>
       </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
         <v>297188.50910199998</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>279</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="4">
         <v>44216.406187400004</v>
       </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
         <v>218599.656644</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="4">
         <v>10869.6593318</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="4">
         <v>435.80812446099998</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="4">
         <v>1167.6481003599999</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="4">
         <v>29461.172381799999</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="4">
         <v>627.26175027800002</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="4">
         <v>1299.9119377</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="4">
         <v>100927.114311</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="4">
         <v>2709.5832830099998</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="4">
         <v>11066.9916524</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>1</v>
       </c>
       <c r="C35" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="4">
         <v>5038.1291357299997</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="4">
         <v>7.0043576245900005E-2</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="4">
         <v>24220.733712599998</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>1</v>
       </c>
       <c r="C36" t="s">
         <v>275</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="4">
         <v>1519.02133751</v>
       </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
         <v>52275.875178000002</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>168</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="4">
         <v>17425.006518099999</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="4">
         <v>432.13560127300002</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="4">
         <v>7853.3296157100003</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>1</v>
       </c>
       <c r="C38" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="4">
         <v>2257809.9707300002</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="4">
         <v>80333.111087400001</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="4">
         <v>1381160.45964</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>1</v>
       </c>
       <c r="C39" t="s">
         <v>317</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="4">
         <v>923.65963041199996</v>
       </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
         <v>3931575.0691</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>1</v>
       </c>
       <c r="C40" t="s">
         <v>318</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="4">
         <v>7991.6122691500004</v>
       </c>
-      <c r="E40" s="2">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
         <v>13652403.0474</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>1</v>
       </c>
       <c r="C41" t="s">
         <v>310</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="4">
         <v>16932.902374599998</v>
       </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
         <v>211890.790404</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>1</v>
       </c>
       <c r="C42" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="4">
         <v>1074.07271578</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="4">
         <v>5.81918796257</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="4">
         <v>15320.0918955</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>1</v>
       </c>
       <c r="C43" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="4">
         <v>650879.46664700005</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="4">
         <v>23131.8121168</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="4">
         <v>150133.165343</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="4">
         <v>26416.737029299999</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="4">
         <v>736.59336951299997</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="4">
         <v>3755.9046343700002</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>1</v>
       </c>
       <c r="C45" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>1</v>
       </c>
       <c r="C46" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="4">
         <v>2051.98247446</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="4">
         <v>4.0662416586100001</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="4">
         <v>288116.93234399997</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="4">
         <v>303585.14319199999</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="4">
         <v>8047.6522877099997</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="4">
         <v>1191489.0757800001</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>1</v>
       </c>
       <c r="C48" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="4">
         <v>110021.26331900001</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="4">
         <v>3300.54980656</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="4">
         <v>478304.05889300001</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>1</v>
       </c>
       <c r="C49" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="4">
         <v>57449.154046900003</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="4">
         <v>1124.97317651</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="4">
         <v>177487.449012</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>1</v>
       </c>
       <c r="C50" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="4">
         <v>35153.148083499997</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="4">
         <v>1306.2770988699999</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="4">
         <v>179671.77161200001</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>1</v>
       </c>
       <c r="C51" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="4">
         <v>100961.577743</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="4">
         <v>2315.8522057599998</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="4">
         <v>356025.796264</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>1</v>
       </c>
       <c r="C52" t="s">
         <v>191</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="4">
         <v>2021.8225789799999</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="4">
         <v>55.785152793599998</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="4">
         <v>435.19222791599998</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>1</v>
       </c>
       <c r="C53" t="s">
         <v>193</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="4">
         <v>8914.1155679700005</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="4">
         <v>226.128717722</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="4">
         <v>579.36261577799996</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>1</v>
       </c>
       <c r="C54" t="s">
         <v>175</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="4">
         <v>180596.87866700001</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="4">
         <v>6389.2106463</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="4">
         <v>568974.458705</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>1</v>
       </c>
       <c r="C55" t="s">
         <v>174</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="4">
         <v>379369.57355600002</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="4">
         <v>9922.0349669000007</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="4">
         <v>2521497.0942500001</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>1</v>
       </c>
       <c r="C56" t="s">
         <v>233</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="4">
         <v>144811.80506899999</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="4">
         <v>4085.88482256</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="4">
         <v>84162.089525599993</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>1</v>
       </c>
       <c r="C57" t="s">
         <v>236</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="4">
         <v>8699.7341744200003</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="4">
         <v>286.43485550499997</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="4">
         <v>4263.3274094099997</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>1</v>
       </c>
       <c r="C58" t="s">
         <v>234</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="4">
         <v>39860.144992000001</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="4">
         <v>1275.3092453700001</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="4">
         <v>20476.5500937</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>1</v>
       </c>
       <c r="C59" t="s">
         <v>235</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="4">
         <v>42903.139178899997</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="4">
         <v>1363.8077638300001</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="4">
         <v>21972.161937199999</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>1</v>
       </c>
       <c r="C60" t="s">
         <v>237</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="4">
         <v>53348.7867234</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="4">
         <v>1160.33295785</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="4">
         <v>37450.050085299998</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>1</v>
       </c>
       <c r="C61" t="s">
         <v>179</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="4">
         <v>85.076242940200004</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="4">
         <v>3.5183089725799999</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <v>1</v>
       </c>
       <c r="C62" t="s">
         <v>260</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="4">
         <v>2277.3074083800002</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="4">
         <v>13.0290310618</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="4">
         <v>12183.3423124</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>1</v>
       </c>
       <c r="C63" t="s">
         <v>141</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="4">
         <v>47759.957368299998</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="4">
         <v>1526.8684529699999</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="4">
         <v>3353.7009060999999</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>1</v>
       </c>
       <c r="C64" t="s">
         <v>225</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="4">
         <v>6588879.1880400004</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="4">
         <v>84489.662183499997</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="4">
         <v>28836599.662999999</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>1</v>
       </c>
       <c r="C65" t="s">
         <v>285</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="4">
         <v>47097.420551099996</v>
       </c>
-      <c r="E65" s="2">
-        <v>0</v>
-      </c>
-      <c r="F65" s="2">
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
         <v>390092.07056600001</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>1</v>
       </c>
       <c r="C66" t="s">
         <v>218</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="4">
         <v>1616222.9107900001</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="4">
         <v>22621.222947999999</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="4">
         <v>5954199.5885699997</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>1</v>
       </c>
       <c r="C67" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="4">
         <v>1160913.9082599999</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="4">
         <v>12793.484428</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="4">
         <v>700541.166814</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>1</v>
       </c>
       <c r="C68" t="s">
         <v>202</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="4">
         <v>454198.24030300003</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="4">
         <v>5329.4375199699998</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="4">
         <v>159340.65987100001</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>1</v>
       </c>
       <c r="C69" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="4">
         <v>30024.663833099999</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="4">
         <v>241.05873320200001</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="4">
         <v>65207.669397600002</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <v>1</v>
       </c>
       <c r="C70" t="s">
         <v>271</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="4">
         <v>156851.338674</v>
       </c>
-      <c r="E70" s="2">
-        <v>0</v>
-      </c>
-      <c r="F70" s="2">
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
         <v>2481004.7178000002</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>1</v>
       </c>
       <c r="C71" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="4">
         <v>12816.933738899999</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="4">
         <v>176.62217622599999</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="4">
         <v>46158.057205600002</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>1</v>
       </c>
       <c r="C72" t="s">
         <v>111</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="4">
         <v>7646.5647506900004</v>
       </c>
-      <c r="E72" s="2">
-        <v>0</v>
-      </c>
-      <c r="F72" s="2">
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
         <v>82479.589874500001</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>1</v>
       </c>
       <c r="C73" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="4">
         <v>317.040289836</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="4">
         <v>6.3948507913799997</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <v>1</v>
       </c>
       <c r="C74" t="s">
         <v>78</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="4">
         <v>2474.8612561199998</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="4">
         <v>80.640268284399994</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="4">
         <v>4982.0853921099997</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="3">
         <v>1</v>
       </c>
       <c r="C75" t="s">
         <v>112</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="4">
         <v>1184.6592513099999</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="4">
         <v>0.25649238297499999</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="4">
         <v>7123.9100421499998</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <v>1</v>
       </c>
       <c r="C76" t="s">
         <v>276</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="4">
         <v>196199.655134</v>
       </c>
-      <c r="E76" s="2">
-        <v>0</v>
-      </c>
-      <c r="F76" s="2">
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
         <v>1091221.1520199999</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>1</v>
       </c>
       <c r="C77" t="s">
         <v>324</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="4">
         <v>68024.754032900004</v>
       </c>
-      <c r="E77" s="2">
-        <v>0</v>
-      </c>
-      <c r="F77" s="2">
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
         <v>1735353.1348300001</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <v>1</v>
       </c>
       <c r="C78" t="s">
         <v>119</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="4">
         <v>424943.56342999998</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="4">
         <v>11067.909845</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="4">
         <v>1496582.2921500001</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <v>1</v>
       </c>
       <c r="C79" t="s">
         <v>118</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="4">
         <v>975116.68851799995</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="4">
         <v>21413.140631300001</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="4">
         <v>15618407.103800001</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <v>1</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="4">
         <v>2949759.23765</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="4">
         <v>37084.322147400002</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="4">
         <v>2622724.6253</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>1</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="4">
         <v>458501.17257499998</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="4">
         <v>4909.5615661800002</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="4">
         <v>591108.22412599996</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="3">
         <v>1</v>
       </c>
       <c r="C82" t="s">
         <v>208</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="4">
         <v>46031.080189300003</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="4">
         <v>518.06365506199995</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="4">
         <v>41935.501480799998</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <v>1</v>
       </c>
       <c r="C83" t="s">
         <v>238</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="4">
         <v>186894.669716</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="4">
         <v>4079.3138233700001</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="4">
         <v>1037347.53417</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="3">
         <v>1</v>
       </c>
       <c r="C84" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="4">
         <v>1261.09676313</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="4">
         <v>16.972116677700001</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="4">
         <v>6.8200222846300003</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="3">
         <v>1</v>
       </c>
       <c r="C85" t="s">
         <v>204</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="4">
         <v>21909.968842599999</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="4">
         <v>249.98930895300001</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="4">
         <v>17453.545274100001</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="3">
         <v>1</v>
       </c>
       <c r="C86" t="s">
         <v>92</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="4">
         <v>220862.03361400001</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="4">
         <v>3226.7958119199998</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="4">
         <v>12418.1808833</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <v>1</v>
       </c>
       <c r="C87" t="s">
         <v>258</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="4">
         <v>123697.588557</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="4">
         <v>267.90352092000001</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="4">
         <v>335347.10333999997</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <v>1</v>
       </c>
       <c r="C88" t="s">
         <v>221</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="4">
         <v>596.84233433700001</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="4">
         <v>10.9367514594</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="4">
         <v>18.3408515309</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="3">
         <v>1</v>
       </c>
       <c r="C89" t="s">
         <v>212</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="4">
         <v>442280.54612100002</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="4">
         <v>11529.085918000001</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="4">
         <v>18705.071327400001</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="3">
         <v>1</v>
       </c>
       <c r="C90" t="s">
         <v>278</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="4">
         <v>23622.301947200001</v>
       </c>
-      <c r="E90" s="2">
-        <v>0</v>
-      </c>
-      <c r="F90" s="2">
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
         <v>249241.47640700001</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="3">
         <v>1</v>
       </c>
       <c r="C91" t="s">
         <v>263</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="4">
         <v>6398.7033975300001</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="4">
         <v>0.91239818091400005</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="4">
         <v>32181.066670600001</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="3">
         <v>1</v>
       </c>
       <c r="C92" t="s">
         <v>189</v>
       </c>
-      <c r="D92" s="2">
-        <v>0</v>
-      </c>
-      <c r="E92" s="2">
-        <v>0</v>
-      </c>
-      <c r="F92" s="2">
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="3">
         <v>1</v>
       </c>
       <c r="C93" t="s">
         <v>320</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="4">
         <v>18639.214696700001</v>
       </c>
-      <c r="E93" s="2">
-        <v>0</v>
-      </c>
-      <c r="F93" s="2">
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
         <v>686461.208185</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="3">
         <v>1</v>
       </c>
       <c r="C94" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="4">
         <v>25854.627486500001</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="4">
         <v>266.96967024100002</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="4">
         <v>84788.164711000005</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <v>1</v>
       </c>
       <c r="C95" t="s">
         <v>172</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="4">
         <v>6364.8385905599998</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="4">
         <v>201.39070901700001</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="4">
         <v>817.72554426800002</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <v>1</v>
       </c>
       <c r="C96" t="s">
         <v>195</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="4">
         <v>54676.224040699999</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="4">
         <v>777.49070613699996</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="4">
         <v>388254.659407</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="3">
         <v>1</v>
       </c>
       <c r="C97" t="s">
         <v>133</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="4">
         <v>518.03415239000003</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="4">
         <v>0.19041999690299999</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="4">
         <v>5368.7438511600003</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="3">
         <v>1</v>
       </c>
       <c r="C98" t="s">
         <v>188</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="4">
         <v>33314.680353099997</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="4">
         <v>447.47455871099999</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="4">
         <v>197843.35913699999</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="3">
         <v>1</v>
       </c>
       <c r="C99" t="s">
         <v>252</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="4">
         <v>95820.963734399993</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="4">
         <v>996.53714334899996</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="4">
         <v>81796.485646300003</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
+      <c r="A100" s="3">
         <v>99</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="3">
         <v>1</v>
       </c>
       <c r="C100" t="s">
         <v>63</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="4">
         <v>14932.548384199999</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="4">
         <v>524.086267969</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="4">
         <v>438.63513992100002</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="3">
         <v>1</v>
       </c>
       <c r="C101" t="s">
         <v>211</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="4">
         <v>480.81101881400002</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="4">
         <v>7.2547248123600001</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="4">
         <v>2838.4626842799998</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+      <c r="A102" s="3">
         <v>101</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="3">
         <v>1</v>
       </c>
       <c r="C102" t="s">
         <v>186</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="4">
         <v>2627.5404634800002</v>
       </c>
-      <c r="E102" s="2">
-        <v>0</v>
-      </c>
-      <c r="F102" s="2">
+      <c r="E102" s="4">
+        <v>0</v>
+      </c>
+      <c r="F102" s="4">
         <v>52612.959657500003</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
+      <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="3">
         <v>1</v>
       </c>
       <c r="C103" t="s">
         <v>95</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="4">
         <v>155127.12993200001</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="4">
         <v>2396.73226342</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="4">
         <v>451135.07857499999</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
+      <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="3">
         <v>1</v>
       </c>
       <c r="C104" t="s">
         <v>223</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="4">
         <v>13.273540135599999</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="4">
         <v>0.24606068515000001</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="4">
         <v>5.6722232893599997E-2</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+      <c r="A105" s="3">
         <v>104</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="3">
         <v>1</v>
       </c>
       <c r="C105" t="s">
         <v>220</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="4">
         <v>7777.8860345200001</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="4">
         <v>205.16772311700001</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="4">
         <v>45.902971797799999</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
+      <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="3">
         <v>1</v>
       </c>
       <c r="C106" t="s">
         <v>91</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="4">
         <v>309869.34237999999</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="4">
         <v>3976.3898156300002</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="4">
         <v>1123166.37797</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
+      <c r="A107" s="3">
         <v>106</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="3">
         <v>1</v>
       </c>
       <c r="C107" t="s">
         <v>297</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="4">
         <v>496.34131995000001</v>
       </c>
-      <c r="E107" s="2">
-        <v>0</v>
-      </c>
-      <c r="F107" s="2">
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+      <c r="F107" s="4">
         <v>80749.652567900004</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
+      <c r="A108" s="3">
         <v>107</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="3">
         <v>1</v>
       </c>
       <c r="C108" t="s">
         <v>93</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="4">
         <v>41508.311653600002</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="4">
         <v>580.99062126900003</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="4">
         <v>219155.83869599999</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
+      <c r="A109" s="3">
         <v>108</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="3">
         <v>1</v>
       </c>
       <c r="C109" t="s">
         <v>267</v>
       </c>
-      <c r="D109" s="2">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2">
-        <v>0</v>
-      </c>
-      <c r="F109" s="2">
+      <c r="D109" s="4">
+        <v>0</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0</v>
+      </c>
+      <c r="F109" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
+      <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="3">
         <v>1</v>
       </c>
       <c r="C110" t="s">
         <v>185</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="4">
         <v>1619331.2622799999</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="4">
         <v>22628.4776728</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="4">
         <v>6009651.0109099997</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
+      <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="3">
         <v>1</v>
       </c>
       <c r="C111" t="s">
         <v>103</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="4">
         <v>39137.951312999998</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="4">
         <v>455.36979426200003</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="4">
         <v>181603.825858</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
+      <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="3">
         <v>1</v>
       </c>
       <c r="C112" t="s">
         <v>287</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="4">
         <v>697.85787443900006</v>
       </c>
-      <c r="E112" s="2">
-        <v>0</v>
-      </c>
-      <c r="F112" s="2">
+      <c r="E112" s="4">
+        <v>0</v>
+      </c>
+      <c r="F112" s="4">
         <v>12111.5701936</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
+      <c r="A113" s="3">
         <v>112</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="3">
         <v>1</v>
       </c>
       <c r="C113" t="s">
         <v>105</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="4">
         <v>16904.5684707</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="4">
         <v>197.754905073</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="4">
         <v>108285.2582</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
+      <c r="A114" s="3">
         <v>113</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="3">
         <v>1</v>
       </c>
       <c r="C114" t="s">
         <v>327</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="4">
         <v>10755.83755</v>
       </c>
-      <c r="E114" s="2">
-        <v>0</v>
-      </c>
-      <c r="F114" s="2">
+      <c r="E114" s="4">
+        <v>0</v>
+      </c>
+      <c r="F114" s="4">
         <v>1912936.5309599999</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="4">
+      <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="3">
         <v>1</v>
       </c>
       <c r="C115" t="s">
         <v>139</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="4">
         <v>5903.0728716499998</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="4">
         <v>138.37162476399999</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115" s="4">
         <v>1449028.0299</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
+      <c r="A116" s="3">
         <v>115</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="3">
         <v>1</v>
       </c>
       <c r="C116" t="s">
         <v>290</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="4">
         <v>2.39754365751</v>
       </c>
-      <c r="E116" s="2">
-        <v>0</v>
-      </c>
-      <c r="F116" s="2">
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+      <c r="F116" s="4">
         <v>4403269.0452699997</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
+      <c r="A117" s="3">
         <v>116</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="3">
         <v>1</v>
       </c>
       <c r="C117" t="s">
         <v>246</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="4">
         <v>9776.5558892000008</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="4">
         <v>332.85468558899998</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117" s="4">
         <v>38005.163661799997</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
+      <c r="A118" s="3">
         <v>117</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="3">
         <v>1</v>
       </c>
       <c r="C118" t="s">
         <v>145</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="4">
         <v>9641.6174283300006</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="4">
         <v>357.17661166200003</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="4">
         <v>200.603019004</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
+      <c r="A119" s="3">
         <v>118</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="3">
         <v>1</v>
       </c>
       <c r="C119" t="s">
         <v>240</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="4">
         <v>6120.1243665800002</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="4">
         <v>24.047567267400002</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="4">
         <v>255778.397153</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
+      <c r="A120" s="3">
         <v>119</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="3">
         <v>1</v>
       </c>
       <c r="C120" t="s">
         <v>308</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="4">
         <v>570.18698499699997</v>
       </c>
-      <c r="E120" s="2">
-        <v>0</v>
-      </c>
-      <c r="F120" s="2">
+      <c r="E120" s="4">
+        <v>0</v>
+      </c>
+      <c r="F120" s="4">
         <v>2155756.45836</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="4">
+      <c r="A121" s="3">
         <v>120</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="3">
         <v>1</v>
       </c>
       <c r="C121" t="s">
         <v>134</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="4">
         <v>2892.3283243199999</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="4">
         <v>0.80178703764199999</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="4">
         <v>934864.24631800002</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
+      <c r="A122" s="3">
         <v>121</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="3">
         <v>1</v>
       </c>
       <c r="C122" t="s">
         <v>309</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="4">
         <v>1588.47887393</v>
       </c>
-      <c r="E122" s="2">
-        <v>0</v>
-      </c>
-      <c r="F122" s="2">
+      <c r="E122" s="4">
+        <v>0</v>
+      </c>
+      <c r="F122" s="4">
         <v>15258.921703800001</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
+      <c r="A123" s="3">
         <v>122</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="3">
         <v>1</v>
       </c>
       <c r="C123" t="s">
         <v>53</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="4">
         <v>9822.5763700999996</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="4">
         <v>10.8776687136</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="4">
         <v>734823.75524900004</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
+      <c r="A124" s="3">
         <v>123</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="3">
         <v>1</v>
       </c>
       <c r="C124" t="s">
         <v>305</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="4">
         <v>1768.87948422</v>
       </c>
-      <c r="E124" s="2">
-        <v>0</v>
-      </c>
-      <c r="F124" s="2">
+      <c r="E124" s="4">
+        <v>0</v>
+      </c>
+      <c r="F124" s="4">
         <v>57177.589740700001</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
+      <c r="A125" s="3">
         <v>124</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="3">
         <v>1</v>
       </c>
       <c r="C125" t="s">
         <v>302</v>
       </c>
-      <c r="D125" s="2">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2">
-        <v>0</v>
-      </c>
-      <c r="F125" s="2">
+      <c r="D125" s="4">
+        <v>0</v>
+      </c>
+      <c r="E125" s="4">
+        <v>0</v>
+      </c>
+      <c r="F125" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
+      <c r="A126" s="3">
         <v>125</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="3">
         <v>1</v>
       </c>
       <c r="C126" t="s">
         <v>130</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="4">
         <v>39385.011458300003</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126" s="4">
         <v>21.3265078823</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126" s="4">
         <v>3154513.1329899998</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
+      <c r="A127" s="3">
         <v>126</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="3">
         <v>1</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="4">
         <v>56799.922106799997</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="4">
         <v>686.29214858399996</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127" s="4">
         <v>24927.580506599999</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
+      <c r="A128" s="3">
         <v>127</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="3">
         <v>1</v>
       </c>
       <c r="C128" t="s">
         <v>136</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="4">
         <v>130558.486856</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128" s="4">
         <v>1226.0690356800001</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128" s="4">
         <v>12411151.8204</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
+      <c r="A129" s="3">
         <v>128</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="3">
         <v>1</v>
       </c>
       <c r="C129" t="s">
         <v>42</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="4">
         <v>69533.622467599998</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="4">
         <v>693.92363457800002</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129" s="4">
         <v>28752.646183500001</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
+      <c r="A130" s="3">
         <v>129</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="3">
         <v>1</v>
       </c>
       <c r="C130" t="s">
         <v>166</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="4">
         <v>412503.45444</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="4">
         <v>13108.120278599999</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130" s="4">
         <v>26637.688923400001</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
+      <c r="A131" s="3">
         <v>130</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="3">
         <v>1</v>
       </c>
       <c r="C131" t="s">
         <v>55</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="4">
         <v>18218.0170908</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="4">
         <v>384.97145030799999</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131" s="4">
         <v>2976914.1442200001</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
+      <c r="A132" s="3">
         <v>131</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="3">
         <v>1</v>
       </c>
       <c r="C132" t="s">
         <v>57</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="4">
         <v>13521.723518299999</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="4">
         <v>315.378445763</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F132" s="4">
         <v>2731580.2086399999</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
+      <c r="A133" s="3">
         <v>132</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="3">
         <v>1</v>
       </c>
       <c r="C133" t="s">
         <v>58</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="4">
         <v>191.510162385</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="4">
         <v>5.0871262072599999</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133" s="4">
         <v>207308.75623</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="4">
+      <c r="A134" s="3">
         <v>133</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="3">
         <v>1</v>
       </c>
       <c r="C134" t="s">
         <v>228</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="4">
         <v>8953.8136729599992</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="4">
         <v>159.16499282199999</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134" s="4">
         <v>3591.7607969699998</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
+      <c r="A135" s="3">
         <v>134</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="3">
         <v>1</v>
       </c>
       <c r="C135" t="s">
         <v>226</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="4">
         <v>542776.77780799998</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="4">
         <v>14096.070802300001</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F135" s="4">
         <v>8955208.6351699997</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
+      <c r="A136" s="3">
         <v>135</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="3">
         <v>1</v>
       </c>
       <c r="C136" t="s">
         <v>0</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="4">
         <v>8200.8511406800008</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136" s="4">
         <v>145.341814505</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136" s="4">
         <v>3571.7561097100001</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
+      <c r="A137" s="3">
         <v>136</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="3">
         <v>1</v>
       </c>
       <c r="C137" t="s">
         <v>156</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="4">
         <v>21240.905580999999</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="4">
         <v>444.74711037999998</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137" s="4">
         <v>1079.3666101700001</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="4">
+      <c r="A138" s="3">
         <v>137</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="3">
         <v>1</v>
       </c>
       <c r="C138" t="s">
         <v>266</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="4">
         <v>524.00322866700003</v>
       </c>
-      <c r="E138" s="2">
-        <v>0</v>
-      </c>
-      <c r="F138" s="2">
+      <c r="E138" s="4">
+        <v>0</v>
+      </c>
+      <c r="F138" s="4">
         <v>251565.84078200001</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
+      <c r="A139" s="3">
         <v>138</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="3">
         <v>1</v>
       </c>
       <c r="C139" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="4">
         <v>51764.687521</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="4">
         <v>1857.13182147</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139" s="4">
         <v>19859.586840600001</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="4">
+      <c r="A140" s="3">
         <v>139</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="3">
         <v>1</v>
       </c>
       <c r="C140" t="s">
         <v>286</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="4">
         <v>35662.7719641</v>
       </c>
-      <c r="E140" s="2">
-        <v>0</v>
-      </c>
-      <c r="F140" s="2">
+      <c r="E140" s="4">
+        <v>0</v>
+      </c>
+      <c r="F140" s="4">
         <v>956050.36865900003</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="4">
+      <c r="A141" s="3">
         <v>140</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="3">
         <v>1</v>
       </c>
       <c r="C141" t="s">
         <v>35</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="4">
         <v>26113.3914076</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="4">
         <v>462.22549442299999</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F141" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="4">
+      <c r="A142" s="3">
         <v>141</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="3">
         <v>1</v>
       </c>
       <c r="C142" t="s">
         <v>244</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="4">
         <v>3246.6209968500002</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="4">
         <v>67.3520515668</v>
       </c>
-      <c r="F142" s="2">
+      <c r="F142" s="4">
         <v>2303.1107170800001</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="4">
+      <c r="A143" s="3">
         <v>142</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="3">
         <v>1</v>
       </c>
       <c r="C143" t="s">
         <v>243</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="4">
         <v>24477.930004999998</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="4">
         <v>117.549379488</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F143" s="4">
         <v>505490.78293599997</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="4">
+      <c r="A144" s="3">
         <v>143</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="3">
         <v>1</v>
       </c>
       <c r="C144" t="s">
         <v>81</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="4">
         <v>4018019.26449</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144" s="4">
         <v>60844.5284933</v>
       </c>
-      <c r="F144" s="2">
+      <c r="F144" s="4">
         <v>10384226.3222</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="4">
+      <c r="A145" s="3">
         <v>144</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="3">
         <v>1</v>
       </c>
       <c r="C145" t="s">
         <v>181</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="4">
         <v>370189.40234899998</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="4">
         <v>6267.4940566699997</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145" s="4">
         <v>882962.59516599996</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="4">
+      <c r="A146" s="3">
         <v>145</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="3">
         <v>1</v>
       </c>
       <c r="C146" t="s">
         <v>231</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="4">
         <v>5828.2926645500002</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146" s="4">
         <v>205.06308477600001</v>
       </c>
-      <c r="F146" s="2">
+      <c r="F146" s="4">
         <v>5064.3090882899996</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="4">
+      <c r="A147" s="3">
         <v>146</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="3">
         <v>1</v>
       </c>
       <c r="C147" t="s">
         <v>127</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="4">
         <v>3469.1279406100002</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="4">
         <v>87.962703111600007</v>
       </c>
-      <c r="F147" s="2">
+      <c r="F147" s="4">
         <v>26292.614486900002</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="4">
+      <c r="A148" s="3">
         <v>147</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="3">
         <v>1</v>
       </c>
       <c r="C148" t="s">
         <v>3</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="4">
         <v>30791.725577699999</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="4">
         <v>435.83488859300002</v>
       </c>
-      <c r="F148" s="2">
+      <c r="F148" s="4">
         <v>1569.28882946</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="4">
+      <c r="A149" s="3">
         <v>148</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="3">
         <v>1</v>
       </c>
       <c r="C149" t="s">
         <v>115</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="4">
         <v>26958.9516215</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="4">
         <v>29.770542874099998</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149" s="4">
         <v>15283763.6318</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
+      <c r="A150" s="3">
         <v>149</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="3">
         <v>1</v>
       </c>
       <c r="C150" t="s">
         <v>46</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="4">
         <v>27240.383933900001</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="4">
         <v>11.762396215500001</v>
       </c>
-      <c r="F150" s="2">
+      <c r="F150" s="4">
         <v>1000288.06829</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="4">
+      <c r="A151" s="3">
         <v>150</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="3">
         <v>1</v>
       </c>
       <c r="C151" t="s">
         <v>47</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="4">
         <v>127494.88746699999</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="4">
         <v>4.4266681950200004</v>
       </c>
-      <c r="F151" s="2">
+      <c r="F151" s="4">
         <v>4782662.5438099997</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="4">
+      <c r="A152" s="3">
         <v>151</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="3">
         <v>1</v>
       </c>
       <c r="C152" t="s">
         <v>163</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="4">
         <v>1370184.8285600001</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="4">
         <v>50810.910557000003</v>
       </c>
-      <c r="F152" s="2">
+      <c r="F152" s="4">
         <v>635710.97274799994</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="4">
+      <c r="A153" s="3">
         <v>152</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="3">
         <v>1</v>
       </c>
       <c r="C153" t="s">
         <v>165</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="4">
         <v>238376.01220600001</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="4">
         <v>10023.6918381</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153" s="4">
         <v>129437.64702</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="4">
+      <c r="A154" s="3">
         <v>153</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="3">
         <v>1</v>
       </c>
       <c r="C154" t="s">
         <v>151</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="4">
         <v>4742.1152904999999</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="4">
         <v>127.692151882</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154" s="4">
         <v>869.080481061</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="4">
+      <c r="A155" s="3">
         <v>154</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="3">
         <v>1</v>
       </c>
       <c r="C155" t="s">
         <v>323</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="4">
         <v>102.852550483</v>
       </c>
-      <c r="E155" s="2">
-        <v>0</v>
-      </c>
-      <c r="F155" s="2">
+      <c r="E155" s="4">
+        <v>0</v>
+      </c>
+      <c r="F155" s="4">
         <v>22437.9612892</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="4">
+      <c r="A156" s="3">
         <v>155</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="3">
         <v>1</v>
       </c>
       <c r="C156" t="s">
         <v>70</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="4">
         <v>10310.690035699999</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="4">
         <v>341.04431326700001</v>
       </c>
-      <c r="F156" s="2">
+      <c r="F156" s="4">
         <v>770.97487800199997</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="4">
+      <c r="A157" s="3">
         <v>156</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="3">
         <v>1</v>
       </c>
       <c r="C157" t="s">
         <v>36</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="4">
         <v>2283.3783681700002</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="4">
         <v>41.047632189799998</v>
       </c>
-      <c r="F157" s="2">
+      <c r="F157" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="4">
+      <c r="A158" s="3">
         <v>157</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="3">
         <v>1</v>
       </c>
       <c r="C158" t="s">
         <v>294</v>
       </c>
-      <c r="D158" s="2">
-        <v>0</v>
-      </c>
-      <c r="E158" s="2">
-        <v>0</v>
-      </c>
-      <c r="F158" s="2">
+      <c r="D158" s="4">
+        <v>0</v>
+      </c>
+      <c r="E158" s="4">
+        <v>0</v>
+      </c>
+      <c r="F158" s="4">
         <v>8113686.5111800004</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="4">
+      <c r="A159" s="3">
         <v>158</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="3">
         <v>1</v>
       </c>
       <c r="C159" t="s">
         <v>24</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="4">
         <v>157017.466827</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="4">
         <v>4.0284102378100002</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159" s="4">
         <v>2718087.5842499998</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="4">
+      <c r="A160" s="3">
         <v>159</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="3">
         <v>1</v>
       </c>
       <c r="C160" t="s">
         <v>292</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="4">
         <v>9.6255485466199993</v>
       </c>
-      <c r="E160" s="2">
-        <v>0</v>
-      </c>
-      <c r="F160" s="2">
+      <c r="E160" s="4">
+        <v>0</v>
+      </c>
+      <c r="F160" s="4">
         <v>146.42413086799999</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="4">
+      <c r="A161" s="3">
         <v>160</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="3">
         <v>1</v>
       </c>
       <c r="C161" t="s">
         <v>159</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="4">
         <v>98610.569772200004</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="4">
         <v>2021.79755368</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F161" s="4">
         <v>7325.5150358499995</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="4">
+      <c r="A162" s="3">
         <v>161</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="3">
         <v>1</v>
       </c>
       <c r="C162" t="s">
         <v>142</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="4">
         <v>4959.75579853</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162" s="4">
         <v>160.52075990099999</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F162" s="4">
         <v>709.77934934300004</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="4">
+      <c r="A163" s="3">
         <v>162</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="3">
         <v>1</v>
       </c>
       <c r="C163" t="s">
         <v>65</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="4">
         <v>22324.745978800001</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="4">
         <v>838.73599325099997</v>
       </c>
-      <c r="F163" s="2">
+      <c r="F163" s="4">
         <v>242.00776273599999</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="4">
+      <c r="A164" s="3">
         <v>163</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="3">
         <v>1</v>
       </c>
       <c r="C164" t="s">
         <v>68</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164" s="4">
         <v>1513.2181371300001</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="4">
         <v>62.536509790099998</v>
       </c>
-      <c r="F164" s="2">
+      <c r="F164" s="4">
         <v>38.151275364200004</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="4">
+      <c r="A165" s="3">
         <v>164</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="3">
         <v>1</v>
       </c>
       <c r="C165" t="s">
         <v>66</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165" s="4">
         <v>8903.0958899899997</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="4">
         <v>301.45556965899999</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165" s="4">
         <v>194.48112329400001</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="4">
+      <c r="A166" s="3">
         <v>165</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="3">
         <v>1</v>
       </c>
       <c r="C166" t="s">
         <v>67</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166" s="4">
         <v>6384.2384152499999</v>
       </c>
-      <c r="E166" s="2">
+      <c r="E166" s="4">
         <v>277.83059785099999</v>
       </c>
-      <c r="F166" s="2">
+      <c r="F166" s="4">
         <v>169.55583971600001</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="4">
+      <c r="A167" s="3">
         <v>166</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" s="3">
         <v>1</v>
       </c>
       <c r="C167" t="s">
         <v>69</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="4">
         <v>5524.19353641</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167" s="4">
         <v>196.91331595099999</v>
       </c>
-      <c r="F167" s="2">
+      <c r="F167" s="4">
         <v>123.754280178</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="4">
+      <c r="A168" s="3">
         <v>167</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="3">
         <v>1</v>
       </c>
       <c r="C168" t="s">
         <v>300</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168" s="4">
         <v>296388.20036399999</v>
       </c>
-      <c r="E168" s="2">
-        <v>0</v>
-      </c>
-      <c r="F168" s="2">
+      <c r="E168" s="4">
+        <v>0</v>
+      </c>
+      <c r="F168" s="4">
         <v>2591898.5898600002</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="4">
+      <c r="A169" s="3">
         <v>168</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="3">
         <v>1</v>
       </c>
       <c r="C169" t="s">
         <v>301</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169" s="4">
         <v>204043.94253100001</v>
       </c>
-      <c r="E169" s="2">
-        <v>0</v>
-      </c>
-      <c r="F169" s="2">
+      <c r="E169" s="4">
+        <v>0</v>
+      </c>
+      <c r="F169" s="4">
         <v>1851179.7090799999</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="4">
+      <c r="A170" s="3">
         <v>169</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="3">
         <v>1</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170" s="4">
         <v>1469864.5043599999</v>
       </c>
-      <c r="E170" s="2">
+      <c r="E170" s="4">
         <v>20136.641518600001</v>
       </c>
-      <c r="F170" s="2">
+      <c r="F170" s="4">
         <v>64595.163507600002</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="4">
+      <c r="A171" s="3">
         <v>170</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="3">
         <v>1</v>
       </c>
       <c r="C171" t="s">
         <v>272</v>
       </c>
-      <c r="D171" s="2">
-        <v>0</v>
-      </c>
-      <c r="E171" s="2">
-        <v>0</v>
-      </c>
-      <c r="F171" s="2">
+      <c r="D171" s="4">
+        <v>0</v>
+      </c>
+      <c r="E171" s="4">
+        <v>0</v>
+      </c>
+      <c r="F171" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="4">
+      <c r="A172" s="3">
         <v>171</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="3">
         <v>1</v>
       </c>
       <c r="C172" t="s">
         <v>311</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D172" s="4">
         <v>1457.0786867899999</v>
       </c>
-      <c r="E172" s="2">
-        <v>0</v>
-      </c>
-      <c r="F172" s="2">
+      <c r="E172" s="4">
+        <v>0</v>
+      </c>
+      <c r="F172" s="4">
         <v>18377.519857399999</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="4">
+      <c r="A173" s="3">
         <v>172</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173" s="3">
         <v>1</v>
       </c>
       <c r="C173" t="s">
         <v>277</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173" s="4">
         <v>172577.353187</v>
       </c>
-      <c r="E173" s="2">
-        <v>0</v>
-      </c>
-      <c r="F173" s="2">
+      <c r="E173" s="4">
+        <v>0</v>
+      </c>
+      <c r="F173" s="4">
         <v>852784.24338100001</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="4">
+      <c r="A174" s="3">
         <v>173</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="3">
         <v>1</v>
       </c>
       <c r="C174" t="s">
         <v>22</v>
       </c>
-      <c r="D174" s="2">
+      <c r="D174" s="4">
         <v>132939.57167599999</v>
       </c>
-      <c r="E174" s="2">
+      <c r="E174" s="4">
         <v>2146.1401597399999</v>
       </c>
-      <c r="F174" s="2">
+      <c r="F174" s="4">
         <v>23877.313263399999</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="4">
+      <c r="A175" s="3">
         <v>174</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175" s="3">
         <v>1</v>
       </c>
       <c r="C175" t="s">
         <v>296</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175" s="4">
         <v>823.00630871099997</v>
       </c>
-      <c r="E175" s="2">
-        <v>0</v>
-      </c>
-      <c r="F175" s="2">
+      <c r="E175" s="4">
+        <v>0</v>
+      </c>
+      <c r="F175" s="4">
         <v>131887.99266300001</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="4">
+      <c r="A176" s="3">
         <v>175</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="3">
         <v>1</v>
       </c>
       <c r="C176" t="s">
         <v>147</v>
       </c>
-      <c r="D176" s="2">
+      <c r="D176" s="4">
         <v>1672.91303283</v>
       </c>
-      <c r="E176" s="2">
+      <c r="E176" s="4">
         <v>46.615480651600002</v>
       </c>
-      <c r="F176" s="2">
+      <c r="F176" s="4">
         <v>136.24245698999999</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="4">
+      <c r="A177" s="3">
         <v>176</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="3">
         <v>1</v>
       </c>
       <c r="C177" t="s">
         <v>34</v>
       </c>
-      <c r="D177" s="2">
+      <c r="D177" s="4">
         <v>10702.874832</v>
       </c>
-      <c r="E177" s="2">
+      <c r="E177" s="4">
         <v>197.28898791699999</v>
       </c>
-      <c r="F177" s="2">
+      <c r="F177" s="4">
         <v>2077.1244185300002</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="4">
+      <c r="A178" s="3">
         <v>177</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="3">
         <v>1</v>
       </c>
       <c r="C178" t="s">
         <v>187</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178" s="4">
         <v>20.133221093300001</v>
       </c>
-      <c r="E178" s="2">
+      <c r="E178" s="4">
         <v>0.35456875315899999</v>
       </c>
-      <c r="F178" s="2">
+      <c r="F178" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="4">
+      <c r="A179" s="3">
         <v>178</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="3">
         <v>1</v>
       </c>
       <c r="C179" t="s">
         <v>29</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179" s="4">
         <v>287659.32929099997</v>
       </c>
-      <c r="E179" s="2">
+      <c r="E179" s="4">
         <v>5143.4149883500004</v>
       </c>
-      <c r="F179" s="2">
+      <c r="F179" s="4">
         <v>48901.770484300003</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="4">
+      <c r="A180" s="3">
         <v>179</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="3">
         <v>1</v>
       </c>
       <c r="C180" t="s">
         <v>30</v>
       </c>
-      <c r="D180" s="2">
+      <c r="D180" s="4">
         <v>105929.31342400001</v>
       </c>
-      <c r="E180" s="2">
+      <c r="E180" s="4">
         <v>1939.8166778299999</v>
       </c>
-      <c r="F180" s="2">
+      <c r="F180" s="4">
         <v>12824.1934762</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="4">
+      <c r="A181" s="3">
         <v>180</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="3">
         <v>1</v>
       </c>
       <c r="C181" t="s">
         <v>32</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D181" s="4">
         <v>51957.7302872</v>
       </c>
-      <c r="E181" s="2">
+      <c r="E181" s="4">
         <v>918.65042844200002</v>
       </c>
-      <c r="F181" s="2">
+      <c r="F181" s="4">
         <v>15471.862870999999</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="4">
+      <c r="A182" s="3">
         <v>181</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" s="3">
         <v>1</v>
       </c>
       <c r="C182" t="s">
         <v>33</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182" s="4">
         <v>17462.001924200002</v>
       </c>
-      <c r="E182" s="2">
+      <c r="E182" s="4">
         <v>280.77375965800002</v>
       </c>
-      <c r="F182" s="2">
+      <c r="F182" s="4">
         <v>6767.2052633900003</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="4">
+      <c r="A183" s="3">
         <v>182</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" s="3">
         <v>1</v>
       </c>
       <c r="C183" t="s">
         <v>31</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183" s="4">
         <v>30130.9097182</v>
       </c>
-      <c r="E183" s="2">
+      <c r="E183" s="4">
         <v>536.76905159499995</v>
       </c>
-      <c r="F183" s="2">
+      <c r="F183" s="4">
         <v>13778.352880300001</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="4">
+      <c r="A184" s="3">
         <v>183</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" s="3">
         <v>1</v>
       </c>
       <c r="C184" t="s">
         <v>19</v>
       </c>
-      <c r="D184" s="2">
+      <c r="D184" s="4">
         <v>57276.535598100003</v>
       </c>
-      <c r="E184" s="2">
+      <c r="E184" s="4">
         <v>686.61487466599999</v>
       </c>
-      <c r="F184" s="2">
+      <c r="F184" s="4">
         <v>457.64145434699998</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="4">
+      <c r="A185" s="3">
         <v>184</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185" s="3">
         <v>1</v>
       </c>
       <c r="C185" t="s">
         <v>10</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185" s="4">
         <v>575559.29357099999</v>
       </c>
-      <c r="E185" s="2">
+      <c r="E185" s="4">
         <v>7301.7115914200003</v>
       </c>
-      <c r="F185" s="2">
+      <c r="F185" s="4">
         <v>97965.740933299996</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="4">
+      <c r="A186" s="3">
         <v>185</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" s="3">
         <v>1</v>
       </c>
       <c r="C186" t="s">
         <v>13</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186" s="4">
         <v>221993.704474</v>
       </c>
-      <c r="E186" s="2">
+      <c r="E186" s="4">
         <v>2861.44482801</v>
       </c>
-      <c r="F186" s="2">
+      <c r="F186" s="4">
         <v>17952.873648199999</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="4">
+      <c r="A187" s="3">
         <v>186</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187" s="3">
         <v>1</v>
       </c>
       <c r="C187" t="s">
         <v>256</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187" s="4">
         <v>720004.52714999998</v>
       </c>
-      <c r="E187" s="2">
+      <c r="E187" s="4">
         <v>407.34217866</v>
       </c>
-      <c r="F187" s="2">
+      <c r="F187" s="4">
         <v>5311698.1551000001</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="4">
+      <c r="A188" s="3">
         <v>187</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" s="3">
         <v>1</v>
       </c>
       <c r="C188" t="s">
         <v>155</v>
       </c>
-      <c r="D188" s="2">
+      <c r="D188" s="4">
         <v>2406.2644456899998</v>
       </c>
-      <c r="E188" s="2">
+      <c r="E188" s="4">
         <v>74.744124226500006</v>
       </c>
-      <c r="F188" s="2">
+      <c r="F188" s="4">
         <v>112.153483912</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="4">
+      <c r="A189" s="3">
         <v>188</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189" s="3">
         <v>1</v>
       </c>
       <c r="C189" t="s">
         <v>268</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189" s="4">
         <v>208980.73533200001</v>
       </c>
-      <c r="E189" s="2">
-        <v>0</v>
-      </c>
-      <c r="F189" s="2">
+      <c r="E189" s="4">
+        <v>0</v>
+      </c>
+      <c r="F189" s="4">
         <v>4841208.1883199997</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="4">
+      <c r="A190" s="3">
         <v>189</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190" s="3">
         <v>1</v>
       </c>
       <c r="C190" t="s">
         <v>254</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190" s="4">
         <v>1689.1605582100001</v>
       </c>
-      <c r="E190" s="2">
+      <c r="E190" s="4">
         <v>37.343795429899998</v>
       </c>
-      <c r="F190" s="2">
+      <c r="F190" s="4">
         <v>517.08627521999995</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="4">
+      <c r="A191" s="3">
         <v>190</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191" s="3">
         <v>1</v>
       </c>
       <c r="C191" t="s">
         <v>87</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D191" s="4">
         <v>552537.48858200002</v>
       </c>
-      <c r="E191" s="2">
+      <c r="E191" s="4">
         <v>9646.7198265499992</v>
       </c>
-      <c r="F191" s="2">
+      <c r="F191" s="4">
         <v>138236.57570300001</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="4">
+      <c r="A192" s="3">
         <v>191</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" s="3">
         <v>1</v>
       </c>
       <c r="C192" t="s">
         <v>86</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192" s="4">
         <v>81583.860301499997</v>
       </c>
-      <c r="E192" s="2">
+      <c r="E192" s="4">
         <v>1302.51917114</v>
       </c>
-      <c r="F192" s="2">
+      <c r="F192" s="4">
         <v>50879.616740199999</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="4">
+      <c r="A193" s="3">
         <v>192</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193" s="3">
         <v>1</v>
       </c>
       <c r="C193" t="s">
         <v>222</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193" s="4">
         <v>142.84665781000001</v>
       </c>
-      <c r="E193" s="2">
+      <c r="E193" s="4">
         <v>2.6403661723199998</v>
       </c>
-      <c r="F193" s="2">
+      <c r="F193" s="4">
         <v>1.60711349367</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="4">
+      <c r="A194" s="3">
         <v>193</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194" s="3">
         <v>1</v>
       </c>
       <c r="C194" t="s">
         <v>219</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194" s="4">
         <v>83764.531979599997</v>
       </c>
-      <c r="E194" s="2">
+      <c r="E194" s="4">
         <v>2202.6521684300001</v>
       </c>
-      <c r="F194" s="2">
+      <c r="F194" s="4">
         <v>1300.59015479</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="4">
+      <c r="A195" s="3">
         <v>194</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195" s="3">
         <v>1</v>
       </c>
       <c r="C195" t="s">
         <v>158</v>
       </c>
-      <c r="D195" s="2">
+      <c r="D195" s="4">
         <v>5119.6773772500001</v>
       </c>
-      <c r="E195" s="2">
+      <c r="E195" s="4">
         <v>173.41621648899999</v>
       </c>
-      <c r="F195" s="2">
+      <c r="F195" s="4">
         <v>200.42020759299999</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="4">
+      <c r="A196" s="3">
         <v>195</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196" s="3">
         <v>1</v>
       </c>
       <c r="C196" t="s">
         <v>253</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D196" s="4">
         <v>4379.8575549500001</v>
       </c>
-      <c r="E196" s="2">
+      <c r="E196" s="4">
         <v>64.388826262099997</v>
       </c>
-      <c r="F196" s="2">
+      <c r="F196" s="4">
         <v>6296.8718286900003</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="4">
+      <c r="A197" s="3">
         <v>196</v>
       </c>
-      <c r="B197" s="4">
+      <c r="B197" s="3">
         <v>1</v>
       </c>
       <c r="C197" t="s">
         <v>196</v>
       </c>
-      <c r="D197" s="2">
+      <c r="D197" s="4">
         <v>433806.26766900002</v>
       </c>
-      <c r="E197" s="2">
+      <c r="E197" s="4">
         <v>235.097688027</v>
       </c>
-      <c r="F197" s="2">
+      <c r="F197" s="4">
         <v>3773242.3337699999</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="4">
+      <c r="A198" s="3">
         <v>197</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198" s="3">
         <v>1</v>
       </c>
       <c r="C198" t="s">
         <v>215</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D198" s="4">
         <v>4126.9748449099998</v>
       </c>
-      <c r="E198" s="2">
+      <c r="E198" s="4">
         <v>75.751480498500001</v>
       </c>
-      <c r="F198" s="2">
+      <c r="F198" s="4">
         <v>5451.2901334799999</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="4">
+      <c r="A199" s="3">
         <v>198</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199" s="3">
         <v>1</v>
       </c>
       <c r="C199" t="s">
         <v>143</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199" s="4">
         <v>6085.7298441299999</v>
       </c>
-      <c r="E199" s="2">
+      <c r="E199" s="4">
         <v>161.592319788</v>
       </c>
-      <c r="F199" s="2">
+      <c r="F199" s="4">
         <v>602.70022818100006</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="4">
+      <c r="A200" s="3">
         <v>199</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200" s="3">
         <v>1</v>
       </c>
       <c r="C200" t="s">
         <v>304</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D200" s="4">
         <v>92344.257833299998</v>
       </c>
-      <c r="E200" s="2">
-        <v>0</v>
-      </c>
-      <c r="F200" s="2">
+      <c r="E200" s="4">
+        <v>0</v>
+      </c>
+      <c r="F200" s="4">
         <v>945326.76706400001</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="4">
+      <c r="A201" s="3">
         <v>200</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201" s="3">
         <v>1</v>
       </c>
       <c r="C201" t="s">
         <v>21</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D201" s="4">
         <v>335594.51910400001</v>
       </c>
-      <c r="E201" s="2">
+      <c r="E201" s="4">
         <v>2198.0652371699998</v>
       </c>
-      <c r="F201" s="2">
+      <c r="F201" s="4">
         <v>16465406.3796</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="4">
+      <c r="A202" s="3">
         <v>201</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202" s="3">
         <v>1</v>
       </c>
       <c r="C202" t="s">
         <v>38</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202" s="4">
         <v>2008137.04128</v>
       </c>
-      <c r="E202" s="2">
+      <c r="E202" s="4">
         <v>22445.3783893</v>
       </c>
-      <c r="F202" s="2">
+      <c r="F202" s="4">
         <v>413030.18511000002</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="4">
+      <c r="A203" s="3">
         <v>202</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203" s="3">
         <v>1</v>
       </c>
       <c r="C203" t="s">
         <v>40</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203" s="4">
         <v>276304.20568299998</v>
       </c>
-      <c r="E203" s="2">
+      <c r="E203" s="4">
         <v>3120.7780566599999</v>
       </c>
-      <c r="F203" s="2">
+      <c r="F203" s="4">
         <v>69561.695189000005</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="4">
+      <c r="A204" s="3">
         <v>203</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204" s="3">
         <v>1</v>
       </c>
       <c r="C204" t="s">
         <v>39</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D204" s="4">
         <v>849565.21893099998</v>
       </c>
-      <c r="E204" s="2">
+      <c r="E204" s="4">
         <v>9502.8778080499997</v>
       </c>
-      <c r="F204" s="2">
+      <c r="F204" s="4">
         <v>315236.870047</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="4">
+      <c r="A205" s="3">
         <v>204</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B205" s="3">
         <v>1</v>
       </c>
       <c r="C205" t="s">
         <v>41</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D205" s="4">
         <v>362621.077919</v>
       </c>
-      <c r="E205" s="2">
+      <c r="E205" s="4">
         <v>3972.5123857600001</v>
       </c>
-      <c r="F205" s="2">
+      <c r="F205" s="4">
         <v>44130.680511899998</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="4">
+      <c r="A206" s="3">
         <v>205</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206" s="3">
         <v>1</v>
       </c>
       <c r="C206" t="s">
         <v>62</v>
       </c>
-      <c r="D206" s="2">
+      <c r="D206" s="4">
         <v>692985.41297299997</v>
       </c>
-      <c r="E206" s="2">
+      <c r="E206" s="4">
         <v>20048.197601299998</v>
       </c>
-      <c r="F206" s="2">
+      <c r="F206" s="4">
         <v>31932.714579700001</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="4">
+      <c r="A207" s="3">
         <v>206</v>
       </c>
-      <c r="B207" s="4">
+      <c r="B207" s="3">
         <v>1</v>
       </c>
       <c r="C207" t="s">
         <v>201</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D207" s="4">
         <v>159431.42095100001</v>
       </c>
-      <c r="E207" s="2">
+      <c r="E207" s="4">
         <v>1718.6739316999999</v>
       </c>
-      <c r="F207" s="2">
+      <c r="F207" s="4">
         <v>45136.216537300003</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="4">
+      <c r="A208" s="3">
         <v>207</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208" s="3">
         <v>1</v>
       </c>
       <c r="C208" t="s">
         <v>249</v>
       </c>
-      <c r="D208" s="2">
+      <c r="D208" s="4">
         <v>416464.30702499999</v>
       </c>
-      <c r="E208" s="2">
+      <c r="E208" s="4">
         <v>4314.8070750099996</v>
       </c>
-      <c r="F208" s="2">
+      <c r="F208" s="4">
         <v>12571058.529999999</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="4">
+      <c r="A209" s="3">
         <v>208</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209" s="3">
         <v>1</v>
       </c>
       <c r="C209" t="s">
         <v>61</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D209" s="4">
         <v>7953015.3312299997</v>
       </c>
-      <c r="E209" s="2">
+      <c r="E209" s="4">
         <v>158477.66041700001</v>
       </c>
-      <c r="F209" s="2">
+      <c r="F209" s="4">
         <v>30348596.441399999</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="4">
+      <c r="A210" s="3">
         <v>209</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210" s="3">
         <v>1</v>
       </c>
       <c r="C210" t="s">
         <v>157</v>
       </c>
-      <c r="D210" s="2">
+      <c r="D210" s="4">
         <v>21727.5032799</v>
       </c>
-      <c r="E210" s="2">
+      <c r="E210" s="4">
         <v>555.94985608900004</v>
       </c>
-      <c r="F210" s="2">
+      <c r="F210" s="4">
         <v>1246.52458194</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="4">
+      <c r="A211" s="3">
         <v>210</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B211" s="3">
         <v>1</v>
       </c>
       <c r="C211" t="s">
         <v>148</v>
       </c>
-      <c r="D211" s="2">
+      <c r="D211" s="4">
         <v>2467.5319009499999</v>
       </c>
-      <c r="E211" s="2">
+      <c r="E211" s="4">
         <v>85.677519378599996</v>
       </c>
-      <c r="F211" s="2">
+      <c r="F211" s="4">
         <v>137.17624586400001</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="4">
+      <c r="A212" s="3">
         <v>211</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212" s="3">
         <v>1</v>
       </c>
       <c r="C212" t="s">
         <v>291</v>
       </c>
-      <c r="D212" s="2">
+      <c r="D212" s="4">
         <v>0.89238899280600004</v>
       </c>
-      <c r="E212" s="2">
-        <v>0</v>
-      </c>
-      <c r="F212" s="2">
+      <c r="E212" s="4">
+        <v>0</v>
+      </c>
+      <c r="F212" s="4">
         <v>81.386087482999997</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="4">
+      <c r="A213" s="3">
         <v>212</v>
       </c>
-      <c r="B213" s="4">
+      <c r="B213" s="3">
         <v>1</v>
       </c>
       <c r="C213" t="s">
         <v>194</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D213" s="4">
         <v>2466.6395119600002</v>
       </c>
-      <c r="E213" s="2">
+      <c r="E213" s="4">
         <v>85.677519378599996</v>
       </c>
-      <c r="F213" s="2">
+      <c r="F213" s="4">
         <v>115.23997916899999</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="4">
+      <c r="A214" s="3">
         <v>213</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214" s="3">
         <v>1</v>
       </c>
       <c r="C214" t="s">
         <v>102</v>
       </c>
-      <c r="D214" s="2">
+      <c r="D214" s="4">
         <v>7456.2144051499999</v>
       </c>
-      <c r="E214" s="2">
+      <c r="E214" s="4">
         <v>86.672054315699995</v>
       </c>
-      <c r="F214" s="2">
+      <c r="F214" s="4">
         <v>115748.967559</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="4">
+      <c r="A215" s="3">
         <v>214</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B215" s="3">
         <v>1</v>
       </c>
       <c r="C215" t="s">
         <v>44</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215" s="4">
         <v>219254.55494100001</v>
       </c>
-      <c r="E215" s="2">
+      <c r="E215" s="4">
         <v>636.36251970399996</v>
       </c>
-      <c r="F215" s="2">
+      <c r="F215" s="4">
         <v>17774733.931400001</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="4">
+      <c r="A216" s="3">
         <v>215</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B216" s="3">
         <v>1</v>
       </c>
       <c r="C216" t="s">
         <v>273</v>
       </c>
-      <c r="D216" s="2">
-        <v>0</v>
-      </c>
-      <c r="E216" s="2">
-        <v>0</v>
-      </c>
-      <c r="F216" s="2">
+      <c r="D216" s="4">
+        <v>0</v>
+      </c>
+      <c r="E216" s="4">
+        <v>0</v>
+      </c>
+      <c r="F216" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="4">
+      <c r="A217" s="3">
         <v>216</v>
       </c>
-      <c r="B217" s="4">
+      <c r="B217" s="3">
         <v>1</v>
       </c>
       <c r="C217" t="s">
         <v>259</v>
       </c>
-      <c r="D217" s="2">
+      <c r="D217" s="4">
         <v>114656.756989</v>
       </c>
-      <c r="E217" s="2">
+      <c r="E217" s="4">
         <v>195.835846382</v>
       </c>
-      <c r="F217" s="2">
+      <c r="F217" s="4">
         <v>258338.032037</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="4">
+      <c r="A218" s="3">
         <v>217</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218" s="3">
         <v>1</v>
       </c>
       <c r="C218" t="s">
         <v>316</v>
       </c>
-      <c r="D218" s="2">
+      <c r="D218" s="4">
         <v>55242.597524299999</v>
       </c>
-      <c r="E218" s="2">
-        <v>0</v>
-      </c>
-      <c r="F218" s="2">
+      <c r="E218" s="4">
+        <v>0</v>
+      </c>
+      <c r="F218" s="4">
         <v>18703558.5693</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="4">
+      <c r="A219" s="3">
         <v>218</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B219" s="3">
         <v>1</v>
       </c>
       <c r="C219" t="s">
         <v>203</v>
       </c>
-      <c r="D219" s="2">
+      <c r="D219" s="4">
         <v>1274.7377284199999</v>
       </c>
-      <c r="E219" s="2">
+      <c r="E219" s="4">
         <v>11.073177494399999</v>
       </c>
-      <c r="F219" s="2">
+      <c r="F219" s="4">
         <v>17482.992153800002</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="4">
+      <c r="A220" s="3">
         <v>219</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220" s="3">
         <v>1</v>
       </c>
       <c r="C220" t="s">
         <v>299</v>
       </c>
-      <c r="D220" s="2">
+      <c r="D220" s="4">
         <v>30253.637288499998</v>
       </c>
-      <c r="E220" s="2">
-        <v>0</v>
-      </c>
-      <c r="F220" s="2">
+      <c r="E220" s="4">
+        <v>0</v>
+      </c>
+      <c r="F220" s="4">
         <v>504130.80246500002</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="4">
+      <c r="A221" s="3">
         <v>220</v>
       </c>
-      <c r="B221" s="4">
+      <c r="B221" s="3">
         <v>1</v>
       </c>
       <c r="C221" t="s">
         <v>217</v>
       </c>
-      <c r="D221" s="2">
+      <c r="D221" s="4">
         <v>10956.6207313</v>
       </c>
-      <c r="E221" s="2">
+      <c r="E221" s="4">
         <v>284.762196571</v>
       </c>
-      <c r="F221" s="2">
+      <c r="F221" s="4">
         <v>5734.9787575700002</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="4">
+      <c r="A222" s="3">
         <v>221</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B222" s="3">
         <v>1</v>
       </c>
       <c r="C222" t="s">
         <v>173</v>
       </c>
-      <c r="D222" s="2">
+      <c r="D222" s="4">
         <v>79773.704416199995</v>
       </c>
-      <c r="E222" s="2">
+      <c r="E222" s="4">
         <v>2082.0168636200001</v>
       </c>
-      <c r="F222" s="2">
+      <c r="F222" s="4">
         <v>328029.30439900002</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="4">
+      <c r="A223" s="3">
         <v>222</v>
       </c>
-      <c r="B223" s="4">
+      <c r="B223" s="3">
         <v>1</v>
       </c>
       <c r="C223" t="s">
         <v>205</v>
       </c>
-      <c r="D223" s="2">
+      <c r="D223" s="4">
         <v>21529.442395900001</v>
       </c>
-      <c r="E223" s="2">
+      <c r="E223" s="4">
         <v>99.049802778</v>
       </c>
-      <c r="F223" s="2">
+      <c r="F223" s="4">
         <v>140757.65576600001</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="4">
+      <c r="A224" s="3">
         <v>223</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224" s="3">
         <v>1</v>
       </c>
       <c r="C224" t="s">
         <v>232</v>
       </c>
-      <c r="D224" s="2">
+      <c r="D224" s="4">
         <v>8707.7991275799995</v>
       </c>
-      <c r="E224" s="2">
+      <c r="E224" s="4">
         <v>153.41137263300001</v>
       </c>
-      <c r="F224" s="2">
+      <c r="F224" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="4">
+      <c r="A225" s="3">
         <v>224</v>
       </c>
-      <c r="B225" s="4">
+      <c r="B225" s="3">
         <v>1</v>
       </c>
       <c r="C225" t="s">
         <v>49</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D225" s="4">
         <v>245697.72797199999</v>
       </c>
-      <c r="E225" s="2">
+      <c r="E225" s="4">
         <v>2886.0480992799999</v>
       </c>
-      <c r="F225" s="2">
+      <c r="F225" s="4">
         <v>6472846.81678</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="4">
+      <c r="A226" s="3">
         <v>225</v>
       </c>
-      <c r="B226" s="4">
+      <c r="B226" s="3">
         <v>1</v>
       </c>
       <c r="C226" t="s">
         <v>209</v>
       </c>
-      <c r="D226" s="2">
+      <c r="D226" s="4">
         <v>394345.84873999999</v>
       </c>
-      <c r="E226" s="2">
+      <c r="E226" s="4">
         <v>4261.5435545999999</v>
       </c>
-      <c r="F226" s="2">
+      <c r="F226" s="4">
         <v>210904.37624000001</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="4">
+      <c r="A227" s="3">
         <v>226</v>
       </c>
-      <c r="B227" s="4">
+      <c r="B227" s="3">
         <v>1</v>
       </c>
       <c r="C227" t="s">
         <v>248</v>
       </c>
-      <c r="D227" s="2">
+      <c r="D227" s="4">
         <v>20797.343671899998</v>
       </c>
-      <c r="E227" s="2">
+      <c r="E227" s="4">
         <v>437.09958906000003</v>
       </c>
-      <c r="F227" s="2">
+      <c r="F227" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="4">
+      <c r="A228" s="3">
         <v>227</v>
       </c>
-      <c r="B228" s="4">
+      <c r="B228" s="3">
         <v>1</v>
       </c>
       <c r="C228" t="s">
         <v>262</v>
       </c>
-      <c r="D228" s="2">
+      <c r="D228" s="4">
         <v>4589.6612262099998</v>
       </c>
-      <c r="E228" s="2">
+      <c r="E228" s="4">
         <v>52.1657838183</v>
       </c>
-      <c r="F228" s="2">
+      <c r="F228" s="4">
         <v>9372.4437867500001</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="4">
+      <c r="A229" s="3">
         <v>228</v>
       </c>
-      <c r="B229" s="4">
+      <c r="B229" s="3">
         <v>1</v>
       </c>
       <c r="C229" t="s">
         <v>98</v>
       </c>
-      <c r="D229" s="2">
+      <c r="D229" s="4">
         <v>86500.720352400007</v>
       </c>
-      <c r="E229" s="2">
+      <c r="E229" s="4">
         <v>1376.7776926900001</v>
       </c>
-      <c r="F229" s="2">
+      <c r="F229" s="4">
         <v>414546.45833499997</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="4">
+      <c r="A230" s="3">
         <v>229</v>
       </c>
-      <c r="B230" s="4">
+      <c r="B230" s="3">
         <v>1</v>
       </c>
       <c r="C230" t="s">
         <v>135</v>
       </c>
-      <c r="D230" s="2">
+      <c r="D230" s="4">
         <v>15934.186161</v>
       </c>
-      <c r="E230" s="2">
+      <c r="E230" s="4">
         <v>12.863602852</v>
       </c>
-      <c r="F230" s="2">
+      <c r="F230" s="4">
         <v>447770.87046800001</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="4">
+      <c r="A231" s="3">
         <v>230</v>
       </c>
-      <c r="B231" s="4">
+      <c r="B231" s="3">
         <v>1</v>
       </c>
       <c r="C231" t="s">
         <v>140</v>
       </c>
-      <c r="D231" s="2">
+      <c r="D231" s="4">
         <v>8167.0982869899999</v>
       </c>
-      <c r="E231" s="2">
+      <c r="E231" s="4">
         <v>144.49685112899999</v>
       </c>
-      <c r="F231" s="2">
+      <c r="F231" s="4">
         <v>220760.05317</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="4">
+      <c r="A232" s="3">
         <v>231</v>
       </c>
-      <c r="B232" s="4">
+      <c r="B232" s="3">
         <v>1</v>
       </c>
       <c r="C232" t="s">
         <v>60</v>
       </c>
-      <c r="D232" s="2">
+      <c r="D232" s="4">
         <v>27621.973673299999</v>
       </c>
-      <c r="E232" s="2">
+      <c r="E232" s="4">
         <v>364.16988082799998</v>
       </c>
-      <c r="F232" s="2">
+      <c r="F232" s="4">
         <v>197844.34349</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="4">
+      <c r="A233" s="3">
         <v>232</v>
       </c>
-      <c r="B233" s="4">
+      <c r="B233" s="3">
         <v>1</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
       </c>
-      <c r="D233" s="2">
+      <c r="D233" s="4">
         <v>121.43399200899999</v>
       </c>
-      <c r="E233" s="2">
+      <c r="E233" s="4">
         <v>1.6319235327899999</v>
       </c>
-      <c r="F233" s="2">
+      <c r="F233" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="4">
+      <c r="A234" s="3">
         <v>233</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B234" s="3">
         <v>1</v>
       </c>
       <c r="C234" t="s">
         <v>216</v>
       </c>
-      <c r="D234" s="2">
+      <c r="D234" s="4">
         <v>64506.749733700002</v>
       </c>
-      <c r="E234" s="2">
+      <c r="E234" s="4">
         <v>1359.0056939799999</v>
       </c>
-      <c r="F234" s="2">
+      <c r="F234" s="4">
         <v>5203.3782696999997</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="4">
+      <c r="A235" s="3">
         <v>234</v>
       </c>
-      <c r="B235" s="4">
+      <c r="B235" s="3">
         <v>1</v>
       </c>
       <c r="C235" t="s">
         <v>37</v>
       </c>
-      <c r="D235" s="2">
+      <c r="D235" s="4">
         <v>43059.596108700003</v>
       </c>
-      <c r="E235" s="2">
+      <c r="E235" s="4">
         <v>766.488387536</v>
       </c>
-      <c r="F235" s="2">
+      <c r="F235" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="4">
+      <c r="A236" s="3">
         <v>235</v>
       </c>
-      <c r="B236" s="4">
+      <c r="B236" s="3">
         <v>1</v>
       </c>
       <c r="C236" t="s">
         <v>14</v>
       </c>
-      <c r="D236" s="2">
+      <c r="D236" s="4">
         <v>289419.20777699997</v>
       </c>
-      <c r="E236" s="2">
+      <c r="E236" s="4">
         <v>3694.4655744800002</v>
       </c>
-      <c r="F236" s="2">
+      <c r="F236" s="4">
         <v>28041.029923599999</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="4">
+      <c r="A237" s="3">
         <v>236</v>
       </c>
-      <c r="B237" s="4">
+      <c r="B237" s="3">
         <v>1</v>
       </c>
       <c r="C237" t="s">
         <v>293</v>
       </c>
-      <c r="D237" s="2">
+      <c r="D237" s="4">
         <v>32182.808194000001</v>
       </c>
-      <c r="E237" s="2">
-        <v>0</v>
-      </c>
-      <c r="F237" s="2">
+      <c r="E237" s="4">
+        <v>0</v>
+      </c>
+      <c r="F237" s="4">
         <v>439499.08607999998</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="4">
+      <c r="A238" s="3">
         <v>237</v>
       </c>
-      <c r="B238" s="4">
+      <c r="B238" s="3">
         <v>1</v>
       </c>
       <c r="C238" t="s">
         <v>198</v>
       </c>
-      <c r="D238" s="2">
+      <c r="D238" s="4">
         <v>87909.506839399997</v>
       </c>
-      <c r="E238" s="2">
+      <c r="E238" s="4">
         <v>179.459440261</v>
       </c>
-      <c r="F238" s="2">
+      <c r="F238" s="4">
         <v>923986.495031</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="4">
+      <c r="A239" s="3">
         <v>238</v>
       </c>
-      <c r="B239" s="4">
+      <c r="B239" s="3">
         <v>1</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
       </c>
-      <c r="D239" s="2">
+      <c r="D239" s="4">
         <v>7621.5152519699996</v>
       </c>
-      <c r="E239" s="2">
+      <c r="E239" s="4">
         <v>6.5672398266299998</v>
       </c>
-      <c r="F239" s="2">
+      <c r="F239" s="4">
         <v>261176.937164</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="4">
+      <c r="A240" s="3">
         <v>239</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B240" s="3">
         <v>1</v>
       </c>
       <c r="C240" t="s">
         <v>43</v>
       </c>
-      <c r="D240" s="2">
+      <c r="D240" s="4">
         <v>450112.916279</v>
       </c>
-      <c r="E240" s="2">
+      <c r="E240" s="4">
         <v>5155.2865042499998</v>
       </c>
-      <c r="F240" s="2">
+      <c r="F240" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="4">
+      <c r="A241" s="3">
         <v>240</v>
       </c>
-      <c r="B241" s="4">
+      <c r="B241" s="3">
         <v>1</v>
       </c>
       <c r="C241" t="s">
         <v>160</v>
       </c>
-      <c r="D241" s="2">
+      <c r="D241" s="4">
         <v>39427.609642000003</v>
       </c>
-      <c r="E241" s="2">
+      <c r="E241" s="4">
         <v>887.41507240600004</v>
       </c>
-      <c r="F241" s="2">
+      <c r="F241" s="4">
         <v>2286.7704707299999</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="4">
+      <c r="A242" s="3">
         <v>241</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B242" s="3">
         <v>1</v>
       </c>
       <c r="C242" t="s">
         <v>255</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D242" s="4">
         <v>17594.990607899999</v>
       </c>
-      <c r="E242" s="2">
+      <c r="E242" s="4">
         <v>130.42141038899999</v>
       </c>
-      <c r="F242" s="2">
+      <c r="F242" s="4">
         <v>104.263817966</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="4">
+      <c r="A243" s="3">
         <v>242</v>
       </c>
-      <c r="B243" s="4">
+      <c r="B243" s="3">
         <v>1</v>
       </c>
       <c r="C243" t="s">
         <v>199</v>
       </c>
-      <c r="D243" s="2">
+      <c r="D243" s="4">
         <v>1745752.10882</v>
       </c>
-      <c r="E243" s="2">
+      <c r="E243" s="4">
         <v>13638.7305423</v>
       </c>
-      <c r="F243" s="2">
+      <c r="F243" s="4">
         <v>24067447.1844</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="4">
+      <c r="A244" s="3">
         <v>243</v>
       </c>
-      <c r="B244" s="4">
+      <c r="B244" s="3">
         <v>1</v>
       </c>
       <c r="C244" t="s">
         <v>48</v>
       </c>
-      <c r="D244" s="2">
+      <c r="D244" s="4">
         <v>2162.03634483</v>
       </c>
-      <c r="E244" s="2">
+      <c r="E244" s="4">
         <v>51.656090575599997</v>
       </c>
-      <c r="F244" s="2">
+      <c r="F244" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="4">
+      <c r="A245" s="3">
         <v>244</v>
       </c>
-      <c r="B245" s="4">
+      <c r="B245" s="3">
         <v>1</v>
       </c>
       <c r="C245" t="s">
         <v>321</v>
       </c>
-      <c r="D245" s="2">
+      <c r="D245" s="4">
         <v>14397.0703973</v>
       </c>
-      <c r="E245" s="2">
-        <v>0</v>
-      </c>
-      <c r="F245" s="2">
+      <c r="E245" s="4">
+        <v>0</v>
+      </c>
+      <c r="F245" s="4">
         <v>493938.914284</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="4">
+      <c r="A246" s="3">
         <v>245</v>
       </c>
-      <c r="B246" s="4">
+      <c r="B246" s="3">
         <v>1</v>
       </c>
       <c r="C246" t="s">
         <v>144</v>
       </c>
-      <c r="D246" s="2">
+      <c r="D246" s="4">
         <v>3382.3718048999999</v>
       </c>
-      <c r="E246" s="2">
+      <c r="E246" s="4">
         <v>103.72625759899999</v>
       </c>
-      <c r="F246" s="2">
+      <c r="F246" s="4">
         <v>180.29008742400001</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="4">
+      <c r="A247" s="3">
         <v>246</v>
       </c>
-      <c r="B247" s="4">
+      <c r="B247" s="3">
         <v>1</v>
       </c>
       <c r="C247" t="s">
         <v>229</v>
       </c>
-      <c r="D247" s="2">
+      <c r="D247" s="4">
         <v>418.22737634499998</v>
       </c>
-      <c r="E247" s="2">
+      <c r="E247" s="4">
         <v>13.7144742684</v>
       </c>
-      <c r="F247" s="2">
+      <c r="F247" s="4">
         <v>508.75485386700001</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="4">
+      <c r="A248" s="3">
         <v>247</v>
       </c>
-      <c r="B248" s="4">
+      <c r="B248" s="3">
         <v>1</v>
       </c>
       <c r="C248" t="s">
         <v>88</v>
       </c>
-      <c r="D248" s="2">
+      <c r="D248" s="4">
         <v>4296.69474627</v>
       </c>
-      <c r="E248" s="2">
+      <c r="E248" s="4">
         <v>49.869893011000002</v>
       </c>
-      <c r="F248" s="2">
+      <c r="F248" s="4">
         <v>24611.390071400001</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="4">
+      <c r="A249" s="3">
         <v>248</v>
       </c>
-      <c r="B249" s="4">
+      <c r="B249" s="3">
         <v>1</v>
       </c>
       <c r="C249" t="s">
         <v>315</v>
       </c>
-      <c r="D249" s="2">
+      <c r="D249" s="4">
         <v>16221.6434869</v>
       </c>
-      <c r="E249" s="2">
-        <v>0</v>
-      </c>
-      <c r="F249" s="2">
+      <c r="E249" s="4">
+        <v>0</v>
+      </c>
+      <c r="F249" s="4">
         <v>544055.60395400005</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="4">
+      <c r="A250" s="3">
         <v>249</v>
       </c>
-      <c r="B250" s="4">
+      <c r="B250" s="3">
         <v>1</v>
       </c>
       <c r="C250" t="s">
         <v>54</v>
       </c>
-      <c r="D250" s="2">
+      <c r="D250" s="4">
         <v>6181.1257888299997</v>
       </c>
-      <c r="E250" s="2">
+      <c r="E250" s="4">
         <v>5.8939840777199999</v>
       </c>
-      <c r="F250" s="2">
+      <c r="F250" s="4">
         <v>127332.859582</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="4">
+      <c r="A251" s="3">
         <v>250</v>
       </c>
-      <c r="B251" s="4">
+      <c r="B251" s="3">
         <v>1</v>
       </c>
       <c r="C251" t="s">
         <v>79</v>
       </c>
-      <c r="D251" s="2">
+      <c r="D251" s="4">
         <v>6894.8268587800003</v>
       </c>
-      <c r="E251" s="2">
+      <c r="E251" s="4">
         <v>3.1541604316499998</v>
       </c>
-      <c r="F251" s="2">
+      <c r="F251" s="4">
         <v>1229665.42576</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="4">
+      <c r="A252" s="3">
         <v>251</v>
       </c>
-      <c r="B252" s="4">
+      <c r="B252" s="3">
         <v>1</v>
       </c>
       <c r="C252" t="s">
         <v>89</v>
       </c>
-      <c r="D252" s="2">
+      <c r="D252" s="4">
         <v>20846.0700321</v>
       </c>
-      <c r="E252" s="2">
+      <c r="E252" s="4">
         <v>196.23821275</v>
       </c>
-      <c r="F252" s="2">
+      <c r="F252" s="4">
         <v>137093.57607899999</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="4">
+      <c r="A253" s="3">
         <v>252</v>
       </c>
-      <c r="B253" s="4">
+      <c r="B253" s="3">
         <v>1</v>
       </c>
       <c r="C253" t="s">
         <v>106</v>
       </c>
-      <c r="D253" s="2">
+      <c r="D253" s="4">
         <v>71693.524234500001</v>
       </c>
-      <c r="E253" s="2">
+      <c r="E253" s="4">
         <v>856.61439636</v>
       </c>
-      <c r="F253" s="2">
+      <c r="F253" s="4">
         <v>639935.76778500003</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="4">
+      <c r="A254" s="3">
         <v>253</v>
       </c>
-      <c r="B254" s="4">
+      <c r="B254" s="3">
         <v>1</v>
       </c>
       <c r="C254" t="s">
         <v>129</v>
       </c>
-      <c r="D254" s="2">
+      <c r="D254" s="4">
         <v>6934.0454035299999</v>
       </c>
-      <c r="E254" s="2">
+      <c r="E254" s="4">
         <v>174.18658403500001</v>
       </c>
-      <c r="F254" s="2">
+      <c r="F254" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="4">
+      <c r="A255" s="3">
         <v>254</v>
       </c>
-      <c r="B255" s="4">
+      <c r="B255" s="3">
         <v>1</v>
       </c>
       <c r="C255" t="s">
         <v>314</v>
       </c>
-      <c r="D255" s="2">
+      <c r="D255" s="4">
         <v>8749.6101835299996</v>
       </c>
-      <c r="E255" s="2">
-        <v>0</v>
-      </c>
-      <c r="F255" s="2">
+      <c r="E255" s="4">
+        <v>0</v>
+      </c>
+      <c r="F255" s="4">
         <v>97751.212637499993</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="4">
+      <c r="A256" s="3">
         <v>255</v>
       </c>
-      <c r="B256" s="4">
+      <c r="B256" s="3">
         <v>1</v>
       </c>
       <c r="C256" t="s">
         <v>9</v>
       </c>
-      <c r="D256" s="2">
+      <c r="D256" s="4">
         <v>26404.353746500001</v>
       </c>
-      <c r="E256" s="2">
+      <c r="E256" s="4">
         <v>33.963024700799998</v>
       </c>
-      <c r="F256" s="2">
+      <c r="F256" s="4">
         <v>714971.21717399999</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="4">
+      <c r="A257" s="3">
         <v>256</v>
       </c>
-      <c r="B257" s="4">
+      <c r="B257" s="3">
         <v>1</v>
       </c>
       <c r="C257" t="s">
         <v>149</v>
       </c>
-      <c r="D257" s="2">
+      <c r="D257" s="4">
         <v>7625.0076522899999</v>
       </c>
-      <c r="E257" s="2">
+      <c r="E257" s="4">
         <v>236.33542532800001</v>
       </c>
-      <c r="F257" s="2">
+      <c r="F257" s="4">
         <v>662.62778988499997</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="4">
+      <c r="A258" s="3">
         <v>257</v>
       </c>
-      <c r="B258" s="4">
+      <c r="B258" s="3">
         <v>1</v>
       </c>
       <c r="C258" t="s">
         <v>146</v>
       </c>
-      <c r="D258" s="2">
+      <c r="D258" s="4">
         <v>11721.9144153</v>
       </c>
-      <c r="E258" s="2">
+      <c r="E258" s="4">
         <v>444.46606376199998</v>
       </c>
-      <c r="F258" s="2">
+      <c r="F258" s="4">
         <v>249.31782009899999</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="4">
+      <c r="A259" s="3">
         <v>258</v>
       </c>
-      <c r="B259" s="4">
+      <c r="B259" s="3">
         <v>1</v>
       </c>
       <c r="C259" t="s">
         <v>247</v>
       </c>
-      <c r="D259" s="2">
+      <c r="D259" s="4">
         <v>7574.9495622699997</v>
       </c>
-      <c r="E259" s="2">
+      <c r="E259" s="4">
         <v>220.05390568499999</v>
       </c>
-      <c r="F259" s="2">
+      <c r="F259" s="4">
         <v>525.39773814</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="4">
+      <c r="A260" s="3">
         <v>259</v>
       </c>
-      <c r="B260" s="4">
+      <c r="B260" s="3">
         <v>1</v>
       </c>
       <c r="C260" t="s">
         <v>242</v>
       </c>
-      <c r="D260" s="2">
+      <c r="D260" s="4">
         <v>26022.082100899999</v>
       </c>
-      <c r="E260" s="2">
+      <c r="E260" s="4">
         <v>501.18598501100001</v>
       </c>
-      <c r="F260" s="2">
+      <c r="F260" s="4">
         <v>303.29073349800001</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="4">
+      <c r="A261" s="3">
         <v>260</v>
       </c>
-      <c r="B261" s="4">
+      <c r="B261" s="3">
         <v>1</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
       </c>
-      <c r="D261" s="2">
+      <c r="D261" s="4">
         <v>3309.7014733300002</v>
       </c>
-      <c r="E261" s="2">
+      <c r="E261" s="4">
         <v>48.246281122699997</v>
       </c>
-      <c r="F261" s="2">
+      <c r="F261" s="4">
         <v>230.30751210599999</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="4">
+      <c r="A262" s="3">
         <v>261</v>
       </c>
-      <c r="B262" s="4">
+      <c r="B262" s="3">
         <v>1</v>
       </c>
       <c r="C262" t="s">
         <v>251</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D262" s="4">
         <v>3435.6432372899999</v>
       </c>
-      <c r="E262" s="2">
+      <c r="E262" s="4">
         <v>183.097510594</v>
       </c>
-      <c r="F262" s="2">
+      <c r="F262" s="4">
         <v>5812.7990749999999</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="4">
+      <c r="A263" s="3">
         <v>262</v>
       </c>
-      <c r="B263" s="4">
+      <c r="B263" s="3">
         <v>1</v>
       </c>
       <c r="C263" t="s">
         <v>84</v>
       </c>
-      <c r="D263" s="2">
+      <c r="D263" s="4">
         <v>269620.148598</v>
       </c>
-      <c r="E263" s="2">
+      <c r="E263" s="4">
         <v>4760.8196407799996</v>
       </c>
-      <c r="F263" s="2">
+      <c r="F263" s="4">
         <v>61184.647765299997</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="4">
+      <c r="A264" s="3">
         <v>263</v>
       </c>
-      <c r="B264" s="4">
+      <c r="B264" s="3">
         <v>1</v>
       </c>
       <c r="C264" t="s">
         <v>239</v>
       </c>
-      <c r="D264" s="2">
+      <c r="D264" s="4">
         <v>65064.121116000002</v>
       </c>
-      <c r="E264" s="2">
+      <c r="E264" s="4">
         <v>1838.2509082500001</v>
       </c>
-      <c r="F264" s="2">
+      <c r="F264" s="4">
         <v>265826.04678400001</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="4">
+      <c r="A265" s="3">
         <v>264</v>
       </c>
-      <c r="B265" s="4">
+      <c r="B265" s="3">
         <v>1</v>
       </c>
       <c r="C265" t="s">
         <v>319</v>
       </c>
-      <c r="D265" s="2">
+      <c r="D265" s="4">
         <v>13291.0405307</v>
       </c>
-      <c r="E265" s="2">
-        <v>0</v>
-      </c>
-      <c r="F265" s="2">
+      <c r="E265" s="4">
+        <v>0</v>
+      </c>
+      <c r="F265" s="4">
         <v>2063208.7606500001</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="4">
+      <c r="A266" s="3">
         <v>265</v>
       </c>
-      <c r="B266" s="4">
+      <c r="B266" s="3">
         <v>1</v>
       </c>
       <c r="C266" t="s">
         <v>171</v>
       </c>
-      <c r="D266" s="2">
+      <c r="D266" s="4">
         <v>1170.05055556</v>
       </c>
-      <c r="E266" s="2">
+      <c r="E266" s="4">
         <v>5.7544436674700004</v>
       </c>
-      <c r="F266" s="2">
+      <c r="F266" s="4">
         <v>196045.807535</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="4">
+      <c r="A267" s="3">
         <v>266</v>
       </c>
-      <c r="B267" s="4">
+      <c r="B267" s="3">
         <v>1</v>
       </c>
       <c r="C267" t="s">
         <v>182</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D267" s="4">
         <v>178124.34371799999</v>
       </c>
-      <c r="E267" s="2">
+      <c r="E267" s="4">
         <v>3154.3242321299999</v>
       </c>
-      <c r="F267" s="2">
+      <c r="F267" s="4">
         <v>7972.2345705999996</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="4">
+      <c r="A268" s="3">
         <v>267</v>
       </c>
-      <c r="B268" s="4">
+      <c r="B268" s="3">
         <v>1</v>
       </c>
       <c r="C268" t="s">
         <v>184</v>
       </c>
-      <c r="D268" s="2">
+      <c r="D268" s="4">
         <v>89306.404526300001</v>
       </c>
-      <c r="E268" s="2">
+      <c r="E268" s="4">
         <v>1453.5734453699999</v>
       </c>
-      <c r="F268" s="2">
+      <c r="F268" s="4">
         <v>82689.5983041</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="4">
+      <c r="A269" s="3">
         <v>268</v>
       </c>
-      <c r="B269" s="4">
+      <c r="B269" s="3">
         <v>1</v>
       </c>
       <c r="C269" t="s">
         <v>183</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D269" s="4">
         <v>96413.197402899998</v>
       </c>
-      <c r="E269" s="2">
+      <c r="E269" s="4">
         <v>1659.5963791700001</v>
       </c>
-      <c r="F269" s="2">
+      <c r="F269" s="4">
         <v>48896.562625500002</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="4">
+      <c r="A270" s="3">
         <v>269</v>
       </c>
-      <c r="B270" s="4">
+      <c r="B270" s="3">
         <v>1</v>
       </c>
       <c r="C270" t="s">
         <v>11</v>
       </c>
-      <c r="D270" s="2">
+      <c r="D270" s="4">
         <v>7346.4592129700004</v>
       </c>
-      <c r="E270" s="2">
+      <c r="E270" s="4">
         <v>59.509040343700001</v>
       </c>
-      <c r="F270" s="2">
+      <c r="F270" s="4">
         <v>27044.256854800002</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="4">
+      <c r="A271" s="3">
         <v>270</v>
       </c>
-      <c r="B271" s="4">
+      <c r="B271" s="3">
         <v>1</v>
       </c>
       <c r="C271" t="s">
         <v>176</v>
       </c>
-      <c r="D271" s="2">
+      <c r="D271" s="4">
         <v>873.48079751199998</v>
       </c>
-      <c r="E271" s="2">
+      <c r="E271" s="4">
         <v>27.422535744499999</v>
       </c>
-      <c r="F271" s="2">
+      <c r="F271" s="4">
         <v>1039.47163237</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="4">
+      <c r="A272" s="3">
         <v>271</v>
       </c>
-      <c r="B272" s="4">
+      <c r="B272" s="3">
         <v>1</v>
       </c>
       <c r="C272" t="s">
         <v>94</v>
       </c>
-      <c r="D272" s="2">
+      <c r="D272" s="4">
         <v>26375.578618200001</v>
       </c>
-      <c r="E272" s="2">
+      <c r="E272" s="4">
         <v>417.37750805799999</v>
       </c>
-      <c r="F272" s="2">
+      <c r="F272" s="4">
         <v>11253.239335800001</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="4">
+      <c r="A273" s="3">
         <v>272</v>
       </c>
-      <c r="B273" s="4">
+      <c r="B273" s="3">
         <v>1</v>
       </c>
       <c r="C273" t="s">
         <v>132</v>
       </c>
-      <c r="D273" s="2">
+      <c r="D273" s="4">
         <v>485.237542523</v>
       </c>
-      <c r="E273" s="2">
+      <c r="E273" s="4">
         <v>5.7516199426199996</v>
       </c>
-      <c r="F273" s="2">
+      <c r="F273" s="4">
         <v>22618.306628900002</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="4">
+      <c r="A274" s="3">
         <v>273</v>
       </c>
-      <c r="B274" s="4">
+      <c r="B274" s="3">
         <v>1</v>
       </c>
       <c r="C274" t="s">
         <v>298</v>
       </c>
-      <c r="D274" s="2">
+      <c r="D274" s="4">
         <v>15761.982949900001</v>
       </c>
-      <c r="E274" s="2">
-        <v>0</v>
-      </c>
-      <c r="F274" s="2">
+      <c r="E274" s="4">
+        <v>0</v>
+      </c>
+      <c r="F274" s="4">
         <v>1920145.52562</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="4">
+      <c r="A275" s="3">
         <v>274</v>
       </c>
-      <c r="B275" s="4">
+      <c r="B275" s="3">
         <v>1</v>
       </c>
       <c r="C275" t="s">
         <v>75</v>
       </c>
-      <c r="D275" s="2">
+      <c r="D275" s="4">
         <v>8551.0535198199996</v>
       </c>
-      <c r="E275" s="2">
+      <c r="E275" s="4">
         <v>455.64638942099998</v>
       </c>
-      <c r="F275" s="2">
+      <c r="F275" s="4">
         <v>1056.6240312</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="4">
+      <c r="A276" s="3">
         <v>275</v>
       </c>
-      <c r="B276" s="4">
+      <c r="B276" s="3">
         <v>1</v>
       </c>
       <c r="C276" t="s">
         <v>45</v>
       </c>
-      <c r="D276" s="2">
+      <c r="D276" s="4">
         <v>58915.093588800002</v>
       </c>
-      <c r="E276" s="2">
+      <c r="E276" s="4">
         <v>568.51736471699996</v>
       </c>
-      <c r="F276" s="2">
+      <c r="F276" s="4">
         <v>468319.12696800003</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="4">
+      <c r="A277" s="3">
         <v>276</v>
       </c>
-      <c r="B277" s="4">
+      <c r="B277" s="3">
         <v>1</v>
       </c>
       <c r="C277" t="s">
         <v>331</v>
       </c>
-      <c r="D277" s="2">
+      <c r="D277" s="4">
         <v>2339.4758044700002</v>
       </c>
-      <c r="E277" s="2">
-        <v>0</v>
-      </c>
-      <c r="F277" s="2">
+      <c r="E277" s="4">
+        <v>0</v>
+      </c>
+      <c r="F277" s="4">
         <v>220601.32110299999</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="4">
+      <c r="A278" s="3">
         <v>277</v>
       </c>
-      <c r="B278" s="4">
+      <c r="B278" s="3">
         <v>1</v>
       </c>
       <c r="C278" t="s">
         <v>325</v>
       </c>
-      <c r="D278" s="2">
+      <c r="D278" s="4">
         <v>11371.7470352</v>
       </c>
-      <c r="E278" s="2">
-        <v>0</v>
-      </c>
-      <c r="F278" s="2">
+      <c r="E278" s="4">
+        <v>0</v>
+      </c>
+      <c r="F278" s="4">
         <v>131339.04484399999</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="4">
+      <c r="A279" s="3">
         <v>278</v>
       </c>
-      <c r="B279" s="4">
+      <c r="B279" s="3">
         <v>1</v>
       </c>
       <c r="C279" t="s">
         <v>104</v>
       </c>
-      <c r="D279" s="2">
+      <c r="D279" s="4">
         <v>21535.5249678</v>
       </c>
-      <c r="E279" s="2">
+      <c r="E279" s="4">
         <v>257.61488918800001</v>
       </c>
-      <c r="F279" s="2">
+      <c r="F279" s="4">
         <v>61206.997464</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="4">
+      <c r="A280" s="3">
         <v>279</v>
       </c>
-      <c r="B280" s="4">
+      <c r="B280" s="3">
         <v>1</v>
       </c>
       <c r="C280" t="s">
         <v>77</v>
       </c>
-      <c r="D280" s="2">
+      <c r="D280" s="4">
         <v>2264.6731437499998</v>
       </c>
-      <c r="E280" s="2">
+      <c r="E280" s="4">
         <v>65.571120537200002</v>
       </c>
-      <c r="F280" s="2">
+      <c r="F280" s="4">
         <v>64818.159060600003</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="4">
+      <c r="A281" s="3">
         <v>280</v>
       </c>
-      <c r="B281" s="4">
+      <c r="B281" s="3">
         <v>1</v>
       </c>
       <c r="C281" t="s">
         <v>114</v>
       </c>
-      <c r="D281" s="2">
+      <c r="D281" s="4">
         <v>262.985438375</v>
       </c>
-      <c r="E281" s="2">
+      <c r="E281" s="4">
         <v>4.9075413125000003</v>
       </c>
-      <c r="F281" s="2">
+      <c r="F281" s="4">
         <v>0.19054605086199999</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="4">
+      <c r="A282" s="3">
         <v>281</v>
       </c>
-      <c r="B282" s="4">
+      <c r="B282" s="3">
         <v>1</v>
       </c>
       <c r="C282" t="s">
         <v>312</v>
       </c>
-      <c r="D282" s="2">
+      <c r="D282" s="4">
         <v>74450.374849400003</v>
       </c>
-      <c r="E282" s="2">
-        <v>0</v>
-      </c>
-      <c r="F282" s="2">
+      <c r="E282" s="4">
+        <v>0</v>
+      </c>
+      <c r="F282" s="4">
         <v>4512895.6957099997</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="4">
+      <c r="A283" s="3">
         <v>282</v>
       </c>
-      <c r="B283" s="4">
+      <c r="B283" s="3">
         <v>1</v>
       </c>
       <c r="C283" t="s">
         <v>162</v>
       </c>
-      <c r="D283" s="2">
+      <c r="D283" s="4">
         <v>68981.206905700004</v>
       </c>
-      <c r="E283" s="2">
+      <c r="E283" s="4">
         <v>1483.35876128</v>
       </c>
-      <c r="F283" s="2">
+      <c r="F283" s="4">
         <v>168650.650093</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="4">
+      <c r="A284" s="3">
         <v>283</v>
       </c>
-      <c r="B284" s="4">
+      <c r="B284" s="3">
         <v>1</v>
       </c>
       <c r="C284" t="s">
         <v>197</v>
       </c>
-      <c r="D284" s="2">
+      <c r="D284" s="4">
         <v>17486.043692700001</v>
       </c>
-      <c r="E284" s="2">
+      <c r="E284" s="4">
         <v>55.638247765700001</v>
       </c>
-      <c r="F284" s="2">
+      <c r="F284" s="4">
         <v>65423.7686894</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="4">
+      <c r="A285" s="3">
         <v>284</v>
       </c>
-      <c r="B285" s="4">
+      <c r="B285" s="3">
         <v>1</v>
       </c>
       <c r="C285" t="s">
         <v>83</v>
       </c>
-      <c r="D285" s="2">
+      <c r="D285" s="4">
         <v>920855.12596700003</v>
       </c>
-      <c r="E285" s="2">
+      <c r="E285" s="4">
         <v>15936.5507077</v>
       </c>
-      <c r="F285" s="2">
+      <c r="F285" s="4">
         <v>321070.28748499998</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="4">
+      <c r="A286" s="3">
         <v>285</v>
       </c>
-      <c r="B286" s="4">
+      <c r="B286" s="3">
         <v>1</v>
       </c>
       <c r="C286" t="s">
         <v>326</v>
       </c>
-      <c r="D286" s="2">
+      <c r="D286" s="4">
         <v>12376.8386264</v>
       </c>
-      <c r="E286" s="2">
-        <v>0</v>
-      </c>
-      <c r="F286" s="2">
+      <c r="E286" s="4">
+        <v>0</v>
+      </c>
+      <c r="F286" s="4">
         <v>480435.58345199999</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="4">
+      <c r="A287" s="3">
         <v>286</v>
       </c>
-      <c r="B287" s="4">
+      <c r="B287" s="3">
         <v>1</v>
       </c>
       <c r="C287" t="s">
         <v>27</v>
       </c>
-      <c r="D287" s="2">
-        <v>0</v>
-      </c>
-      <c r="E287" s="2">
-        <v>0</v>
-      </c>
-      <c r="F287" s="2">
+      <c r="D287" s="4">
+        <v>0</v>
+      </c>
+      <c r="E287" s="4">
+        <v>0</v>
+      </c>
+      <c r="F287" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="4">
+      <c r="A288" s="3">
         <v>287</v>
       </c>
-      <c r="B288" s="4">
+      <c r="B288" s="3">
         <v>1</v>
       </c>
       <c r="C288" t="s">
         <v>270</v>
       </c>
-      <c r="D288" s="2">
+      <c r="D288" s="4">
         <v>22190.284417800001</v>
       </c>
-      <c r="E288" s="2">
-        <v>0</v>
-      </c>
-      <c r="F288" s="2">
+      <c r="E288" s="4">
+        <v>0</v>
+      </c>
+      <c r="F288" s="4">
         <v>35757.323576700001</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="4">
+      <c r="A289" s="3">
         <v>288</v>
       </c>
-      <c r="B289" s="4">
+      <c r="B289" s="3">
         <v>1</v>
       </c>
       <c r="C289" t="s">
         <v>108</v>
       </c>
-      <c r="D289" s="2">
+      <c r="D289" s="4">
         <v>116640.509307</v>
       </c>
-      <c r="E289" s="2">
+      <c r="E289" s="4">
         <v>2247.8526958299999</v>
       </c>
-      <c r="F289" s="2">
+      <c r="F289" s="4">
         <v>13432.3166707</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="4">
+      <c r="A290" s="3">
         <v>289</v>
       </c>
-      <c r="B290" s="4">
+      <c r="B290" s="3">
         <v>1</v>
       </c>
       <c r="C290" t="s">
         <v>107</v>
       </c>
-      <c r="D290" s="2">
+      <c r="D290" s="4">
         <v>486829.91165600001</v>
       </c>
-      <c r="E290" s="2">
+      <c r="E290" s="4">
         <v>8515.3467524999996</v>
       </c>
-      <c r="F290" s="2">
+      <c r="F290" s="4">
         <v>896394.91183700005</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="4">
+      <c r="A291" s="3">
         <v>290</v>
       </c>
-      <c r="B291" s="4">
+      <c r="B291" s="3">
         <v>1</v>
       </c>
       <c r="C291" t="s">
         <v>109</v>
       </c>
-      <c r="D291" s="2">
+      <c r="D291" s="4">
         <v>11679.5470064</v>
       </c>
-      <c r="E291" s="2">
+      <c r="E291" s="4">
         <v>227.926474724</v>
       </c>
-      <c r="F291" s="2">
+      <c r="F291" s="4">
         <v>827.39798565199999</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="4">
+      <c r="A292" s="3">
         <v>291</v>
       </c>
-      <c r="B292" s="4">
+      <c r="B292" s="3">
         <v>1</v>
       </c>
       <c r="C292" t="s">
         <v>180</v>
       </c>
-      <c r="D292" s="2">
+      <c r="D292" s="4">
         <v>104960.96230100001</v>
       </c>
-      <c r="E292" s="2">
+      <c r="E292" s="4">
         <v>2019.9262211099999</v>
       </c>
-      <c r="F292" s="2">
+      <c r="F292" s="4">
         <v>12604.918685000001</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="4">
+      <c r="A293" s="3">
         <v>292</v>
       </c>
-      <c r="B293" s="4">
+      <c r="B293" s="3">
         <v>1</v>
       </c>
       <c r="C293" t="s">
         <v>333</v>
       </c>
-      <c r="D293" s="2">
+      <c r="D293" s="4">
         <v>224665.33448600001</v>
       </c>
-      <c r="E293" s="2">
-        <v>0</v>
-      </c>
-      <c r="F293" s="2">
+      <c r="E293" s="4">
+        <v>0</v>
+      </c>
+      <c r="F293" s="4">
         <v>6283365.1375599997</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="4">
+      <c r="A294" s="3">
         <v>293</v>
       </c>
-      <c r="B294" s="4">
+      <c r="B294" s="3">
         <v>1</v>
       </c>
       <c r="C294" t="s">
         <v>303</v>
       </c>
-      <c r="D294" s="2">
+      <c r="D294" s="4">
         <v>6345.4567016700003</v>
       </c>
-      <c r="E294" s="2">
-        <v>0</v>
-      </c>
-      <c r="F294" s="2">
+      <c r="E294" s="4">
+        <v>0</v>
+      </c>
+      <c r="F294" s="4">
         <v>743404.19966599997</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="4">
+      <c r="A295" s="3">
         <v>294</v>
       </c>
-      <c r="B295" s="4">
+      <c r="B295" s="3">
         <v>1</v>
       </c>
       <c r="C295" t="s">
         <v>50</v>
       </c>
-      <c r="D295" s="2">
+      <c r="D295" s="4">
         <v>199857.737207</v>
       </c>
-      <c r="E295" s="2">
+      <c r="E295" s="4">
         <v>2136.9067681400002</v>
       </c>
-      <c r="F295" s="2">
+      <c r="F295" s="4">
         <v>3622521.5464900001</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="4">
+      <c r="A296" s="3">
         <v>295</v>
       </c>
-      <c r="B296" s="4">
+      <c r="B296" s="3">
         <v>1</v>
       </c>
       <c r="C296" t="s">
         <v>138</v>
       </c>
-      <c r="D296" s="2">
+      <c r="D296" s="4">
         <v>62990.042807400001</v>
       </c>
-      <c r="E296" s="2">
+      <c r="E296" s="4">
         <v>898.66709727399996</v>
       </c>
-      <c r="F296" s="2">
+      <c r="F296" s="4">
         <v>40081.247842700002</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="4">
+      <c r="A297" s="3">
         <v>296</v>
       </c>
-      <c r="B297" s="4">
+      <c r="B297" s="3">
         <v>1</v>
       </c>
       <c r="C297" t="s">
         <v>289</v>
       </c>
-      <c r="D297" s="2">
+      <c r="D297" s="4">
         <v>21772.7149049</v>
       </c>
-      <c r="E297" s="2">
-        <v>0</v>
-      </c>
-      <c r="F297" s="2">
+      <c r="E297" s="4">
+        <v>0</v>
+      </c>
+      <c r="F297" s="4">
         <v>6297533.3972300002</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="4">
+      <c r="A298" s="3">
         <v>297</v>
       </c>
-      <c r="B298" s="4">
+      <c r="B298" s="3">
         <v>1</v>
       </c>
       <c r="C298" t="s">
         <v>177</v>
       </c>
-      <c r="D298" s="2">
+      <c r="D298" s="4">
         <v>231.83889032100001</v>
       </c>
-      <c r="E298" s="2">
+      <c r="E298" s="4">
         <v>7.7289487936199999</v>
       </c>
-      <c r="F298" s="2">
+      <c r="F298" s="4">
         <v>254.617454337</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="4">
+      <c r="A299" s="3">
         <v>298</v>
       </c>
-      <c r="B299" s="4">
+      <c r="B299" s="3">
         <v>1</v>
       </c>
       <c r="C299" t="s">
         <v>210</v>
       </c>
-      <c r="D299" s="2">
+      <c r="D299" s="4">
         <v>245475.11078399999</v>
       </c>
-      <c r="E299" s="2">
+      <c r="E299" s="4">
         <v>155.184737216</v>
       </c>
-      <c r="F299" s="2">
+      <c r="F299" s="4">
         <v>8789407.1005199999</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="4">
+      <c r="A300" s="3">
         <v>299</v>
       </c>
-      <c r="B300" s="4">
+      <c r="B300" s="3">
         <v>1</v>
       </c>
       <c r="C300" t="s">
         <v>64</v>
       </c>
-      <c r="D300" s="2">
+      <c r="D300" s="4">
         <v>83604.626083499999</v>
       </c>
-      <c r="E300" s="2">
+      <c r="E300" s="4">
         <v>2723.7761409999998</v>
       </c>
-      <c r="F300" s="2">
+      <c r="F300" s="4">
         <v>3153.23137924</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="4">
+      <c r="A301" s="3">
         <v>300</v>
       </c>
-      <c r="B301" s="4">
+      <c r="B301" s="3">
         <v>1</v>
       </c>
       <c r="C301" t="s">
         <v>80</v>
       </c>
-      <c r="D301" s="2">
+      <c r="D301" s="4">
         <v>59455.157762100003</v>
       </c>
-      <c r="E301" s="2">
+      <c r="E301" s="4">
         <v>690.06137702000001</v>
       </c>
-      <c r="F301" s="2">
+      <c r="F301" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="4">
+      <c r="A302" s="3">
         <v>301</v>
       </c>
-      <c r="B302" s="4">
+      <c r="B302" s="3">
         <v>1</v>
       </c>
       <c r="C302" t="s">
         <v>51</v>
       </c>
-      <c r="D302" s="2">
+      <c r="D302" s="4">
         <v>180781.85775900001</v>
       </c>
-      <c r="E302" s="2">
+      <c r="E302" s="4">
         <v>2116.0688736900001</v>
       </c>
-      <c r="F302" s="2">
+      <c r="F302" s="4">
         <v>179000.14559199999</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="4">
+      <c r="A303" s="3">
         <v>302</v>
       </c>
-      <c r="B303" s="4">
+      <c r="B303" s="3">
         <v>1</v>
       </c>
       <c r="C303" t="s">
         <v>269</v>
       </c>
-      <c r="D303" s="2">
+      <c r="D303" s="4">
         <v>35908.6052948</v>
       </c>
-      <c r="E303" s="2">
-        <v>0</v>
-      </c>
-      <c r="F303" s="2">
+      <c r="E303" s="4">
+        <v>0</v>
+      </c>
+      <c r="F303" s="4">
         <v>9939057.9918099996</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="4">
+      <c r="A304" s="3">
         <v>303</v>
       </c>
-      <c r="B304" s="4">
+      <c r="B304" s="3">
         <v>1</v>
       </c>
       <c r="C304" t="s">
         <v>150</v>
       </c>
-      <c r="D304" s="2">
+      <c r="D304" s="4">
         <v>3683.2977687799998</v>
       </c>
-      <c r="E304" s="2">
+      <c r="E304" s="4">
         <v>71.949386607099996</v>
       </c>
-      <c r="F304" s="2">
+      <c r="F304" s="4">
         <v>297.48637256900003</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="4">
+      <c r="A305" s="3">
         <v>304</v>
       </c>
-      <c r="B305" s="4">
+      <c r="B305" s="3">
         <v>1</v>
       </c>
       <c r="C305" t="s">
         <v>18</v>
       </c>
-      <c r="D305" s="2">
+      <c r="D305" s="4">
         <v>67557.534916100005</v>
       </c>
-      <c r="E305" s="2">
+      <c r="E305" s="4">
         <v>800.24587469100004</v>
       </c>
-      <c r="F305" s="2">
+      <c r="F305" s="4">
         <v>215.35893106699999</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="4">
+      <c r="A306" s="3">
         <v>305</v>
       </c>
-      <c r="B306" s="4">
+      <c r="B306" s="3">
         <v>1</v>
       </c>
       <c r="C306" t="s">
         <v>137</v>
       </c>
-      <c r="D306" s="2">
+      <c r="D306" s="4">
         <v>3853.08048121</v>
       </c>
-      <c r="E306" s="2">
+      <c r="E306" s="4">
         <v>44.533462508299998</v>
       </c>
-      <c r="F306" s="2">
+      <c r="F306" s="4">
         <v>2952.29907774</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="4">
+      <c r="A307" s="3">
         <v>306</v>
       </c>
-      <c r="B307" s="4">
+      <c r="B307" s="3">
         <v>1</v>
       </c>
       <c r="C307" t="s">
         <v>288</v>
       </c>
-      <c r="D307" s="2">
+      <c r="D307" s="4">
         <v>27870.0799606</v>
       </c>
-      <c r="E307" s="2">
-        <v>0</v>
-      </c>
-      <c r="F307" s="2">
+      <c r="E307" s="4">
+        <v>0</v>
+      </c>
+      <c r="F307" s="4">
         <v>1953683.4747599999</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="4">
+      <c r="A308" s="3">
         <v>307</v>
       </c>
-      <c r="B308" s="4">
+      <c r="B308" s="3">
         <v>1</v>
       </c>
       <c r="C308" t="s">
         <v>154</v>
       </c>
-      <c r="D308" s="2">
+      <c r="D308" s="4">
         <v>6178.3795385699996</v>
       </c>
-      <c r="E308" s="2">
+      <c r="E308" s="4">
         <v>202.67752878100001</v>
       </c>
-      <c r="F308" s="2">
+      <c r="F308" s="4">
         <v>769.13074188500002</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="4">
+      <c r="A309" s="3">
         <v>308</v>
       </c>
-      <c r="B309" s="4">
+      <c r="B309" s="3">
         <v>1</v>
       </c>
       <c r="C309" t="s">
         <v>71</v>
       </c>
-      <c r="D309" s="2">
+      <c r="D309" s="4">
         <v>76982.817548499996</v>
       </c>
-      <c r="E309" s="2">
+      <c r="E309" s="4">
         <v>2639.4182442599999</v>
       </c>
-      <c r="F309" s="2">
+      <c r="F309" s="4">
         <v>2281.2992901100001</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="4">
+      <c r="A310" s="3">
         <v>309</v>
       </c>
-      <c r="B310" s="4">
+      <c r="B310" s="3">
         <v>1</v>
       </c>
       <c r="C310" t="s">
         <v>274</v>
       </c>
-      <c r="D310" s="2">
+      <c r="D310" s="4">
         <v>1636.1384490600001</v>
       </c>
-      <c r="E310" s="2">
-        <v>0</v>
-      </c>
-      <c r="F310" s="2">
+      <c r="E310" s="4">
+        <v>0</v>
+      </c>
+      <c r="F310" s="4">
         <v>20518.5747539</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="4">
+      <c r="A311" s="3">
         <v>310</v>
       </c>
-      <c r="B311" s="4">
+      <c r="B311" s="3">
         <v>1</v>
       </c>
       <c r="C311" t="s">
         <v>82</v>
       </c>
-      <c r="D311" s="2">
+      <c r="D311" s="4">
         <v>941701.19599899999</v>
       </c>
-      <c r="E311" s="2">
+      <c r="E311" s="4">
         <v>16132.788920499999</v>
       </c>
-      <c r="F311" s="2">
+      <c r="F311" s="4">
         <v>458163.86356500001</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="4">
+      <c r="A312" s="3">
         <v>311</v>
       </c>
-      <c r="B312" s="4">
+      <c r="B312" s="3">
         <v>1</v>
       </c>
       <c r="C312" t="s">
         <v>307</v>
       </c>
-      <c r="D312" s="2">
+      <c r="D312" s="4">
         <v>450.00782958500002</v>
       </c>
-      <c r="E312" s="2">
-        <v>0</v>
-      </c>
-      <c r="F312" s="2">
+      <c r="E312" s="4">
+        <v>0</v>
+      </c>
+      <c r="F312" s="4">
         <v>421022.590172</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="4">
+      <c r="A313" s="3">
         <v>312</v>
       </c>
-      <c r="B313" s="4">
+      <c r="B313" s="3">
         <v>1</v>
       </c>
       <c r="C313" t="s">
         <v>265</v>
       </c>
-      <c r="D313" s="2">
+      <c r="D313" s="4">
         <v>435.02049890500001</v>
       </c>
-      <c r="E313" s="2">
-        <v>0</v>
-      </c>
-      <c r="F313" s="2">
+      <c r="E313" s="4">
+        <v>0</v>
+      </c>
+      <c r="F313" s="4">
         <v>3165531.4245699998</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="4">
+      <c r="A314" s="3">
         <v>313</v>
       </c>
-      <c r="B314" s="4">
+      <c r="B314" s="3">
         <v>1</v>
       </c>
       <c r="C314" t="s">
         <v>227</v>
       </c>
-      <c r="D314" s="2">
+      <c r="D314" s="4">
         <v>533822.96413500002</v>
       </c>
-      <c r="E314" s="2">
+      <c r="E314" s="4">
         <v>13936.9058095</v>
       </c>
-      <c r="F314" s="2">
+      <c r="F314" s="4">
         <v>8133738.0756400004</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="4">
+      <c r="A315" s="3">
         <v>314</v>
       </c>
-      <c r="B315" s="4">
+      <c r="B315" s="3">
         <v>1</v>
       </c>
       <c r="C315" t="s">
         <v>322</v>
       </c>
-      <c r="D315" s="2">
+      <c r="D315" s="4">
         <v>422.93184582599997</v>
       </c>
-      <c r="E315" s="2">
-        <v>0</v>
-      </c>
-      <c r="F315" s="2">
+      <c r="E315" s="4">
+        <v>0</v>
+      </c>
+      <c r="F315" s="4">
         <v>25909.021775500001</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="4">
+      <c r="A316" s="3">
         <v>315</v>
       </c>
-      <c r="B316" s="4">
+      <c r="B316" s="3">
         <v>1</v>
       </c>
       <c r="C316" t="s">
         <v>4</v>
       </c>
-      <c r="D316" s="2">
+      <c r="D316" s="4">
         <v>27360.5901123</v>
       </c>
-      <c r="E316" s="2">
+      <c r="E316" s="4">
         <v>385.95668393800003</v>
       </c>
-      <c r="F316" s="2">
+      <c r="F316" s="4">
         <v>1569.28882946</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="4">
+      <c r="A317" s="3">
         <v>316</v>
       </c>
-      <c r="B317" s="4">
+      <c r="B317" s="3">
         <v>1</v>
       </c>
       <c r="C317" t="s">
         <v>96</v>
       </c>
-      <c r="D317" s="2">
+      <c r="D317" s="4">
         <v>39591.178432499997</v>
       </c>
-      <c r="E317" s="2">
+      <c r="E317" s="4">
         <v>667.14215103499998</v>
       </c>
-      <c r="F317" s="2">
+      <c r="F317" s="4">
         <v>15298.6461347</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="4">
+      <c r="A318" s="3">
         <v>317</v>
       </c>
-      <c r="B318" s="4">
+      <c r="B318" s="3">
         <v>1</v>
       </c>
       <c r="C318" t="s">
         <v>90</v>
       </c>
-      <c r="D318" s="2">
+      <c r="D318" s="4">
         <v>970156.89456100005</v>
       </c>
-      <c r="E318" s="2">
+      <c r="E318" s="4">
         <v>13567.915147399999</v>
       </c>
-      <c r="F318" s="2">
+      <c r="F318" s="4">
         <v>3020016.5359100001</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="4">
+      <c r="A319" s="3">
         <v>318</v>
       </c>
-      <c r="B319" s="4">
+      <c r="B319" s="3">
         <v>1</v>
       </c>
       <c r="C319" t="s">
         <v>97</v>
       </c>
-      <c r="D319" s="2">
+      <c r="D319" s="4">
         <v>29035.2311477</v>
       </c>
-      <c r="E319" s="2">
+      <c r="E319" s="4">
         <v>352.812419697</v>
       </c>
-      <c r="F319" s="2">
+      <c r="F319" s="4">
         <v>21289.974105000001</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="4">
+      <c r="A320" s="3">
         <v>319</v>
       </c>
-      <c r="B320" s="4">
+      <c r="B320" s="3">
         <v>1</v>
       </c>
       <c r="C320" t="s">
         <v>8</v>
       </c>
-      <c r="D320" s="2">
+      <c r="D320" s="4">
         <v>32651.6898196</v>
       </c>
-      <c r="E320" s="2">
+      <c r="E320" s="4">
         <v>41.442582445100001</v>
       </c>
-      <c r="F320" s="2">
+      <c r="F320" s="4">
         <v>1208644.8194599999</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="4">
+      <c r="A321" s="3">
         <v>320</v>
       </c>
-      <c r="B321" s="4">
+      <c r="B321" s="3">
         <v>1</v>
       </c>
       <c r="C321" t="s">
         <v>126</v>
       </c>
-      <c r="D321" s="2">
+      <c r="D321" s="4">
         <v>21632.3396216</v>
       </c>
-      <c r="E321" s="2">
+      <c r="E321" s="4">
         <v>266.11812206799999</v>
       </c>
-      <c r="F321" s="2">
+      <c r="F321" s="4">
         <v>488017.87714599998</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="4">
+      <c r="A322" s="3">
         <v>321</v>
       </c>
-      <c r="B322" s="4">
+      <c r="B322" s="3">
         <v>1</v>
       </c>
       <c r="C322" t="s">
         <v>207</v>
       </c>
-      <c r="D322" s="2">
+      <c r="D322" s="4">
         <v>31642.7208852</v>
       </c>
-      <c r="E322" s="2">
+      <c r="E322" s="4">
         <v>364.59474427700002</v>
       </c>
-      <c r="F322" s="2">
+      <c r="F322" s="4">
         <v>48730.052366999997</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="4">
+      <c r="A323" s="3">
         <v>322</v>
       </c>
-      <c r="B323" s="4">
+      <c r="B323" s="3">
         <v>1</v>
       </c>
       <c r="C323" t="s">
         <v>128</v>
       </c>
-      <c r="D323" s="2">
+      <c r="D323" s="4">
         <v>877.60104417800005</v>
       </c>
-      <c r="E323" s="2">
+      <c r="E323" s="4">
         <v>3.9688349218100001</v>
       </c>
-      <c r="F323" s="2">
+      <c r="F323" s="4">
         <v>9932.8959085499991</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="4">
+      <c r="A324" s="3">
         <v>323</v>
       </c>
-      <c r="B324" s="4">
+      <c r="B324" s="3">
         <v>1</v>
       </c>
       <c r="C324" t="s">
         <v>332</v>
       </c>
-      <c r="D324" s="2">
+      <c r="D324" s="4">
         <v>23391.9572611</v>
       </c>
-      <c r="E324" s="2">
-        <v>0</v>
-      </c>
-      <c r="F324" s="2">
+      <c r="E324" s="4">
+        <v>0</v>
+      </c>
+      <c r="F324" s="4">
         <v>388004.78066500003</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="4">
+      <c r="A325" s="3">
         <v>324</v>
       </c>
-      <c r="B325" s="4">
+      <c r="B325" s="3">
         <v>1</v>
       </c>
       <c r="C325" t="s">
         <v>74</v>
       </c>
-      <c r="D325" s="2">
+      <c r="D325" s="4">
         <v>10151.1264273</v>
       </c>
-      <c r="E325" s="2">
+      <c r="E325" s="4">
         <v>332.87583329400002</v>
       </c>
-      <c r="F325" s="2">
+      <c r="F325" s="4">
         <v>1190.4385143500001</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="4">
+      <c r="A326" s="3">
         <v>325</v>
       </c>
-      <c r="B326" s="4">
+      <c r="B326" s="3">
         <v>1</v>
       </c>
       <c r="C326" t="s">
         <v>131</v>
       </c>
-      <c r="D326" s="2">
+      <c r="D326" s="4">
         <v>3296.9010082499999</v>
       </c>
-      <c r="E326" s="2">
+      <c r="E326" s="4">
         <v>1.7190780531100001</v>
       </c>
-      <c r="F326" s="2">
+      <c r="F326" s="4">
         <v>207270.939984</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="4">
+      <c r="A327" s="3">
         <v>326</v>
       </c>
-      <c r="B327" s="4">
+      <c r="B327" s="3">
         <v>1</v>
       </c>
       <c r="C327" t="s">
         <v>20</v>
       </c>
-      <c r="D327" s="2">
+      <c r="D327" s="4">
         <v>22608.3205629</v>
       </c>
-      <c r="E327" s="2">
+      <c r="E327" s="4">
         <v>319.27283224299998</v>
       </c>
-      <c r="F327" s="2">
+      <c r="F327" s="4">
         <v>32837.390216100001</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="4">
+      <c r="A328" s="3">
         <v>327</v>
       </c>
-      <c r="B328" s="4">
+      <c r="B328" s="3">
         <v>1</v>
       </c>
       <c r="C328" t="s">
         <v>245</v>
       </c>
-      <c r="D328" s="2">
+      <c r="D328" s="4">
         <v>4862.17281172</v>
       </c>
-      <c r="E328" s="2">
+      <c r="E328" s="4">
         <v>171.60234792200001</v>
       </c>
-      <c r="F328" s="2">
+      <c r="F328" s="4">
         <v>160.57911578900001</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="4">
+      <c r="A329" s="3">
         <v>328</v>
       </c>
-      <c r="B329" s="4">
+      <c r="B329" s="3">
         <v>1</v>
       </c>
       <c r="C329" t="s">
         <v>101</v>
       </c>
-      <c r="D329" s="2">
+      <c r="D329" s="4">
         <v>8364.8937188100008</v>
       </c>
-      <c r="E329" s="2">
+      <c r="E329" s="4">
         <v>70.370009991800003</v>
       </c>
-      <c r="F329" s="2">
+      <c r="F329" s="4">
         <v>57247.046151299997</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="4">
+      <c r="A330" s="3">
         <v>329</v>
       </c>
-      <c r="B330" s="4">
+      <c r="B330" s="3">
         <v>1</v>
       </c>
       <c r="C330" t="s">
         <v>328</v>
       </c>
-      <c r="D330" s="2">
+      <c r="D330" s="4">
         <v>31184.543493699999</v>
       </c>
-      <c r="E330" s="2">
-        <v>0</v>
-      </c>
-      <c r="F330" s="2">
+      <c r="E330" s="4">
+        <v>0</v>
+      </c>
+      <c r="F330" s="4">
         <v>1018593.8787999999</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="4">
+      <c r="A331" s="3">
         <v>330</v>
       </c>
-      <c r="B331" s="4">
+      <c r="B331" s="3">
         <v>1</v>
       </c>
       <c r="C331" t="s">
         <v>25</v>
       </c>
-      <c r="D331" s="2">
+      <c r="D331" s="4">
         <v>166.12815216800001</v>
       </c>
-      <c r="E331" s="2">
+      <c r="E331" s="4">
         <v>4.0284102378100002</v>
       </c>
-      <c r="F331" s="2">
+      <c r="F331" s="4">
         <v>7.4259885563900001</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="4">
+      <c r="A332" s="3">
         <v>331</v>
       </c>
-      <c r="B332" s="4">
+      <c r="B332" s="3">
         <v>1</v>
       </c>
       <c r="C332" t="s">
         <v>306</v>
       </c>
-      <c r="D332" s="2">
+      <c r="D332" s="4">
         <v>3442.15360659</v>
       </c>
-      <c r="E332" s="2">
-        <v>0</v>
-      </c>
-      <c r="F332" s="2">
+      <c r="E332" s="4">
+        <v>0</v>
+      </c>
+      <c r="F332" s="4">
         <v>14404825.082599999</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="4">
+      <c r="A333" s="3">
         <v>332</v>
       </c>
-      <c r="B333" s="4">
+      <c r="B333" s="3">
         <v>1</v>
       </c>
       <c r="C333" t="s">
         <v>17</v>
       </c>
-      <c r="D333" s="2">
+      <c r="D333" s="4">
         <v>181428.38267600001</v>
       </c>
-      <c r="E333" s="2">
+      <c r="E333" s="4">
         <v>2135.0916069300001</v>
       </c>
-      <c r="F333" s="2">
+      <c r="F333" s="4">
         <v>24267.698296999999</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="4">
+      <c r="A334" s="3">
         <v>333</v>
       </c>
-      <c r="B334" s="4">
+      <c r="B334" s="3">
         <v>1</v>
       </c>
       <c r="C334" t="s">
         <v>113</v>
       </c>
-      <c r="D334" s="2">
-        <v>0</v>
-      </c>
-      <c r="E334" s="2">
-        <v>0</v>
-      </c>
-      <c r="F334" s="2">
+      <c r="D334" s="4">
+        <v>0</v>
+      </c>
+      <c r="E334" s="4">
+        <v>0</v>
+      </c>
+      <c r="F334" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="4">
+      <c r="A335" s="3">
         <v>334</v>
       </c>
-      <c r="B335" s="4">
+      <c r="B335" s="3">
         <v>1</v>
       </c>
       <c r="C335" t="s">
         <v>213</v>
       </c>
-      <c r="D335" s="2">
-        <v>0</v>
-      </c>
-      <c r="E335" s="2">
-        <v>0</v>
-      </c>
-      <c r="F335" s="2">
+      <c r="D335" s="4">
+        <v>0</v>
+      </c>
+      <c r="E335" s="4">
+        <v>0</v>
+      </c>
+      <c r="F335" s="4">
         <v>0</v>
       </c>
     </row>
